--- a/June2016/ISWRPQAQ_stats.xlsx
+++ b/June2016/ISWRPQAQ_stats.xlsx
@@ -767,10 +767,10 @@
         <v>695</v>
       </c>
       <c r="S4">
-        <v>6.661640287769784</v>
+        <v>6.661654676258993</v>
       </c>
       <c r="T4">
-        <v>0.9067353878085048</v>
+        <v>0.9067397317303447</v>
       </c>
       <c r="U4">
         <v>5.14</v>
@@ -815,10 +815,10 @@
         <v>695</v>
       </c>
       <c r="AI4">
-        <v>144.7060431654676</v>
+        <v>144.7074820143885</v>
       </c>
       <c r="AJ4">
-        <v>53.60856762221258</v>
+        <v>53.6085620647274</v>
       </c>
       <c r="AK4">
         <v>80.8</v>
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>-0.03754854532374107</v>
+        <v>-0.03754868920863316</v>
       </c>
       <c r="AZ4">
-        <v>0.02956755567465717</v>
+        <v>0.02956778375198473</v>
       </c>
       <c r="BA4">
         <v>-0.272</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>-0.3541134397988503</v>
+        <v>-0.3541148910919538</v>
       </c>
       <c r="BH5">
-        <v>0.3123248216382941</v>
+        <v>0.3123244430981122</v>
       </c>
       <c r="BI5">
         <v>-2.17</v>
@@ -1161,10 +1161,10 @@
         <v>696</v>
       </c>
       <c r="S6">
-        <v>5.58293103448276</v>
+        <v>5.582916666666668</v>
       </c>
       <c r="T6">
-        <v>0.5755950573598231</v>
+        <v>0.5755715072447893</v>
       </c>
       <c r="U6">
         <v>4.66</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>-0.00726033649425287</v>
+        <v>-0.007260105603448269</v>
       </c>
       <c r="AZ6">
-        <v>0.01544581568378963</v>
+        <v>0.01544587482049682</v>
       </c>
       <c r="BA6">
         <v>-0.135</v>
@@ -1272,7 +1272,7 @@
         <v>-0.004275</v>
       </c>
       <c r="BD6">
-        <v>-0.00095725</v>
+        <v>-0.0009565</v>
       </c>
       <c r="BE6">
         <v>0.0165</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.1410581695402298</v>
+        <v>-0.1410451853448275</v>
       </c>
       <c r="BH6">
-        <v>0.1599868965938085</v>
+        <v>0.1599849253226401</v>
       </c>
       <c r="BI6">
         <v>-0.794</v>
@@ -1358,10 +1358,10 @@
         <v>696</v>
       </c>
       <c r="S7">
-        <v>5.441264367816093</v>
+        <v>5.44125</v>
       </c>
       <c r="T7">
-        <v>0.5719122126078089</v>
+        <v>0.5719101057550463</v>
       </c>
       <c r="U7">
         <v>4.54</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>-0.005719461066091954</v>
+        <v>-0.005719376568965517</v>
       </c>
       <c r="AZ7">
-        <v>0.01504625031888562</v>
+        <v>0.01504623449537892</v>
       </c>
       <c r="BA7">
         <v>-0.129</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>-0.09213814037356319</v>
+        <v>-0.09213560632183905</v>
       </c>
       <c r="BH7">
-        <v>0.1592378183394884</v>
+        <v>0.1592349487074541</v>
       </c>
       <c r="BI7">
         <v>-0.653</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>-0.004284110057471265</v>
+        <v>-0.004283999137931035</v>
       </c>
       <c r="AZ8">
-        <v>0.01439016130101674</v>
+        <v>0.01439016322224584</v>
       </c>
       <c r="BA8">
         <v>-0.122</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.05169555028735633</v>
+        <v>-0.05169205890804597</v>
       </c>
       <c r="BH8">
-        <v>0.1565158819941757</v>
+        <v>0.1565141349789194</v>
       </c>
       <c r="BI8">
         <v>-0.458</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>-0.003371302442528735</v>
+        <v>-0.003371286494252872</v>
       </c>
       <c r="AZ9">
-        <v>0.01377986409794457</v>
+        <v>0.01377986686551745</v>
       </c>
       <c r="BA9">
         <v>-0.116</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>-0.02921735632183919</v>
+        <v>-0.02921719827586217</v>
       </c>
       <c r="BH9">
-        <v>0.1592687755663708</v>
+        <v>0.1592686175812416</v>
       </c>
       <c r="BI9">
         <v>-0.386</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.002717532758620688</v>
+        <v>-0.0027175816091954</v>
       </c>
       <c r="AZ10">
-        <v>0.01325783196444927</v>
+        <v>0.01325782498988734</v>
       </c>
       <c r="BA10">
         <v>-0.11</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>-0.01468818821839079</v>
+        <v>-0.0146888922413793</v>
       </c>
       <c r="BH10">
-        <v>0.1621796336522039</v>
+        <v>0.1621794310733076</v>
       </c>
       <c r="BI10">
         <v>-0.35</v>
@@ -2122,10 +2122,10 @@
         <v>696</v>
       </c>
       <c r="K11">
-        <v>39.31954022988509</v>
+        <v>39.32025862068969</v>
       </c>
       <c r="L11">
-        <v>2.482443172532666</v>
+        <v>2.482341767856223</v>
       </c>
       <c r="M11">
         <v>35.3</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>5.198994252873564</v>
+        <v>5.199870689655169</v>
       </c>
       <c r="T11">
-        <v>0.5846451250708256</v>
+        <v>0.5849511919159071</v>
       </c>
       <c r="U11">
         <v>4.13</v>
@@ -2158,7 +2158,7 @@
         <v>4.74</v>
       </c>
       <c r="W11">
-        <v>5.12</v>
+        <v>5.125</v>
       </c>
       <c r="X11">
         <v>5.57</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>123.5354885057472</v>
+        <v>123.535775862069</v>
       </c>
       <c r="AJ11">
-        <v>35.28608492187164</v>
+        <v>35.28580653331489</v>
       </c>
       <c r="AK11">
         <v>70.90000000000001</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>32.50833333333333</v>
+        <v>32.50864942528735</v>
       </c>
       <c r="AR11">
-        <v>18.50698130248301</v>
+        <v>18.50714121281742</v>
       </c>
       <c r="AS11">
         <v>1.44</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.0013521091954023</v>
+        <v>0.00135229841954023</v>
       </c>
       <c r="AZ11">
-        <v>0.01735124608189168</v>
+        <v>0.01735161477887539</v>
       </c>
       <c r="BA11">
         <v>-0.139</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.1059768247126437</v>
+        <v>0.1059663649425288</v>
       </c>
       <c r="BH11">
-        <v>0.429406351622046</v>
+        <v>0.4294075258271368</v>
       </c>
       <c r="BI11">
         <v>-1.57</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.000648920277442529</v>
+        <v>0.0006488628704022993</v>
       </c>
       <c r="AZ12">
-        <v>0.01128792884239015</v>
+        <v>0.01128790307270229</v>
       </c>
       <c r="BA12">
         <v>-0.0886</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.07329773822270125</v>
+        <v>0.07329928656465527</v>
       </c>
       <c r="BH12">
-        <v>0.1919677893930845</v>
+        <v>0.1919660769263485</v>
       </c>
       <c r="BI12">
         <v>-0.198</v>
@@ -2475,7 +2475,7 @@
         <v>-0.07137499999999999</v>
       </c>
       <c r="BK12">
-        <v>0.0002415</v>
+        <v>0.000241</v>
       </c>
       <c r="BL12">
         <v>0.20825</v>
@@ -2612,10 +2612,10 @@
         <v>696</v>
       </c>
       <c r="AQ13">
-        <v>33.09040229885059</v>
+        <v>33.09054597701152</v>
       </c>
       <c r="AR13">
-        <v>18.97702844153997</v>
+        <v>18.97731018505397</v>
       </c>
       <c r="AS13">
         <v>1.48</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.0006619438936781611</v>
+        <v>0.0006619435919540232</v>
       </c>
       <c r="AZ13">
-        <v>0.01051630008424548</v>
+        <v>0.01051630010413646</v>
       </c>
       <c r="BA13">
         <v>-0.08260000000000001</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.06260271839080461</v>
+        <v>0.062602716954023</v>
       </c>
       <c r="BH13">
-        <v>0.1734639029323782</v>
+        <v>0.1734639034585526</v>
       </c>
       <c r="BI13">
         <v>-0.198</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.001607991178160921</v>
+        <v>0.001607976810344829</v>
       </c>
       <c r="AZ15">
-        <v>0.00967167287759684</v>
+        <v>0.00967166218551071</v>
       </c>
       <c r="BA15">
         <v>-0.07049999999999999</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.1047760043103448</v>
+        <v>0.1047745675287356</v>
       </c>
       <c r="BH18">
-        <v>0.1790086826747949</v>
+        <v>0.1790076640748357</v>
       </c>
       <c r="BI18">
         <v>-0.161</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.003267277155172411</v>
+        <v>0.003267262787356319</v>
       </c>
       <c r="AZ19">
-        <v>0.008765019729154644</v>
+        <v>0.008765010080379828</v>
       </c>
       <c r="BA19">
         <v>-0.0491</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.1122903189655172</v>
+        <v>0.1122903204022989</v>
       </c>
       <c r="BH19">
-        <v>0.1811157870650317</v>
+        <v>0.1811157861691079</v>
       </c>
       <c r="BI19">
         <v>-0.154</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.003616658045977011</v>
+        <v>0.003616643678160919</v>
       </c>
       <c r="AZ20">
-        <v>0.008642944350905893</v>
+        <v>0.008642936096405544</v>
       </c>
       <c r="BA20">
         <v>-0.0442</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.1186925219827587</v>
+        <v>0.1186882130747128</v>
       </c>
       <c r="BH20">
-        <v>0.1806632376239836</v>
+        <v>0.1806597369155837</v>
       </c>
       <c r="BI20">
         <v>-0.148</v>
@@ -4054,7 +4054,7 @@
         <v>0.0176</v>
       </c>
       <c r="BL20">
-        <v>0.26125</v>
+        <v>0.261</v>
       </c>
       <c r="BM20">
         <v>0.9320000000000001</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.003924210028735631</v>
+        <v>0.003924181293103447</v>
       </c>
       <c r="AZ21">
-        <v>0.008510713070616502</v>
+        <v>0.008510696262991899</v>
       </c>
       <c r="BA21">
         <v>-0.0395</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.1239256540229886</v>
+        <v>0.1239227804597702</v>
       </c>
       <c r="BH21">
-        <v>0.1773212087617391</v>
+        <v>0.1773176696336422</v>
       </c>
       <c r="BI21">
         <v>-0.142</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.004205583321839081</v>
+        <v>0.004205569099137932</v>
       </c>
       <c r="AZ22">
-        <v>0.008415273266247868</v>
+        <v>0.008415268764627509</v>
       </c>
       <c r="BA22">
         <v>-0.035</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.1285733352873563</v>
+        <v>0.1285690249425287</v>
       </c>
       <c r="BH22">
-        <v>0.1745949177035293</v>
+        <v>0.1745887303101996</v>
       </c>
       <c r="BI22">
         <v>-0.136</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.004504341793103445</v>
+        <v>0.004504327426724134</v>
       </c>
       <c r="AZ23">
-        <v>0.008404581713024857</v>
+        <v>0.008404578989063426</v>
       </c>
       <c r="BA23">
         <v>-0.0306</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.1342097121551724</v>
+        <v>0.1342097295416667</v>
       </c>
       <c r="BH23">
-        <v>0.1763046522655338</v>
+        <v>0.1763046387472345</v>
       </c>
       <c r="BI23">
         <v>-0.13</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.004819828764367814</v>
+        <v>0.004819814252873562</v>
       </c>
       <c r="AZ24">
-        <v>0.008466434244356596</v>
+        <v>0.008466425957252938</v>
       </c>
       <c r="BA24">
         <v>-0.0263</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.1406142400862068</v>
+        <v>0.1406128048850573</v>
       </c>
       <c r="BH24">
-        <v>0.1804997938818076</v>
+        <v>0.1804987014553281</v>
       </c>
       <c r="BI24">
         <v>-0.124</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.005123635459770117</v>
+        <v>0.005123606739942531</v>
       </c>
       <c r="AZ25">
-        <v>0.008566450083375348</v>
+        <v>0.008566435675916369</v>
       </c>
       <c r="BA25">
         <v>-0.0222</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.1467152140804598</v>
+        <v>0.1467123534482759</v>
       </c>
       <c r="BH25">
-        <v>0.1844428983964456</v>
+        <v>0.1844391233337098</v>
       </c>
       <c r="BI25">
         <v>-0.119</v>
@@ -5197,16 +5197,16 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.005418864482758619</v>
+        <v>0.005418806882183907</v>
       </c>
       <c r="AZ26">
-        <v>0.008690254834451201</v>
+        <v>0.008690243699255284</v>
       </c>
       <c r="BA26">
         <v>-0.0181</v>
       </c>
       <c r="BB26">
-        <v>-8.965E-06</v>
+        <v>-8.9575E-06</v>
       </c>
       <c r="BC26">
         <v>0.00353</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.1527374551724137</v>
+        <v>0.1527317051724137</v>
       </c>
       <c r="BH26">
-        <v>0.1886674237243743</v>
+        <v>0.1886595092412416</v>
       </c>
       <c r="BI26">
         <v>-0.114</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.005701662273994243</v>
+        <v>0.005701576068103439</v>
       </c>
       <c r="AZ27">
-        <v>0.008827338492298886</v>
+        <v>0.008827328450426306</v>
       </c>
       <c r="BA27">
         <v>-0.0142</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.15852914375</v>
+        <v>0.158520521795977</v>
       </c>
       <c r="BH27">
-        <v>0.1925691863246896</v>
+        <v>0.1925570911698998</v>
       </c>
       <c r="BI27">
         <v>-0.109</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.00596273251436782</v>
+        <v>0.005962660689655177</v>
       </c>
       <c r="AZ28">
-        <v>0.008962808566794265</v>
+        <v>0.008962790927961874</v>
       </c>
       <c r="BA28">
         <v>-0.0104</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.1637470873563218</v>
+        <v>0.1637442153735631</v>
       </c>
       <c r="BH28">
-        <v>0.1953730206399584</v>
+        <v>0.1953696720060648</v>
       </c>
       <c r="BI28">
         <v>-0.104</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.006210091652298853</v>
+        <v>0.006209976709770117</v>
       </c>
       <c r="AZ29">
-        <v>0.009105790777955113</v>
+        <v>0.009105772385457732</v>
       </c>
       <c r="BA29">
         <v>-0.00665</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.1686107991379312</v>
+        <v>0.168607923994253</v>
       </c>
       <c r="BH29">
-        <v>0.1977291610889283</v>
+        <v>0.1977271119452741</v>
       </c>
       <c r="BI29">
         <v>-0.0994</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.006445389396551725</v>
+        <v>0.006445360660919541</v>
       </c>
       <c r="AZ30">
-        <v>0.009254791328740592</v>
+        <v>0.009254780867394192</v>
       </c>
       <c r="BA30">
         <v>-0.00539</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.1732383122126436</v>
+        <v>0.1732325665229885</v>
       </c>
       <c r="BH30">
-        <v>0.1999062656226187</v>
+        <v>0.1998997284111497</v>
       </c>
       <c r="BI30">
         <v>-0.0951</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.006671777629310351</v>
+        <v>0.006671432844827592</v>
       </c>
       <c r="AZ31">
-        <v>0.009411444970792104</v>
+        <v>0.009411303153248311</v>
       </c>
       <c r="BA31">
         <v>-0.00511</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.1776650281752874</v>
+        <v>0.1776565313649425</v>
       </c>
       <c r="BH31">
-        <v>0.2019456910007026</v>
+        <v>0.201936298339173</v>
       </c>
       <c r="BI31">
         <v>-0.09130000000000001</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.006889581188218394</v>
+        <v>0.006889408691091956</v>
       </c>
       <c r="AZ32">
-        <v>0.009574151183594811</v>
+        <v>0.009574099477435304</v>
       </c>
       <c r="BA32">
         <v>-0.00483</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.1819158813649425</v>
+        <v>0.1819099908045977</v>
       </c>
       <c r="BH32">
-        <v>0.2039822420826082</v>
+        <v>0.2039740510282482</v>
       </c>
       <c r="BI32">
         <v>-0.08749999999999999</v>
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>5.323994252873559</v>
+        <v>5.324008620689651</v>
       </c>
       <c r="T33">
-        <v>0.5677316926040564</v>
+        <v>0.5677479377231471</v>
       </c>
       <c r="U33">
         <v>4.45</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.007099539133189652</v>
+        <v>0.007098980427298848</v>
       </c>
       <c r="AZ33">
-        <v>0.00974415690276606</v>
+        <v>0.009743898260630424</v>
       </c>
       <c r="BA33">
         <v>-0.00457</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.1860674362198276</v>
+        <v>0.186057379920977</v>
       </c>
       <c r="BH33">
-        <v>0.2060473324680556</v>
+        <v>0.2060352009658274</v>
       </c>
       <c r="BI33">
         <v>-0.0839</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.00730350565043103</v>
+        <v>0.007303433894971261</v>
       </c>
       <c r="AZ34">
-        <v>0.009918626286473274</v>
+        <v>0.009918625909309932</v>
       </c>
       <c r="BA34">
         <v>-0.00431</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.1900977848563218</v>
+        <v>0.190087726637931</v>
       </c>
       <c r="BH34">
-        <v>0.2081347711384219</v>
+        <v>0.2081200889893047</v>
       </c>
       <c r="BI34">
         <v>-0.0804</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.007502059173850581</v>
+        <v>0.007501886777298856</v>
       </c>
       <c r="AZ35">
-        <v>0.01009978222188071</v>
+        <v>0.01009951222836982</v>
       </c>
       <c r="BA35">
         <v>-0.00406</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.1940153970833332</v>
+        <v>0.1940024664224138</v>
       </c>
       <c r="BH35">
-        <v>0.2102072643976564</v>
+        <v>0.2101917637417601</v>
       </c>
       <c r="BI35">
         <v>-0.077</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.007692698470114939</v>
+        <v>0.007692425389655173</v>
       </c>
       <c r="AZ36">
-        <v>0.01028034194357435</v>
+        <v>0.01027943710027159</v>
       </c>
       <c r="BA36">
         <v>-0.00381</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.1977755779310343</v>
+        <v>0.1977570444382183</v>
       </c>
       <c r="BH36">
-        <v>0.2120750955193876</v>
+        <v>0.21205104182319</v>
       </c>
       <c r="BI36">
         <v>-0.0737</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.007878804552729889</v>
+        <v>0.007878431108764372</v>
       </c>
       <c r="AZ37">
-        <v>0.01046005130935351</v>
+        <v>0.01045997624327109</v>
       </c>
       <c r="BA37">
         <v>-0.00358</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.2014510492385056</v>
+        <v>0.2014453032614941</v>
       </c>
       <c r="BH37">
-        <v>0.2139063070367837</v>
+        <v>0.2138993828385875</v>
       </c>
       <c r="BI37">
         <v>-0.0706</v>
@@ -7537,10 +7537,10 @@
         <v>696</v>
       </c>
       <c r="AQ38">
-        <v>32.86600574712644</v>
+        <v>32.86629310344828</v>
       </c>
       <c r="AR38">
-        <v>18.72274393804902</v>
+        <v>18.7228704924367</v>
       </c>
       <c r="AS38">
         <v>1.46</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.008064209175287357</v>
+        <v>0.008063808356321842</v>
       </c>
       <c r="AZ38">
-        <v>0.0106505694213331</v>
+        <v>0.01065022763345547</v>
       </c>
       <c r="BA38">
         <v>-0.00335</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.2052305616091953</v>
+        <v>0.2052147576580459</v>
       </c>
       <c r="BH38">
-        <v>0.2159777161861509</v>
+        <v>0.2159556894553871</v>
       </c>
       <c r="BI38">
         <v>-0.0675</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.008250583722356326</v>
+        <v>0.008249836581422419</v>
       </c>
       <c r="AZ39">
-        <v>0.01084880904504972</v>
+        <v>0.01084826369242837</v>
       </c>
       <c r="BA39">
         <v>-0.00313</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.2091132865675287</v>
+        <v>0.2090989228548851</v>
       </c>
       <c r="BH39">
-        <v>0.2182982672682087</v>
+        <v>0.2182845799599886</v>
       </c>
       <c r="BI39">
         <v>-0.0645</v>
@@ -7859,10 +7859,10 @@
         <v>696</v>
       </c>
       <c r="S40">
-        <v>5.317040229885055</v>
+        <v>5.317054597701146</v>
       </c>
       <c r="T40">
-        <v>0.5679214948199334</v>
+        <v>0.567919669470636</v>
       </c>
       <c r="U40">
         <v>4.44</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.008435831637945408</v>
+        <v>0.008435544688663803</v>
       </c>
       <c r="AZ40">
-        <v>0.01105354276150536</v>
+        <v>0.01105325650620035</v>
       </c>
       <c r="BA40">
         <v>-0.00291</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.2129435538850575</v>
+        <v>0.2129204233750001</v>
       </c>
       <c r="BH40">
-        <v>0.2205435662301562</v>
+        <v>0.2205177622322804</v>
       </c>
       <c r="BI40">
         <v>-0.0616</v>
@@ -8056,10 +8056,10 @@
         <v>696</v>
       </c>
       <c r="S41">
-        <v>5.316106321839081</v>
+        <v>5.316120689655173</v>
       </c>
       <c r="T41">
-        <v>0.5677294777465961</v>
+        <v>0.5677185515362101</v>
       </c>
       <c r="U41">
         <v>4.44</v>
@@ -8128,10 +8128,10 @@
         <v>696</v>
       </c>
       <c r="AQ41">
-        <v>32.85284482758622</v>
+        <v>32.85298850574715</v>
       </c>
       <c r="AR41">
-        <v>18.71228403391246</v>
+        <v>18.7121340689857</v>
       </c>
       <c r="AS41">
         <v>1.46</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.00861248479741379</v>
+        <v>0.008612068225574705</v>
       </c>
       <c r="AZ41">
-        <v>0.01126134348243659</v>
+        <v>0.01126124311286509</v>
       </c>
       <c r="BA41">
         <v>-0.0027</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.2165212959626436</v>
+        <v>0.2165096576293102</v>
       </c>
       <c r="BH41">
-        <v>0.2223828466640682</v>
+        <v>0.2223703637309697</v>
       </c>
       <c r="BI41">
         <v>-0.0588</v>
@@ -8325,10 +8325,10 @@
         <v>696</v>
       </c>
       <c r="AQ42">
-        <v>32.84781609195404</v>
+        <v>32.84795977011495</v>
       </c>
       <c r="AR42">
-        <v>18.70951883613788</v>
+        <v>18.70962882570101</v>
       </c>
       <c r="AS42">
         <v>1.46</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.008785223425287356</v>
+        <v>0.008784318630747124</v>
       </c>
       <c r="AZ42">
-        <v>0.01147142221830043</v>
+        <v>0.01147011667467141</v>
       </c>
       <c r="BA42">
         <v>-0.00249</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.2198829870545976</v>
+        <v>0.2198714945114942</v>
       </c>
       <c r="BH42">
-        <v>0.2240412532999728</v>
+        <v>0.2240268782813664</v>
       </c>
       <c r="BI42">
         <v>-0.056</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.008952704785201151</v>
+        <v>0.00895192880186782</v>
       </c>
       <c r="AZ43">
-        <v>0.0116791470914492</v>
+        <v>0.01167685798160847</v>
       </c>
       <c r="BA43">
         <v>-0.0023</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.2232860662614942</v>
+        <v>0.2232558942658046</v>
       </c>
       <c r="BH43">
-        <v>0.2259269497141955</v>
+        <v>0.2258906972680637</v>
       </c>
       <c r="BI43">
         <v>-0.0533</v>
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>5.313505747126428</v>
+        <v>5.31352011494252</v>
       </c>
       <c r="T44">
-        <v>0.5680724013753286</v>
+        <v>0.5680656002729896</v>
       </c>
       <c r="U44">
         <v>4.44</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.009119792837604885</v>
+        <v>0.009118587333566087</v>
       </c>
       <c r="AZ44">
-        <v>0.01189446237367034</v>
+        <v>0.01189375764550809</v>
       </c>
       <c r="BA44">
         <v>-0.0021</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.2264669654191092</v>
+        <v>0.2264367963603449</v>
       </c>
       <c r="BH44">
-        <v>0.2275514234191787</v>
+        <v>0.2275137876479679</v>
       </c>
       <c r="BI44">
         <v>-0.0508</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.009288963248563221</v>
+        <v>0.009287887574712638</v>
       </c>
       <c r="AZ45">
-        <v>0.0121281572081037</v>
+        <v>0.01212637994129286</v>
       </c>
       <c r="BA45">
         <v>-0.00191</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.2296953567528733</v>
+        <v>0.2296766760057469</v>
       </c>
       <c r="BH45">
-        <v>0.2300919739036565</v>
+        <v>0.2300714859159343</v>
       </c>
       <c r="BI45">
         <v>-0.0482</v>
@@ -9089,10 +9089,10 @@
         <v>696</v>
       </c>
       <c r="AI46">
-        <v>124.9586206896552</v>
+        <v>124.9600574712644</v>
       </c>
       <c r="AJ46">
-        <v>36.46622579070265</v>
+        <v>36.46569472130598</v>
       </c>
       <c r="AK46">
         <v>77.5</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.00946882788793104</v>
+        <v>0.009467707202586207</v>
       </c>
       <c r="AZ46">
-        <v>0.01236987993175718</v>
+        <v>0.01236921969254495</v>
       </c>
       <c r="BA46">
         <v>-0.00173</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.2334307369252872</v>
+        <v>0.2333919288793103</v>
       </c>
       <c r="BH46">
-        <v>0.2339577956751933</v>
+        <v>0.2339152587781587</v>
       </c>
       <c r="BI46">
         <v>-0.0458</v>
@@ -9214,10 +9214,10 @@
         <v>696</v>
       </c>
       <c r="K47">
-        <v>39.42974137931036</v>
+        <v>39.42959770114945</v>
       </c>
       <c r="L47">
-        <v>2.476070905136541</v>
+        <v>2.475982556904515</v>
       </c>
       <c r="M47">
         <v>35.5</v>
@@ -9238,10 +9238,10 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>5.307356321839077</v>
+        <v>5.3071408045977</v>
       </c>
       <c r="T47">
-        <v>0.5682323159926701</v>
+        <v>0.5682589973411837</v>
       </c>
       <c r="U47">
         <v>4.41</v>
@@ -9286,10 +9286,10 @@
         <v>696</v>
       </c>
       <c r="AI47">
-        <v>124.9435344827586</v>
+        <v>124.9433908045977</v>
       </c>
       <c r="AJ47">
-        <v>36.45567863720996</v>
+        <v>36.45586411262435</v>
       </c>
       <c r="AK47">
         <v>77.40000000000001</v>
@@ -9310,16 +9310,16 @@
         <v>696</v>
       </c>
       <c r="AQ47">
-        <v>32.82596264367817</v>
+        <v>32.82566091954023</v>
       </c>
       <c r="AR47">
-        <v>18.69310626423005</v>
+        <v>18.69289035377846</v>
       </c>
       <c r="AS47">
         <v>1.46</v>
       </c>
       <c r="AT47">
-        <v>17.15</v>
+        <v>17.075</v>
       </c>
       <c r="AU47">
         <v>35.05</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.009629043242816097</v>
+        <v>0.009627421887931035</v>
       </c>
       <c r="AZ47">
-        <v>0.01257716138559292</v>
+        <v>0.01257596329640144</v>
       </c>
       <c r="BA47">
         <v>-0.00155</v>
@@ -9349,7 +9349,7 @@
         <v>0.00706</v>
       </c>
       <c r="BD47">
-        <v>0.0128</v>
+        <v>0.012725</v>
       </c>
       <c r="BE47">
         <v>0.0847</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.2366307387931035</v>
+        <v>0.2365875244252874</v>
       </c>
       <c r="BH47">
-        <v>0.2352214684111099</v>
+        <v>0.2351785558487826</v>
       </c>
       <c r="BI47">
         <v>-0.0434</v>
@@ -9411,19 +9411,19 @@
         <v>696</v>
       </c>
       <c r="K48">
-        <v>39.43721264367817</v>
+        <v>39.42385057471267</v>
       </c>
       <c r="L48">
-        <v>2.477108488554774</v>
+        <v>2.476335212969454</v>
       </c>
       <c r="M48">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="N48">
         <v>37.4</v>
       </c>
       <c r="O48">
-        <v>39.5</v>
+        <v>39.45</v>
       </c>
       <c r="P48">
         <v>41.425</v>
@@ -9435,25 +9435,25 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>5.314913793103447</v>
+        <v>5.300172413793107</v>
       </c>
       <c r="T48">
-        <v>0.5680434612357071</v>
+        <v>0.5680910598179668</v>
       </c>
       <c r="U48">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="V48">
-        <v>4.88</v>
+        <v>4.86</v>
       </c>
       <c r="W48">
-        <v>5.23</v>
+        <v>5.22</v>
       </c>
       <c r="X48">
-        <v>5.6875</v>
+        <v>5.6825</v>
       </c>
       <c r="Y48">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
       <c r="Z48">
         <v>696</v>
@@ -9483,13 +9483,13 @@
         <v>696</v>
       </c>
       <c r="AI48">
-        <v>124.9685344827586</v>
+        <v>124.9272988505747</v>
       </c>
       <c r="AJ48">
-        <v>36.45064626056995</v>
+        <v>36.43901027096955</v>
       </c>
       <c r="AK48">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL48">
         <v>103</v>
@@ -9507,16 +9507,16 @@
         <v>696</v>
       </c>
       <c r="AQ48">
-        <v>32.83079022988506</v>
+        <v>32.81760057471263</v>
       </c>
       <c r="AR48">
-        <v>18.69297200544154</v>
+        <v>18.68872071224711</v>
       </c>
       <c r="AS48">
         <v>1.46</v>
       </c>
       <c r="AT48">
-        <v>17.15</v>
+        <v>17.075</v>
       </c>
       <c r="AU48">
         <v>35.05</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.009762741379310347</v>
+        <v>0.009757270114942528</v>
       </c>
       <c r="AZ48">
-        <v>0.01275665027542993</v>
+        <v>0.01274897785039086</v>
       </c>
       <c r="BA48">
         <v>-0.00137</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.2388580728448276</v>
+        <v>0.2387446965517242</v>
       </c>
       <c r="BH48">
-        <v>0.2339443400922232</v>
+        <v>0.2338310107653666</v>
       </c>
       <c r="BI48">
         <v>-0.041</v>
@@ -9570,7 +9570,7 @@
         <v>0.1325</v>
       </c>
       <c r="BL48">
-        <v>0.46225</v>
+        <v>0.462</v>
       </c>
       <c r="BM48">
         <v>1.03</v>
@@ -9608,10 +9608,10 @@
         <v>696</v>
       </c>
       <c r="K49">
-        <v>39.43017241379313</v>
+        <v>39.43189655172416</v>
       </c>
       <c r="L49">
-        <v>2.478455767572513</v>
+        <v>2.477958052539702</v>
       </c>
       <c r="M49">
         <v>35.5</v>
@@ -9632,16 +9632,16 @@
         <v>696</v>
       </c>
       <c r="S49">
-        <v>5.308419540229886</v>
+        <v>5.309295977011494</v>
       </c>
       <c r="T49">
-        <v>0.5683150173843173</v>
+        <v>0.5677936029763941</v>
       </c>
       <c r="U49">
         <v>4.41</v>
       </c>
       <c r="V49">
-        <v>4.8675</v>
+        <v>4.87</v>
       </c>
       <c r="W49">
         <v>5.23</v>
@@ -9650,7 +9650,7 @@
         <v>5.69</v>
       </c>
       <c r="Y49">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="Z49">
         <v>696</v>
@@ -9680,10 +9680,10 @@
         <v>696</v>
       </c>
       <c r="AI49">
-        <v>124.9522988505747</v>
+        <v>124.9557471264368</v>
       </c>
       <c r="AJ49">
-        <v>36.43800483213278</v>
+        <v>36.44198418757314</v>
       </c>
       <c r="AK49">
         <v>77.40000000000001</v>
@@ -9704,16 +9704,16 @@
         <v>696</v>
       </c>
       <c r="AQ49">
-        <v>32.82310344827584</v>
+        <v>32.82385057471264</v>
       </c>
       <c r="AR49">
-        <v>18.68983171768345</v>
+        <v>18.69024627251552</v>
       </c>
       <c r="AS49">
         <v>1.46</v>
       </c>
       <c r="AT49">
-        <v>17.175</v>
+        <v>17.15</v>
       </c>
       <c r="AU49">
         <v>35.05</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.00990646403735632</v>
+        <v>0.009906191824712642</v>
       </c>
       <c r="AZ49">
-        <v>0.01295200729492288</v>
+        <v>0.01295331156729761</v>
       </c>
       <c r="BA49">
         <v>-0.0012</v>
@@ -9740,7 +9740,7 @@
         <v>0.001165</v>
       </c>
       <c r="BC49">
-        <v>0.00742</v>
+        <v>0.007415</v>
       </c>
       <c r="BD49">
         <v>0.013225</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.2418042484195399</v>
+        <v>0.2417569469827585</v>
       </c>
       <c r="BH49">
-        <v>0.23577752017283</v>
+        <v>0.2357070009218077</v>
       </c>
       <c r="BI49">
         <v>-0.0387</v>
@@ -9767,7 +9767,7 @@
         <v>0.134</v>
       </c>
       <c r="BL49">
-        <v>0.4692499999999999</v>
+        <v>0.469</v>
       </c>
       <c r="BM49">
         <v>1.02</v>
@@ -9805,10 +9805,10 @@
         <v>696</v>
       </c>
       <c r="K50">
-        <v>39.43419540229888</v>
+        <v>39.42327586206898</v>
       </c>
       <c r="L50">
-        <v>2.478902678279588</v>
+        <v>2.478663753212295</v>
       </c>
       <c r="M50">
         <v>35.5</v>
@@ -9820,7 +9820,7 @@
         <v>39.45</v>
       </c>
       <c r="P50">
-        <v>41.5</v>
+        <v>41.425</v>
       </c>
       <c r="Q50">
         <v>43.3</v>
@@ -9829,25 +9829,25 @@
         <v>696</v>
       </c>
       <c r="S50">
-        <v>5.312442528735629</v>
+        <v>5.298390804597706</v>
       </c>
       <c r="T50">
-        <v>0.5682281532116944</v>
+        <v>0.5685865318263491</v>
       </c>
       <c r="U50">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="V50">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="W50">
-        <v>5.23</v>
+        <v>5.225</v>
       </c>
       <c r="X50">
-        <v>5.692500000000001</v>
+        <v>5.68</v>
       </c>
       <c r="Y50">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="Z50">
         <v>696</v>
@@ -9877,10 +9877,10 @@
         <v>696</v>
       </c>
       <c r="AI50">
-        <v>124.942816091954</v>
+        <v>124.9083333333333</v>
       </c>
       <c r="AJ50">
-        <v>36.42801128075982</v>
+        <v>36.42448523589925</v>
       </c>
       <c r="AK50">
         <v>77.40000000000001</v>
@@ -9892,7 +9892,7 @@
         <v>123</v>
       </c>
       <c r="AN50">
-        <v>132</v>
+        <v>131.25</v>
       </c>
       <c r="AO50">
         <v>384</v>
@@ -9901,22 +9901,22 @@
         <v>696</v>
       </c>
       <c r="AQ50">
-        <v>32.82274425287356</v>
+        <v>32.81244252873559</v>
       </c>
       <c r="AR50">
-        <v>18.68889710240504</v>
+        <v>18.68395836573501</v>
       </c>
       <c r="AS50">
         <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>17.175</v>
+        <v>17.075</v>
       </c>
       <c r="AU50">
         <v>35.05</v>
       </c>
       <c r="AV50">
-        <v>44.325</v>
+        <v>44.25</v>
       </c>
       <c r="AW50">
         <v>127</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.01007270367816092</v>
+        <v>0.01006839939655172</v>
       </c>
       <c r="AZ50">
-        <v>0.01317581718700005</v>
+        <v>0.01317215500194869</v>
       </c>
       <c r="BA50">
         <v>-0.00104</v>
@@ -9937,7 +9937,7 @@
         <v>0.001215</v>
       </c>
       <c r="BC50">
-        <v>0.007594999999999999</v>
+        <v>0.0076</v>
       </c>
       <c r="BD50">
         <v>0.0134</v>
@@ -9949,22 +9949,22 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.2454302063218392</v>
+        <v>0.2453428635057472</v>
       </c>
       <c r="BH50">
-        <v>0.2391513521547536</v>
+        <v>0.2390713768191477</v>
       </c>
       <c r="BI50">
         <v>-0.0365</v>
       </c>
       <c r="BJ50">
-        <v>0.030275</v>
+        <v>0.0302</v>
       </c>
       <c r="BK50">
         <v>0.136</v>
       </c>
       <c r="BL50">
-        <v>0.476</v>
+        <v>0.47525</v>
       </c>
       <c r="BM50">
         <v>1.03</v>
@@ -10002,10 +10002,10 @@
         <v>696</v>
       </c>
       <c r="K51">
-        <v>39.44152298850577</v>
+        <v>39.42758620689657</v>
       </c>
       <c r="L51">
-        <v>2.481137469950926</v>
+        <v>2.479815015387902</v>
       </c>
       <c r="M51">
         <v>35.5</v>
@@ -10014,10 +10014,10 @@
         <v>37.4</v>
       </c>
       <c r="O51">
-        <v>39.5</v>
+        <v>39.45</v>
       </c>
       <c r="P51">
-        <v>41.5</v>
+        <v>41.425</v>
       </c>
       <c r="Q51">
         <v>43.3</v>
@@ -10026,25 +10026,25 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>5.321364942528737</v>
+        <v>5.306192528735638</v>
       </c>
       <c r="T51">
-        <v>0.5684572120020284</v>
+        <v>0.5682164576422148</v>
       </c>
       <c r="U51">
         <v>4.42</v>
       </c>
       <c r="V51">
-        <v>4.88</v>
+        <v>4.86</v>
       </c>
       <c r="W51">
-        <v>5.24</v>
+        <v>5.22</v>
       </c>
       <c r="X51">
-        <v>5.692500000000001</v>
+        <v>5.6825</v>
       </c>
       <c r="Y51">
-        <v>6.68</v>
+        <v>6.65</v>
       </c>
       <c r="Z51">
         <v>696</v>
@@ -10074,10 +10074,10 @@
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>124.9593390804597</v>
+        <v>124.916091954023</v>
       </c>
       <c r="AJ51">
-        <v>36.42310120164522</v>
+        <v>36.41691479412373</v>
       </c>
       <c r="AK51">
         <v>77.40000000000001</v>
@@ -10089,31 +10089,31 @@
         <v>123</v>
       </c>
       <c r="AN51">
-        <v>132</v>
+        <v>131.25</v>
       </c>
       <c r="AO51">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AP51">
         <v>696</v>
       </c>
       <c r="AQ51">
-        <v>32.82852011494251</v>
+        <v>32.8160632183908</v>
       </c>
       <c r="AR51">
-        <v>18.68944341645466</v>
+        <v>18.6836645772024</v>
       </c>
       <c r="AS51">
         <v>1.46</v>
       </c>
       <c r="AT51">
-        <v>17.175</v>
+        <v>17.15</v>
       </c>
       <c r="AU51">
         <v>35.05</v>
       </c>
       <c r="AV51">
-        <v>44.325</v>
+        <v>44.25</v>
       </c>
       <c r="AW51">
         <v>127</v>
@@ -10122,22 +10122,22 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.01022989961206898</v>
+        <v>0.01022400482758622</v>
       </c>
       <c r="AZ51">
-        <v>0.0133988699389421</v>
+        <v>0.01339241266633808</v>
       </c>
       <c r="BA51">
-        <v>-0.0008720000000000001</v>
+        <v>-0.000873</v>
       </c>
       <c r="BB51">
         <v>0.00126</v>
       </c>
       <c r="BC51">
-        <v>0.007775000000000001</v>
+        <v>0.00777</v>
       </c>
       <c r="BD51">
-        <v>0.0136</v>
+        <v>0.0135</v>
       </c>
       <c r="BE51">
         <v>0.0888</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.2487346923850576</v>
+        <v>0.2485925945402302</v>
       </c>
       <c r="BH51">
-        <v>0.2421640329191496</v>
+        <v>0.2420235909411689</v>
       </c>
       <c r="BI51">
         <v>-0.0344</v>
@@ -10199,10 +10199,10 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>39.43477011494254</v>
+        <v>39.43577586206897</v>
       </c>
       <c r="L52">
-        <v>2.480884781604096</v>
+        <v>2.481227121862374</v>
       </c>
       <c r="M52">
         <v>35.5</v>
@@ -10211,7 +10211,7 @@
         <v>37.4</v>
       </c>
       <c r="O52">
-        <v>39.45</v>
+        <v>39.5</v>
       </c>
       <c r="P52">
         <v>41.5</v>
@@ -10223,13 +10223,13 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>5.312859195402294</v>
+        <v>5.311508620689649</v>
       </c>
       <c r="T52">
-        <v>0.5685387178290658</v>
+        <v>0.5687916207533703</v>
       </c>
       <c r="U52">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="V52">
         <v>4.87</v>
@@ -10238,10 +10238,10 @@
         <v>5.235</v>
       </c>
       <c r="X52">
-        <v>5.692500000000001</v>
+        <v>5.6825</v>
       </c>
       <c r="Y52">
-        <v>6.67</v>
+        <v>6.71</v>
       </c>
       <c r="Z52">
         <v>696</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>124.9317528735632</v>
+        <v>124.9272988505747</v>
       </c>
       <c r="AJ52">
-        <v>36.41042242006959</v>
+        <v>36.42441708765298</v>
       </c>
       <c r="AK52">
         <v>77.40000000000001</v>
@@ -10286,31 +10286,31 @@
         <v>123</v>
       </c>
       <c r="AN52">
-        <v>131.25</v>
+        <v>132</v>
       </c>
       <c r="AO52">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AP52">
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>32.81751436781607</v>
+        <v>32.81558908045975</v>
       </c>
       <c r="AR52">
-        <v>18.68321736037572</v>
+        <v>18.6827331107367</v>
       </c>
       <c r="AS52">
         <v>1.46</v>
       </c>
       <c r="AT52">
-        <v>17.1</v>
+        <v>17.175</v>
       </c>
       <c r="AU52">
-        <v>35.05</v>
+        <v>35.1</v>
       </c>
       <c r="AV52">
-        <v>44.3</v>
+        <v>44.325</v>
       </c>
       <c r="AW52">
         <v>127</v>
@@ -10319,34 +10319,34 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.01038349672413792</v>
+        <v>0.010379661795977</v>
       </c>
       <c r="AZ52">
-        <v>0.01361703582266795</v>
+        <v>0.01361289425817022</v>
       </c>
       <c r="BA52">
-        <v>-0.000768</v>
+        <v>-0.000767</v>
       </c>
       <c r="BB52">
         <v>0.0013025</v>
       </c>
       <c r="BC52">
-        <v>0.00791</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="BD52">
-        <v>0.013625</v>
+        <v>0.0137</v>
       </c>
       <c r="BE52">
-        <v>0.0898</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="BF52">
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.2520473652298849</v>
+        <v>0.2519256537356321</v>
       </c>
       <c r="BH52">
-        <v>0.245277875543913</v>
+        <v>0.2451591215535389</v>
       </c>
       <c r="BI52">
         <v>-0.0323</v>
@@ -10358,7 +10358,7 @@
         <v>0.1385</v>
       </c>
       <c r="BL52">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="BM52">
         <v>1.1</v>
@@ -10396,10 +10396,10 @@
         <v>696</v>
       </c>
       <c r="K53">
-        <v>39.416091954023</v>
+        <v>39.41681034482759</v>
       </c>
       <c r="L53">
-        <v>2.481285281390957</v>
+        <v>2.480036353575951</v>
       </c>
       <c r="M53">
         <v>35.5</v>
@@ -10408,10 +10408,10 @@
         <v>37.4</v>
       </c>
       <c r="O53">
-        <v>39.5</v>
+        <v>39.45</v>
       </c>
       <c r="P53">
-        <v>41.5</v>
+        <v>41.425</v>
       </c>
       <c r="Q53">
         <v>43.3</v>
@@ -10420,25 +10420,25 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>5.295373563218392</v>
+        <v>5.293994252873564</v>
       </c>
       <c r="T53">
-        <v>0.5695166483674706</v>
+        <v>0.5684937766305298</v>
       </c>
       <c r="U53">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="V53">
         <v>4.85</v>
       </c>
       <c r="W53">
-        <v>5.225</v>
+        <v>5.22</v>
       </c>
       <c r="X53">
-        <v>5.6625</v>
+        <v>5.672499999999999</v>
       </c>
       <c r="Y53">
-        <v>6.69</v>
+        <v>6.65</v>
       </c>
       <c r="Z53">
         <v>696</v>
@@ -10468,13 +10468,13 @@
         <v>696</v>
       </c>
       <c r="AI53">
-        <v>124.8745689655173</v>
+        <v>124.8688218390805</v>
       </c>
       <c r="AJ53">
-        <v>36.38794408363962</v>
+        <v>36.39869776771525</v>
       </c>
       <c r="AK53">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL53">
         <v>103</v>
@@ -10486,28 +10486,28 @@
         <v>131</v>
       </c>
       <c r="AO53">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AP53">
         <v>696</v>
       </c>
       <c r="AQ53">
-        <v>32.80087643678159</v>
+        <v>32.80054597701146</v>
       </c>
       <c r="AR53">
-        <v>18.67583882008063</v>
+        <v>18.67523696429857</v>
       </c>
       <c r="AS53">
         <v>1.46</v>
       </c>
       <c r="AT53">
-        <v>17.1</v>
+        <v>17.075</v>
       </c>
       <c r="AU53">
         <v>35</v>
       </c>
       <c r="AV53">
-        <v>44.3</v>
+        <v>44.225</v>
       </c>
       <c r="AW53">
         <v>127</v>
@@ -10516,19 +10516,19 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.01051895941091955</v>
+        <v>0.01051910356321839</v>
       </c>
       <c r="AZ53">
-        <v>0.01381222033297682</v>
+        <v>0.01381088252974765</v>
       </c>
       <c r="BA53">
-        <v>-0.000717</v>
+        <v>-0.000718</v>
       </c>
       <c r="BB53">
         <v>0.0013525</v>
       </c>
       <c r="BC53">
-        <v>0.008019999999999999</v>
+        <v>0.008015</v>
       </c>
       <c r="BD53">
         <v>0.013725</v>
@@ -10540,13 +10540,13 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.254874242816092</v>
+        <v>0.2548122916666668</v>
       </c>
       <c r="BH53">
-        <v>0.247143366043577</v>
+        <v>0.2471181189002064</v>
       </c>
       <c r="BI53">
-        <v>-0.0301</v>
+        <v>-0.0302</v>
       </c>
       <c r="BJ53">
         <v>0.03265</v>
@@ -10555,7 +10555,7 @@
         <v>0.1395</v>
       </c>
       <c r="BL53">
-        <v>0.49125</v>
+        <v>0.491</v>
       </c>
       <c r="BM53">
         <v>1.1</v>
@@ -10593,10 +10593,10 @@
         <v>696</v>
       </c>
       <c r="K54">
-        <v>39.42442528735634</v>
+        <v>39.42097701149427</v>
       </c>
       <c r="L54">
-        <v>2.481907125293502</v>
+        <v>2.480796383976595</v>
       </c>
       <c r="M54">
         <v>35.5</v>
@@ -10617,25 +10617,25 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>5.300933908045973</v>
+        <v>5.296925287356321</v>
       </c>
       <c r="T54">
-        <v>0.5684795991224086</v>
+        <v>0.5686895451180161</v>
       </c>
       <c r="U54">
-        <v>4.41</v>
+        <v>4.39</v>
       </c>
       <c r="V54">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="W54">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="X54">
-        <v>5.68</v>
+        <v>5.672499999999999</v>
       </c>
       <c r="Y54">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="Z54">
         <v>696</v>
@@ -10665,10 +10665,10 @@
         <v>696</v>
       </c>
       <c r="AI54">
-        <v>124.8728448275862</v>
+        <v>124.8760057471265</v>
       </c>
       <c r="AJ54">
-        <v>36.39172798662009</v>
+        <v>36.39159499166502</v>
       </c>
       <c r="AK54">
         <v>77.40000000000001</v>
@@ -10689,22 +10689,22 @@
         <v>696</v>
       </c>
       <c r="AQ54">
-        <v>32.8037212643678</v>
+        <v>32.80084770114941</v>
       </c>
       <c r="AR54">
-        <v>18.67494875174944</v>
+        <v>18.67298782317382</v>
       </c>
       <c r="AS54">
         <v>1.46</v>
       </c>
       <c r="AT54">
-        <v>17.175</v>
+        <v>17.075</v>
       </c>
       <c r="AU54">
-        <v>35.05</v>
+        <v>35</v>
       </c>
       <c r="AV54">
-        <v>44.3</v>
+        <v>44.225</v>
       </c>
       <c r="AW54">
         <v>127</v>
@@ -10713,19 +10713,19 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.01065770170545978</v>
+        <v>0.01065850079022989</v>
       </c>
       <c r="AZ54">
-        <v>0.01401410420425944</v>
+        <v>0.01401442012989213</v>
       </c>
       <c r="BA54">
-        <v>-0.00067</v>
+        <v>-0.000671</v>
       </c>
       <c r="BB54">
         <v>0.00138</v>
       </c>
       <c r="BC54">
-        <v>0.008125</v>
+        <v>0.00813</v>
       </c>
       <c r="BD54">
         <v>0.01385</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.2576885508189652</v>
+        <v>0.2576657267241377</v>
       </c>
       <c r="BH54">
-        <v>0.2491249239079754</v>
+        <v>0.2490903612396922</v>
       </c>
       <c r="BI54">
         <v>-0.0282</v>
@@ -10790,10 +10790,10 @@
         <v>696</v>
       </c>
       <c r="K55">
-        <v>39.41566091954024</v>
+        <v>39.42715517241382</v>
       </c>
       <c r="L55">
-        <v>2.480716795918</v>
+        <v>2.481794653283535</v>
       </c>
       <c r="M55">
         <v>35.5</v>
@@ -10814,22 +10814,22 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>5.290632183908046</v>
+        <v>5.304310344827587</v>
       </c>
       <c r="T55">
-        <v>0.5684282530849001</v>
+        <v>0.5682327380173563</v>
       </c>
       <c r="U55">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="V55">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="W55">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="X55">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="Y55">
         <v>6.65</v>
@@ -10862,10 +10862,10 @@
         <v>696</v>
       </c>
       <c r="AI55">
-        <v>124.8475574712644</v>
+        <v>124.8762931034483</v>
       </c>
       <c r="AJ55">
-        <v>36.38796456589034</v>
+        <v>36.38929399905884</v>
       </c>
       <c r="AK55">
         <v>77.40000000000001</v>
@@ -10886,16 +10886,16 @@
         <v>696</v>
       </c>
       <c r="AQ55">
-        <v>32.79291666666663</v>
+        <v>32.80462643678164</v>
       </c>
       <c r="AR55">
-        <v>18.66995387813669</v>
+        <v>18.67394431840827</v>
       </c>
       <c r="AS55">
         <v>1.46</v>
       </c>
       <c r="AT55">
-        <v>17.075</v>
+        <v>17.15</v>
       </c>
       <c r="AU55">
         <v>35.05</v>
@@ -10910,19 +10910,19 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.01079429606321839</v>
+        <v>0.01079505064655172</v>
       </c>
       <c r="AZ55">
-        <v>0.01421552202915333</v>
+        <v>0.01421551025167508</v>
       </c>
       <c r="BA55">
-        <v>-0.000623</v>
+        <v>-0.000622</v>
       </c>
       <c r="BB55">
-        <v>0.0014075</v>
+        <v>0.0014</v>
       </c>
       <c r="BC55">
-        <v>0.008240000000000001</v>
+        <v>0.008234999999999999</v>
       </c>
       <c r="BD55">
         <v>0.01395</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.2605425933908045</v>
+        <v>0.2605577658045974</v>
       </c>
       <c r="BH55">
-        <v>0.2515443707489777</v>
+        <v>0.2515783917006108</v>
       </c>
       <c r="BI55">
         <v>-0.0262</v>
@@ -10987,10 +10987,10 @@
         <v>696</v>
       </c>
       <c r="K56">
-        <v>39.42859195402301</v>
+        <v>39.43735632183911</v>
       </c>
       <c r="L56">
-        <v>2.483273837055765</v>
+        <v>2.482528513643602</v>
       </c>
       <c r="M56">
         <v>35.5</v>
@@ -11011,22 +11011,22 @@
         <v>696</v>
       </c>
       <c r="S56">
-        <v>5.30527298850575</v>
+        <v>5.314942528735629</v>
       </c>
       <c r="T56">
-        <v>0.5692675442011779</v>
+        <v>0.568615126566228</v>
       </c>
       <c r="U56">
-        <v>4.39</v>
+        <v>4.41</v>
       </c>
       <c r="V56">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
       <c r="W56">
         <v>5.24</v>
       </c>
       <c r="X56">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="Y56">
         <v>6.69</v>
@@ -11035,10 +11035,10 @@
         <v>696</v>
       </c>
       <c r="AA56">
-        <v>39.4175287356322</v>
+        <v>39.41767241379313</v>
       </c>
       <c r="AB56">
-        <v>2.4878311462241</v>
+        <v>2.487746265402097</v>
       </c>
       <c r="AC56">
         <v>35.5</v>
@@ -11059,10 +11059,10 @@
         <v>696</v>
       </c>
       <c r="AI56">
-        <v>124.8810344827587</v>
+        <v>124.8979885057471</v>
       </c>
       <c r="AJ56">
-        <v>36.37885838826367</v>
+        <v>36.39129307644076</v>
       </c>
       <c r="AK56">
         <v>77.40000000000001</v>
@@ -11083,19 +11083,19 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>32.80201149425287</v>
+        <v>32.81159482758623</v>
       </c>
       <c r="AR56">
-        <v>18.67282880327494</v>
+        <v>18.67585468962844</v>
       </c>
       <c r="AS56">
         <v>1.46</v>
       </c>
       <c r="AT56">
-        <v>17.1</v>
+        <v>17.175</v>
       </c>
       <c r="AU56">
-        <v>35</v>
+        <v>35.05</v>
       </c>
       <c r="AV56">
         <v>44.3</v>
@@ -11107,13 +11107,13 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.01094445977011495</v>
+        <v>0.01093914340517242</v>
       </c>
       <c r="AZ56">
-        <v>0.01443101490921813</v>
+        <v>0.01442601665862531</v>
       </c>
       <c r="BA56">
-        <v>-0.000577</v>
+        <v>-0.000578</v>
       </c>
       <c r="BB56">
         <v>0.0014275</v>
@@ -11122,7 +11122,7 @@
         <v>0.008355000000000001</v>
       </c>
       <c r="BD56">
-        <v>0.014125</v>
+        <v>0.01405</v>
       </c>
       <c r="BE56">
         <v>0.094</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.2638075216954022</v>
+        <v>0.2636865748563216</v>
       </c>
       <c r="BH56">
-        <v>0.2545755615021787</v>
+        <v>0.2543710552509877</v>
       </c>
       <c r="BI56">
         <v>-0.0243</v>
@@ -11184,10 +11184,10 @@
         <v>696</v>
       </c>
       <c r="K57">
-        <v>39.41465517241379</v>
+        <v>39.4293103448276</v>
       </c>
       <c r="L57">
-        <v>2.481821829453729</v>
+        <v>2.483123488170561</v>
       </c>
       <c r="M57">
         <v>35.5</v>
@@ -11208,25 +11208,25 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>5.291551724137931</v>
+        <v>5.306479885057474</v>
       </c>
       <c r="T57">
-        <v>0.5689932092221387</v>
+        <v>0.5687865105281908</v>
       </c>
       <c r="U57">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="V57">
-        <v>4.84</v>
+        <v>4.8675</v>
       </c>
       <c r="W57">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="X57">
-        <v>5.66</v>
+        <v>5.6825</v>
       </c>
       <c r="Y57">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
       <c r="Z57">
         <v>696</v>
@@ -11256,10 +11256,10 @@
         <v>696</v>
       </c>
       <c r="AI57">
-        <v>124.8329022988506</v>
+        <v>124.8692528735632</v>
       </c>
       <c r="AJ57">
-        <v>36.35317678888155</v>
+        <v>36.37237116533922</v>
       </c>
       <c r="AK57">
         <v>77.40000000000001</v>
@@ -11280,10 +11280,10 @@
         <v>696</v>
       </c>
       <c r="AQ57">
-        <v>32.78935344827585</v>
+        <v>32.80219827586207</v>
       </c>
       <c r="AR57">
-        <v>18.66619661656151</v>
+        <v>18.67119083248511</v>
       </c>
       <c r="AS57">
         <v>1.46</v>
@@ -11292,10 +11292,10 @@
         <v>17.075</v>
       </c>
       <c r="AU57">
-        <v>35</v>
+        <v>35.05</v>
       </c>
       <c r="AV57">
-        <v>44.225</v>
+        <v>44.3</v>
       </c>
       <c r="AW57">
         <v>127</v>
@@ -11304,34 +11304,34 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.01107759347701148</v>
+        <v>0.01107794011494251</v>
       </c>
       <c r="AZ57">
-        <v>0.01462265880618976</v>
+        <v>0.01462408427993767</v>
       </c>
       <c r="BA57">
-        <v>-0.000532</v>
+        <v>-0.0005330000000000001</v>
       </c>
       <c r="BB57">
         <v>0.0014525</v>
       </c>
       <c r="BC57">
-        <v>0.008460000000000001</v>
+        <v>0.008465</v>
       </c>
       <c r="BD57">
         <v>0.014225</v>
       </c>
       <c r="BE57">
-        <v>0.0949</v>
+        <v>0.0948</v>
       </c>
       <c r="BF57">
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.2667230948275861</v>
+        <v>0.2667420287356321</v>
       </c>
       <c r="BH57">
-        <v>0.2567630210707158</v>
+        <v>0.2568093857760286</v>
       </c>
       <c r="BI57">
         <v>-0.0224</v>
@@ -11346,7 +11346,7 @@
         <v>0.51</v>
       </c>
       <c r="BM57">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="58" spans="1:65">
@@ -11381,10 +11381,10 @@
         <v>696</v>
       </c>
       <c r="K58">
-        <v>39.43204022988508</v>
+        <v>39.41795977011494</v>
       </c>
       <c r="L58">
-        <v>2.48370096986971</v>
+        <v>2.483871862354225</v>
       </c>
       <c r="M58">
         <v>35.5</v>
@@ -11396,7 +11396,7 @@
         <v>39.45</v>
       </c>
       <c r="P58">
-        <v>41.5</v>
+        <v>41.425</v>
       </c>
       <c r="Q58">
         <v>43.3</v>
@@ -11405,25 +11405,25 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>5.309870689655169</v>
+        <v>5.29257183908046</v>
       </c>
       <c r="T58">
-        <v>0.5686294115812224</v>
+        <v>0.5685924770023463</v>
       </c>
       <c r="U58">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="V58">
-        <v>4.8675</v>
+        <v>4.85</v>
       </c>
       <c r="W58">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="X58">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="Y58">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="Z58">
         <v>696</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>124.8669540229885</v>
+        <v>124.8237068965518</v>
       </c>
       <c r="AJ58">
-        <v>36.36690130748941</v>
+        <v>36.35010848422167</v>
       </c>
       <c r="AK58">
         <v>77.40000000000001</v>
@@ -11477,22 +11477,22 @@
         <v>696</v>
       </c>
       <c r="AQ58">
-        <v>32.80130747126438</v>
+        <v>32.78712643678157</v>
       </c>
       <c r="AR58">
-        <v>18.66999561525579</v>
+        <v>18.66431708266894</v>
       </c>
       <c r="AS58">
         <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>17.175</v>
+        <v>17.075</v>
       </c>
       <c r="AU58">
         <v>35.05</v>
       </c>
       <c r="AV58">
-        <v>44.3</v>
+        <v>44.225</v>
       </c>
       <c r="AW58">
         <v>127</v>
@@ -11501,13 +11501,13 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.01120804373563219</v>
+        <v>0.01120434627873562</v>
       </c>
       <c r="AZ58">
-        <v>0.01481904368428836</v>
+        <v>0.01481572567308247</v>
       </c>
       <c r="BA58">
-        <v>-0.000488</v>
+        <v>-0.00049</v>
       </c>
       <c r="BB58">
         <v>0.0014875</v>
@@ -11516,25 +11516,25 @@
         <v>0.008580000000000001</v>
       </c>
       <c r="BD58">
-        <v>0.014325</v>
+        <v>0.01435</v>
       </c>
       <c r="BE58">
-        <v>0.0961</v>
+        <v>0.0959</v>
       </c>
       <c r="BF58">
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.2694787399425291</v>
+        <v>0.2693531954022991</v>
       </c>
       <c r="BH58">
-        <v>0.2585733890650858</v>
+        <v>0.2584482279025873</v>
       </c>
       <c r="BI58">
-        <v>-0.0205</v>
+        <v>-0.0206</v>
       </c>
       <c r="BJ58">
-        <v>0.0369</v>
+        <v>0.036875</v>
       </c>
       <c r="BK58">
         <v>0.143</v>
@@ -11578,10 +11578,10 @@
         <v>696</v>
       </c>
       <c r="K59">
-        <v>39.42959770114945</v>
+        <v>39.4264367816092</v>
       </c>
       <c r="L59">
-        <v>2.484533535350748</v>
+        <v>2.485171436617395</v>
       </c>
       <c r="M59">
         <v>35.5</v>
@@ -11590,10 +11590,10 @@
         <v>37.4</v>
       </c>
       <c r="O59">
-        <v>39.45</v>
+        <v>39.5</v>
       </c>
       <c r="P59">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q59">
         <v>43.3</v>
@@ -11602,25 +11602,25 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>5.307284482758617</v>
+        <v>5.304525862068965</v>
       </c>
       <c r="T59">
-        <v>0.5682855291964777</v>
+        <v>0.569231519744996</v>
       </c>
       <c r="U59">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
       <c r="V59">
-        <v>4.8675</v>
+        <v>4.8575</v>
       </c>
       <c r="W59">
-        <v>5.225</v>
+        <v>5.23</v>
       </c>
       <c r="X59">
-        <v>5.672499999999999</v>
+        <v>5.69</v>
       </c>
       <c r="Y59">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="Z59">
         <v>696</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>124.8474137931035</v>
+        <v>124.8435344827586</v>
       </c>
       <c r="AJ59">
-        <v>36.35222406869707</v>
+        <v>36.33163258762625</v>
       </c>
       <c r="AK59">
         <v>77.40000000000001</v>
@@ -11674,22 +11674,22 @@
         <v>696</v>
       </c>
       <c r="AQ59">
-        <v>32.79668103448277</v>
+        <v>32.79612068965518</v>
       </c>
       <c r="AR59">
-        <v>18.666330718537</v>
+        <v>18.66740950788442</v>
       </c>
       <c r="AS59">
         <v>1.46</v>
       </c>
       <c r="AT59">
-        <v>17.15</v>
+        <v>17.1</v>
       </c>
       <c r="AU59">
         <v>35.05</v>
       </c>
       <c r="AV59">
-        <v>44.225</v>
+        <v>44.3</v>
       </c>
       <c r="AW59">
         <v>127</v>
@@ -11698,13 +11698,13 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.01133395482758621</v>
+        <v>0.01133322640804599</v>
       </c>
       <c r="AZ59">
-        <v>0.01501539685825763</v>
+        <v>0.01501435592847166</v>
       </c>
       <c r="BA59">
-        <v>-0.000445</v>
+        <v>-0.000446</v>
       </c>
       <c r="BB59">
         <v>0.0015325</v>
@@ -11713,7 +11713,7 @@
         <v>0.00869</v>
       </c>
       <c r="BD59">
-        <v>0.014425</v>
+        <v>0.01445</v>
       </c>
       <c r="BE59">
         <v>0.097</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.2720164066091954</v>
+        <v>0.2719754252873565</v>
       </c>
       <c r="BH59">
-        <v>0.2603365316814359</v>
+        <v>0.2602721532828019</v>
       </c>
       <c r="BI59">
         <v>-0.0187</v>
@@ -11737,7 +11737,7 @@
         <v>0.144</v>
       </c>
       <c r="BL59">
-        <v>0.52</v>
+        <v>0.52025</v>
       </c>
       <c r="BM59">
         <v>1.14</v>
@@ -11775,10 +11775,10 @@
         <v>696</v>
       </c>
       <c r="K60">
-        <v>39.42629310344829</v>
+        <v>39.42586206896553</v>
       </c>
       <c r="L60">
-        <v>2.486032589832192</v>
+        <v>2.484737434635129</v>
       </c>
       <c r="M60">
         <v>35.5</v>
@@ -11799,19 +11799,19 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>5.303807471264368</v>
+        <v>5.302370689655175</v>
       </c>
       <c r="T60">
-        <v>0.568593127090291</v>
+        <v>0.5687899415806025</v>
       </c>
       <c r="U60">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="V60">
         <v>4.86</v>
       </c>
       <c r="W60">
-        <v>5.23</v>
+        <v>5.22</v>
       </c>
       <c r="X60">
         <v>5.672499999999999</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>124.8397988505747</v>
+        <v>124.833908045977</v>
       </c>
       <c r="AJ60">
-        <v>36.34238795090199</v>
+        <v>36.34006172256954</v>
       </c>
       <c r="AK60">
         <v>77.40000000000001</v>
@@ -11871,10 +11871,10 @@
         <v>696</v>
       </c>
       <c r="AQ60">
-        <v>32.79293103448274</v>
+        <v>32.79183908045975</v>
       </c>
       <c r="AR60">
-        <v>18.66388212181772</v>
+        <v>18.66415934605496</v>
       </c>
       <c r="AS60">
         <v>1.46</v>
@@ -11886,7 +11886,7 @@
         <v>35.05</v>
       </c>
       <c r="AV60">
-        <v>44.3</v>
+        <v>44.225</v>
       </c>
       <c r="AW60">
         <v>127</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.01146431458333333</v>
+        <v>0.01145992354885057</v>
       </c>
       <c r="AZ60">
-        <v>0.01521350497019386</v>
+        <v>0.01520846537938252</v>
       </c>
       <c r="BA60">
         <v>-0.000404</v>
@@ -11907,10 +11907,10 @@
         <v>0.00157</v>
       </c>
       <c r="BC60">
-        <v>0.008800000000000001</v>
+        <v>0.008795000000000001</v>
       </c>
       <c r="BD60">
-        <v>0.014625</v>
+        <v>0.01455</v>
       </c>
       <c r="BE60">
         <v>0.0979</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.2747523606321837</v>
+        <v>0.2746468247126434</v>
       </c>
       <c r="BH60">
-        <v>0.2626120764636453</v>
+        <v>0.2625095168885445</v>
       </c>
       <c r="BI60">
         <v>-0.017</v>
@@ -11931,7 +11931,7 @@
         <v>0.038</v>
       </c>
       <c r="BK60">
-        <v>0.145</v>
+        <v>0.1445</v>
       </c>
       <c r="BL60">
         <v>0.525</v>
@@ -11972,10 +11972,10 @@
         <v>696</v>
       </c>
       <c r="K61">
-        <v>39.4264367816092</v>
+        <v>39.42428160919542</v>
       </c>
       <c r="L61">
-        <v>2.485061429178169</v>
+        <v>2.485294777416574</v>
       </c>
       <c r="M61">
         <v>35.5</v>
@@ -11987,7 +11987,7 @@
         <v>39.45</v>
       </c>
       <c r="P61">
-        <v>41.5</v>
+        <v>41.425</v>
       </c>
       <c r="Q61">
         <v>43.3</v>
@@ -11996,25 +11996,25 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>5.305100574712647</v>
+        <v>5.302025862068966</v>
       </c>
       <c r="T61">
-        <v>0.569351256413407</v>
+        <v>0.5686136662871065</v>
       </c>
       <c r="U61">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="V61">
         <v>4.86</v>
       </c>
       <c r="W61">
-        <v>5.23</v>
+        <v>5.22</v>
       </c>
       <c r="X61">
         <v>5.67</v>
       </c>
       <c r="Y61">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="Z61">
         <v>696</v>
@@ -12044,13 +12044,13 @@
         <v>696</v>
       </c>
       <c r="AI61">
-        <v>124.8331896551724</v>
+        <v>124.8303160919541</v>
       </c>
       <c r="AJ61">
-        <v>36.32574256805788</v>
+        <v>36.33298975257023</v>
       </c>
       <c r="AK61">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL61">
         <v>103</v>
@@ -12059,7 +12059,7 @@
         <v>123</v>
       </c>
       <c r="AN61">
-        <v>131</v>
+        <v>131.25</v>
       </c>
       <c r="AO61">
         <v>384</v>
@@ -12068,22 +12068,22 @@
         <v>696</v>
       </c>
       <c r="AQ61">
-        <v>32.79205459770115</v>
+        <v>32.78821839080457</v>
       </c>
       <c r="AR61">
-        <v>18.66306535857145</v>
+        <v>18.66116705005939</v>
       </c>
       <c r="AS61">
         <v>1.46</v>
       </c>
       <c r="AT61">
-        <v>17.075</v>
+        <v>17.15</v>
       </c>
       <c r="AU61">
-        <v>35</v>
+        <v>35.05</v>
       </c>
       <c r="AV61">
-        <v>44.3</v>
+        <v>44.225</v>
       </c>
       <c r="AW61">
         <v>127</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.01159541439655173</v>
+        <v>0.01159057715517242</v>
       </c>
       <c r="AZ61">
-        <v>0.01541411025421732</v>
+        <v>0.01540869262817811</v>
       </c>
       <c r="BA61">
         <v>-0.000363</v>
@@ -12104,22 +12104,22 @@
         <v>0.001605</v>
       </c>
       <c r="BC61">
-        <v>0.008910000000000001</v>
+        <v>0.0089</v>
       </c>
       <c r="BD61">
         <v>0.014725</v>
       </c>
       <c r="BE61">
-        <v>0.099</v>
+        <v>0.0989</v>
       </c>
       <c r="BF61">
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.2775718807471265</v>
+        <v>0.2774537614942529</v>
       </c>
       <c r="BH61">
-        <v>0.2651218153331431</v>
+        <v>0.2649342170590869</v>
       </c>
       <c r="BI61">
         <v>-0.0153</v>
@@ -12134,7 +12134,7 @@
         <v>0.53</v>
       </c>
       <c r="BM61">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="62" spans="1:65">
@@ -12169,10 +12169,10 @@
         <v>696</v>
       </c>
       <c r="K62">
-        <v>39.43778735632185</v>
+        <v>39.42456896551726</v>
       </c>
       <c r="L62">
-        <v>2.48685065420108</v>
+        <v>2.486530584230981</v>
       </c>
       <c r="M62">
         <v>35.5</v>
@@ -12181,10 +12181,10 @@
         <v>37.4</v>
       </c>
       <c r="O62">
-        <v>39.5</v>
+        <v>39.45</v>
       </c>
       <c r="P62">
-        <v>41.5</v>
+        <v>41.425</v>
       </c>
       <c r="Q62">
         <v>43.3</v>
@@ -12193,25 +12193,25 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>5.317586206896552</v>
+        <v>5.302356321839075</v>
       </c>
       <c r="T62">
-        <v>0.5688435129259771</v>
+        <v>0.5685725349753736</v>
       </c>
       <c r="U62">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="V62">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="W62">
-        <v>5.245</v>
+        <v>5.22</v>
       </c>
       <c r="X62">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="Y62">
-        <v>6.69</v>
+        <v>6.65</v>
       </c>
       <c r="Z62">
         <v>696</v>
@@ -12241,13 +12241,13 @@
         <v>696</v>
       </c>
       <c r="AI62">
-        <v>124.8591954022989</v>
+        <v>124.8288793103448</v>
       </c>
       <c r="AJ62">
-        <v>36.32691336664016</v>
+        <v>36.32066042101255</v>
       </c>
       <c r="AK62">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL62">
         <v>103</v>
@@ -12256,7 +12256,7 @@
         <v>123</v>
       </c>
       <c r="AN62">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AO62">
         <v>384</v>
@@ -12265,22 +12265,22 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>32.79755747126435</v>
+        <v>32.78748563218389</v>
       </c>
       <c r="AR62">
-        <v>18.6643975343549</v>
+        <v>18.6599983460121</v>
       </c>
       <c r="AS62">
         <v>1.46</v>
       </c>
       <c r="AT62">
-        <v>17.175</v>
+        <v>17.075</v>
       </c>
       <c r="AU62">
         <v>35.05</v>
       </c>
       <c r="AV62">
-        <v>44.3</v>
+        <v>44.225</v>
       </c>
       <c r="AW62">
         <v>127</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.01172299288793103</v>
+        <v>0.01171729418103448</v>
       </c>
       <c r="AZ62">
-        <v>0.015608973276422</v>
+        <v>0.01560188823387424</v>
       </c>
       <c r="BA62">
         <v>-0.000323</v>
@@ -12301,22 +12301,22 @@
         <v>0.0016475</v>
       </c>
       <c r="BC62">
-        <v>0.00902</v>
+        <v>0.009004999999999999</v>
       </c>
       <c r="BD62">
         <v>0.014825</v>
       </c>
       <c r="BE62">
-        <v>0.1</v>
+        <v>0.0998</v>
       </c>
       <c r="BF62">
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.2803426642241382</v>
+        <v>0.2801639760057472</v>
       </c>
       <c r="BH62">
-        <v>0.2674593675273957</v>
+        <v>0.26727507352967</v>
       </c>
       <c r="BI62">
         <v>-0.0136</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>39.42959770114945</v>
+        <v>39.42327586206898</v>
       </c>
       <c r="L63">
-        <v>2.486478625090245</v>
+        <v>2.48581093727519</v>
       </c>
       <c r="M63">
         <v>35.5</v>
@@ -12378,7 +12378,7 @@
         <v>37.4</v>
       </c>
       <c r="O63">
-        <v>39.5</v>
+        <v>39.45</v>
       </c>
       <c r="P63">
         <v>41.425</v>
@@ -12390,22 +12390,22 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>5.307988505747126</v>
+        <v>5.300186781609196</v>
       </c>
       <c r="T63">
-        <v>0.5685073019633765</v>
+        <v>0.5685656264119848</v>
       </c>
       <c r="U63">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="V63">
-        <v>4.8675</v>
+        <v>4.86</v>
       </c>
       <c r="W63">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="X63">
-        <v>5.665</v>
+        <v>5.6625</v>
       </c>
       <c r="Y63">
         <v>6.65</v>
@@ -12438,13 +12438,13 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>124.8255747126437</v>
+        <v>124.8</v>
       </c>
       <c r="AJ63">
-        <v>36.30346644506862</v>
+        <v>36.29746726007755</v>
       </c>
       <c r="AK63">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL63">
         <v>103</v>
@@ -12462,10 +12462,10 @@
         <v>696</v>
       </c>
       <c r="AQ63">
-        <v>32.79149425287354</v>
+        <v>32.78219827586206</v>
       </c>
       <c r="AR63">
-        <v>18.66100234980017</v>
+        <v>18.65788765394927</v>
       </c>
       <c r="AS63">
         <v>1.46</v>
@@ -12486,19 +12486,19 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.01184471297413793</v>
+        <v>0.01184196316091954</v>
       </c>
       <c r="AZ63">
-        <v>0.01579550680450074</v>
+        <v>0.01579428029939759</v>
       </c>
       <c r="BA63">
-        <v>-0.000283</v>
+        <v>-0.000284</v>
       </c>
       <c r="BB63">
-        <v>0.00168</v>
+        <v>0.0016775</v>
       </c>
       <c r="BC63">
-        <v>0.00912</v>
+        <v>0.009115</v>
       </c>
       <c r="BD63">
         <v>0.014925</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.2829333778735635</v>
+        <v>0.2828085862068965</v>
       </c>
       <c r="BH63">
-        <v>0.2697440248286551</v>
+        <v>0.2695718146468656</v>
       </c>
       <c r="BI63">
         <v>-0.0119</v>
@@ -12563,10 +12563,10 @@
         <v>696</v>
       </c>
       <c r="K64">
-        <v>39.42500000000001</v>
+        <v>39.42255747126438</v>
       </c>
       <c r="L64">
-        <v>2.486506028590284</v>
+        <v>2.486700118371065</v>
       </c>
       <c r="M64">
         <v>35.5</v>
@@ -12587,10 +12587,10 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>5.303117816091957</v>
+        <v>5.299439655172415</v>
       </c>
       <c r="T64">
-        <v>0.5684733238352926</v>
+        <v>0.5684904679769053</v>
       </c>
       <c r="U64">
         <v>4.42</v>
@@ -12599,10 +12599,10 @@
         <v>4.86</v>
       </c>
       <c r="W64">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="X64">
-        <v>5.665</v>
+        <v>5.6625</v>
       </c>
       <c r="Y64">
         <v>6.64</v>
@@ -12611,10 +12611,10 @@
         <v>696</v>
       </c>
       <c r="AA64">
-        <v>39.40977011494257</v>
+        <v>39.40991379310349</v>
       </c>
       <c r="AB64">
-        <v>2.494821561421941</v>
+        <v>2.494598941202726</v>
       </c>
       <c r="AC64">
         <v>35.5</v>
@@ -12635,13 +12635,13 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>124.7943965517241</v>
+        <v>124.7882183908046</v>
       </c>
       <c r="AJ64">
-        <v>36.29056258292183</v>
+        <v>36.28957920444503</v>
       </c>
       <c r="AK64">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL64">
         <v>103</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>32.78103448275863</v>
+        <v>32.77777298850575</v>
       </c>
       <c r="AR64">
-        <v>18.6558941504878</v>
+        <v>18.65476983185069</v>
       </c>
       <c r="AS64">
         <v>1.46</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.0119750220545977</v>
+        <v>0.01197024895114942</v>
       </c>
       <c r="AZ64">
-        <v>0.01599657483187656</v>
+        <v>0.01599385578765265</v>
       </c>
       <c r="BA64">
         <v>-0.000245</v>
@@ -12695,7 +12695,7 @@
         <v>0.0017075</v>
       </c>
       <c r="BC64">
-        <v>0.009225000000000001</v>
+        <v>0.009215000000000001</v>
       </c>
       <c r="BD64">
         <v>0.015025</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.2858064781609198</v>
+        <v>0.2856727228448276</v>
       </c>
       <c r="BH64">
-        <v>0.2725867321100945</v>
+        <v>0.2724528262688289</v>
       </c>
       <c r="BI64">
         <v>-0.0103</v>
@@ -12760,10 +12760,10 @@
         <v>696</v>
       </c>
       <c r="K65">
-        <v>39.41882183908047</v>
+        <v>39.42040229885059</v>
       </c>
       <c r="L65">
-        <v>2.485921057078431</v>
+        <v>2.485558370560294</v>
       </c>
       <c r="M65">
         <v>35.5</v>
@@ -12784,10 +12784,10 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>5.29583333333333</v>
+        <v>5.297859195402294</v>
       </c>
       <c r="T65">
-        <v>0.5681796208372596</v>
+        <v>0.5681504894890875</v>
       </c>
       <c r="U65">
         <v>4.42</v>
@@ -12796,10 +12796,10 @@
         <v>4.8575</v>
       </c>
       <c r="W65">
-        <v>5.21</v>
+        <v>5.215</v>
       </c>
       <c r="X65">
-        <v>5.655</v>
+        <v>5.657500000000001</v>
       </c>
       <c r="Y65">
         <v>6.63</v>
@@ -12832,13 +12832,13 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>124.7646551724138</v>
+        <v>124.7676724137931</v>
       </c>
       <c r="AJ65">
-        <v>36.28267974757509</v>
+        <v>36.28165246982904</v>
       </c>
       <c r="AK65">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AL65">
         <v>103</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>32.76968390804598</v>
+        <v>32.7712643678161</v>
       </c>
       <c r="AR65">
-        <v>18.65197479198782</v>
+        <v>18.65295118846779</v>
       </c>
       <c r="AS65">
         <v>1.46</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.01210057774425287</v>
+        <v>0.01209833132183908</v>
       </c>
       <c r="AZ65">
-        <v>0.01618315731258956</v>
+        <v>0.01618137719614282</v>
       </c>
       <c r="BA65">
         <v>-0.000209</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.2886741666666668</v>
+        <v>0.2886000316091954</v>
       </c>
       <c r="BH65">
-        <v>0.2749351991939236</v>
+        <v>0.2748568220282925</v>
       </c>
       <c r="BI65">
         <v>-0.00877</v>
@@ -12957,10 +12957,10 @@
         <v>696</v>
       </c>
       <c r="K66">
-        <v>39.42140804597702</v>
+        <v>39.41939655172415</v>
       </c>
       <c r="L66">
-        <v>2.486316804424562</v>
+        <v>2.486385416841407</v>
       </c>
       <c r="M66">
         <v>35.5</v>
@@ -12981,19 +12981,19 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>5.298807471264364</v>
+        <v>5.296264367816089</v>
       </c>
       <c r="T66">
-        <v>0.5684983503847157</v>
+        <v>0.5683231517624809</v>
       </c>
       <c r="U66">
         <v>4.42</v>
       </c>
       <c r="V66">
-        <v>4.8575</v>
+        <v>4.85</v>
       </c>
       <c r="W66">
-        <v>5.215</v>
+        <v>5.21</v>
       </c>
       <c r="X66">
         <v>5.655</v>
@@ -13029,13 +13029,13 @@
         <v>696</v>
       </c>
       <c r="AI66">
-        <v>124.7656609195402</v>
+        <v>124.7635057471264</v>
       </c>
       <c r="AJ66">
-        <v>36.27984892245207</v>
+        <v>36.28197905824184</v>
       </c>
       <c r="AK66">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL66">
         <v>103</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>32.77051724137933</v>
+        <v>32.76761494252875</v>
       </c>
       <c r="AR66">
-        <v>18.6514222735319</v>
+        <v>18.65057680134157</v>
       </c>
       <c r="AS66">
         <v>1.46</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.01222096837643678</v>
+        <v>0.01221657606321839</v>
       </c>
       <c r="AZ66">
-        <v>0.01637745682202557</v>
+        <v>0.01636866117121711</v>
       </c>
       <c r="BA66">
         <v>-0.000172</v>
@@ -13089,7 +13089,7 @@
         <v>0.0017475</v>
       </c>
       <c r="BC66">
-        <v>0.009434999999999999</v>
+        <v>0.009430000000000001</v>
       </c>
       <c r="BD66">
         <v>0.0153</v>
@@ -13101,13 +13101,13 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.2912156307471262</v>
+        <v>0.2911258089080457</v>
       </c>
       <c r="BH66">
-        <v>0.2765953519582627</v>
+        <v>0.2765028089384675</v>
       </c>
       <c r="BI66">
-        <v>-0.00722</v>
+        <v>-0.00723</v>
       </c>
       <c r="BJ66">
         <v>0.04125</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>39.4182471264368</v>
+        <v>39.41939655172415</v>
       </c>
       <c r="L67">
-        <v>2.487036392282689</v>
+        <v>2.485910844912061</v>
       </c>
       <c r="M67">
         <v>35.5</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>5.29625</v>
+        <v>5.297341954022985</v>
       </c>
       <c r="T67">
-        <v>0.5681525184073916</v>
+        <v>0.5680713079858479</v>
       </c>
       <c r="U67">
         <v>4.42</v>
@@ -13202,10 +13202,10 @@
         <v>696</v>
       </c>
       <c r="AA67">
-        <v>39.40747126436784</v>
+        <v>39.40761494252876</v>
       </c>
       <c r="AB67">
-        <v>2.497123856185332</v>
+        <v>2.496907336238573</v>
       </c>
       <c r="AC67">
         <v>35.5</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>124.7583333333334</v>
+        <v>124.7587643678161</v>
       </c>
       <c r="AJ67">
-        <v>36.27765730672625</v>
+        <v>36.27710034451858</v>
       </c>
       <c r="AK67">
         <v>77.5</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>32.76586206896553</v>
+        <v>32.76658045977013</v>
       </c>
       <c r="AR67">
-        <v>18.64933556332797</v>
+        <v>18.64975541573932</v>
       </c>
       <c r="AS67">
         <v>1.46</v>
@@ -13274,13 +13274,13 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.0123342055316092</v>
+        <v>0.01233274504310345</v>
       </c>
       <c r="AZ67">
-        <v>0.01656037238788116</v>
+        <v>0.01655983789319392</v>
       </c>
       <c r="BA67">
-        <v>-0.000136</v>
+        <v>-0.000135</v>
       </c>
       <c r="BB67">
         <v>0.0017575</v>
@@ -13298,13 +13298,13 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.2935406120689654</v>
+        <v>0.2934530804597701</v>
       </c>
       <c r="BH67">
-        <v>0.2782464592438353</v>
+        <v>0.278148650015684</v>
       </c>
       <c r="BI67">
-        <v>-0.0057</v>
+        <v>-0.00569</v>
       </c>
       <c r="BJ67">
         <v>0.04175</v>
@@ -13351,10 +13351,10 @@
         <v>696</v>
       </c>
       <c r="K68">
-        <v>39.41709770114944</v>
+        <v>39.41724137931036</v>
       </c>
       <c r="L68">
-        <v>2.488027891234951</v>
+        <v>2.488139666049176</v>
       </c>
       <c r="M68">
         <v>35.5</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>5.294669540229885</v>
+        <v>5.295100574712643</v>
       </c>
       <c r="T68">
-        <v>0.5686496993468559</v>
+        <v>0.5684673234090428</v>
       </c>
       <c r="U68">
         <v>4.42</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>124.7477011494253</v>
+        <v>124.7505747126437</v>
       </c>
       <c r="AJ68">
-        <v>36.25509492990945</v>
+        <v>36.26420197650801</v>
       </c>
       <c r="AK68">
         <v>77.5</v>
@@ -13447,10 +13447,10 @@
         <v>696</v>
       </c>
       <c r="AQ68">
-        <v>32.7634195402299</v>
+        <v>32.76356321839083</v>
       </c>
       <c r="AR68">
-        <v>18.64619864287326</v>
+        <v>18.64647787688771</v>
       </c>
       <c r="AS68">
         <v>1.46</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.01245035873563218</v>
+        <v>0.01244734186781608</v>
       </c>
       <c r="AZ68">
-        <v>0.0167522936906587</v>
+        <v>0.01674954468814252</v>
       </c>
       <c r="BA68">
         <v>-0.0001</v>
@@ -13483,7 +13483,7 @@
         <v>0.0017775</v>
       </c>
       <c r="BC68">
-        <v>0.009639999999999999</v>
+        <v>0.009634999999999999</v>
       </c>
       <c r="BD68">
         <v>0.0155</v>
@@ -13495,16 +13495,16 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.2958834755747126</v>
+        <v>0.2957838965517239</v>
       </c>
       <c r="BH68">
-        <v>0.2800831946276466</v>
+        <v>0.279948905109472</v>
       </c>
       <c r="BI68">
         <v>-0.0042</v>
       </c>
       <c r="BJ68">
-        <v>0.04227499999999999</v>
+        <v>0.0422</v>
       </c>
       <c r="BK68">
         <v>0.1485</v>
@@ -13548,10 +13548,10 @@
         <v>696</v>
       </c>
       <c r="K69">
-        <v>39.4189655172414</v>
+        <v>39.41724137931036</v>
       </c>
       <c r="L69">
-        <v>2.48784372706969</v>
+        <v>2.488139666049176</v>
       </c>
       <c r="M69">
         <v>35.5</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>5.29699712643678</v>
+        <v>5.295603448275861</v>
       </c>
       <c r="T69">
-        <v>0.5682491398003315</v>
+        <v>0.5683206949466465</v>
       </c>
       <c r="U69">
         <v>4.42</v>
@@ -13587,10 +13587,10 @@
         <v>5.215</v>
       </c>
       <c r="X69">
-        <v>5.655</v>
+        <v>5.6475</v>
       </c>
       <c r="Y69">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="Z69">
         <v>696</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>124.7495689655173</v>
+        <v>124.7448275862069</v>
       </c>
       <c r="AJ69">
-        <v>36.25922060594564</v>
+        <v>36.24598536696207</v>
       </c>
       <c r="AK69">
         <v>77.5</v>
@@ -13644,10 +13644,10 @@
         <v>696</v>
       </c>
       <c r="AQ69">
-        <v>32.76353448275864</v>
+        <v>32.76265804597703</v>
       </c>
       <c r="AR69">
-        <v>18.64555460763095</v>
+        <v>18.64519572747877</v>
       </c>
       <c r="AS69">
         <v>1.46</v>
@@ -13668,19 +13668,19 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.01255842323275861</v>
+        <v>0.01255599306034481</v>
       </c>
       <c r="AZ69">
-        <v>0.01692471276675899</v>
+        <v>0.0169225543505079</v>
       </c>
       <c r="BA69">
-        <v>-6.52E-05</v>
+        <v>-6.53E-05</v>
       </c>
       <c r="BB69">
         <v>0.0017875</v>
       </c>
       <c r="BC69">
-        <v>0.009739999999999999</v>
+        <v>0.009735000000000001</v>
       </c>
       <c r="BD69">
         <v>0.0156</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.2981405229885057</v>
+        <v>0.2980271321839081</v>
       </c>
       <c r="BH69">
-        <v>0.2816435493265197</v>
+        <v>0.2814805561000971</v>
       </c>
       <c r="BI69">
         <v>-0.00274</v>
@@ -13707,7 +13707,7 @@
         <v>0.1495</v>
       </c>
       <c r="BL69">
-        <v>0.5702499999999999</v>
+        <v>0.57</v>
       </c>
       <c r="BM69">
         <v>1.2</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>5.295502873563221</v>
+        <v>5.295531609195405</v>
       </c>
       <c r="T70">
-        <v>0.5683182612189196</v>
+        <v>0.5683070951476014</v>
       </c>
       <c r="U70">
         <v>4.42</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>32.762183908046</v>
+        <v>32.76232758620691</v>
       </c>
       <c r="AR70">
-        <v>18.64466869931286</v>
+        <v>18.64486384921709</v>
       </c>
       <c r="AS70">
         <v>1.46</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.01266333451149426</v>
+        <v>0.01265865058908046</v>
       </c>
       <c r="AZ70">
-        <v>0.01710491228607695</v>
+        <v>0.01709491985590256</v>
       </c>
       <c r="BA70">
         <v>-3.09E-05</v>
@@ -13883,16 +13883,16 @@
         <v>0.0157</v>
       </c>
       <c r="BE70">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="BF70">
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.3002383433908044</v>
+        <v>0.3001422327586203</v>
       </c>
       <c r="BH70">
-        <v>0.28273605811285</v>
+        <v>0.282628698705681</v>
       </c>
       <c r="BI70">
         <v>-0.0013</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>5.294755747126439</v>
+        <v>5.294784482758623</v>
       </c>
       <c r="T71">
-        <v>0.5685781312483181</v>
+        <v>0.568564730497824</v>
       </c>
       <c r="U71">
         <v>4.42</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>39.40632183908048</v>
+        <v>39.40646551724139</v>
       </c>
       <c r="AB71">
-        <v>2.49832524735958</v>
+        <v>2.498287443695625</v>
       </c>
       <c r="AC71">
         <v>35.5</v>
@@ -14062,22 +14062,22 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.01276184298850576</v>
+        <v>0.01275865363505749</v>
       </c>
       <c r="AZ71">
-        <v>0.01727226098033227</v>
+        <v>0.017269742771175</v>
       </c>
       <c r="BA71">
-        <v>3.14E-06</v>
+        <v>3.15E-06</v>
       </c>
       <c r="BB71">
         <v>0.00183</v>
       </c>
       <c r="BC71">
-        <v>0.009934999999999999</v>
+        <v>0.009930000000000001</v>
       </c>
       <c r="BD71">
-        <v>0.0159</v>
+        <v>0.015825</v>
       </c>
       <c r="BE71">
         <v>0.108</v>
@@ -14086,13 +14086,13 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.3020996609195405</v>
+        <v>0.3019962183908049</v>
       </c>
       <c r="BH71">
-        <v>0.2835013532548774</v>
+        <v>0.2833545338870332</v>
       </c>
       <c r="BI71">
-        <v>0.000132</v>
+        <v>0.000133</v>
       </c>
       <c r="BJ71">
         <v>0.044775</v>
@@ -14104,7 +14104,7 @@
         <v>0.58</v>
       </c>
       <c r="BM71">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="72" spans="1:65">
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>5.29383620689655</v>
+        <v>5.293850574712643</v>
       </c>
       <c r="T72">
-        <v>0.5688575668887582</v>
+        <v>0.5688469727082865</v>
       </c>
       <c r="U72">
         <v>4.42</v>
@@ -14235,10 +14235,10 @@
         <v>696</v>
       </c>
       <c r="AQ72">
-        <v>32.75801724137934</v>
+        <v>32.75830459770118</v>
       </c>
       <c r="AR72">
-        <v>18.6410859698397</v>
+        <v>18.64132743750473</v>
       </c>
       <c r="AS72">
         <v>1.46</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01286043867816091</v>
+        <v>0.01285737852011493</v>
       </c>
       <c r="AZ72">
-        <v>0.0174408401167455</v>
+        <v>0.01743847813536257</v>
       </c>
       <c r="BA72">
         <v>4.78E-06</v>
@@ -14271,7 +14271,7 @@
         <v>0.00191</v>
       </c>
       <c r="BC72">
-        <v>0.01002</v>
+        <v>0.010015</v>
       </c>
       <c r="BD72">
         <v>0.016</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.3040571867816096</v>
+        <v>0.3039695517241383</v>
       </c>
       <c r="BH72">
-        <v>0.2846999328773963</v>
+        <v>0.2846000525148719</v>
       </c>
       <c r="BI72">
         <v>0.000237</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>5.293477011494253</v>
+        <v>5.293505747126437</v>
       </c>
       <c r="T73">
-        <v>0.5689232359392886</v>
+        <v>0.5689344400624956</v>
       </c>
       <c r="U73">
         <v>4.42</v>
@@ -14384,10 +14384,10 @@
         <v>696</v>
       </c>
       <c r="AA73">
-        <v>39.4044540229885</v>
+        <v>39.40459770114943</v>
       </c>
       <c r="AB73">
-        <v>2.500019048137141</v>
+        <v>2.499814464296978</v>
       </c>
       <c r="AC73">
         <v>35.5</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.01295625870689656</v>
+        <v>0.0129534404454023</v>
       </c>
       <c r="AZ73">
-        <v>0.01759573317416504</v>
+        <v>0.01759418497983041</v>
       </c>
       <c r="BA73">
         <v>4.9E-06</v>
@@ -14468,7 +14468,7 @@
         <v>0.0019775</v>
       </c>
       <c r="BC73">
-        <v>0.010105</v>
+        <v>0.0101</v>
       </c>
       <c r="BD73">
         <v>0.0161</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.3059439037356323</v>
+        <v>0.3058475014367818</v>
       </c>
       <c r="BH73">
-        <v>0.2856325756038466</v>
+        <v>0.2855326714642491</v>
       </c>
       <c r="BI73">
         <v>0.000242</v>
@@ -14533,10 +14533,10 @@
         <v>696</v>
       </c>
       <c r="K74">
-        <v>39.41652298850577</v>
+        <v>39.41666666666669</v>
       </c>
       <c r="L74">
-        <v>2.489112981076652</v>
+        <v>2.48891836513321</v>
       </c>
       <c r="M74">
         <v>35.5</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>5.293031609195399</v>
+        <v>5.293045977011491</v>
       </c>
       <c r="T74">
-        <v>0.568849783947628</v>
+        <v>0.5688551452701633</v>
       </c>
       <c r="U74">
         <v>4.42</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>32.75577586206898</v>
+        <v>32.7559195402299</v>
       </c>
       <c r="AR74">
-        <v>18.63874199837702</v>
+        <v>18.63893571588397</v>
       </c>
       <c r="AS74">
         <v>1.46</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.01304353540229885</v>
+        <v>0.01304053211206897</v>
       </c>
       <c r="AZ74">
-        <v>0.01776018636392187</v>
+        <v>0.01775168039590523</v>
       </c>
       <c r="BA74">
         <v>5.1E-06</v>
@@ -14665,25 +14665,25 @@
         <v>0.002</v>
       </c>
       <c r="BC74">
-        <v>0.010185</v>
+        <v>0.01018</v>
       </c>
       <c r="BD74">
-        <v>0.016225</v>
+        <v>0.0162</v>
       </c>
       <c r="BE74">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="BF74">
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.3075240747126441</v>
+        <v>0.3074364410919543</v>
       </c>
       <c r="BH74">
-        <v>0.2861494581624421</v>
+        <v>0.2860438324849104</v>
       </c>
       <c r="BI74">
-        <v>0.00025</v>
+        <v>0.000249</v>
       </c>
       <c r="BJ74">
         <v>0.046925</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>5.292614942528731</v>
+        <v>5.292629310344823</v>
       </c>
       <c r="T75">
-        <v>0.5688297222862529</v>
+        <v>0.5688401532464313</v>
       </c>
       <c r="U75">
         <v>4.42</v>
@@ -14778,10 +14778,10 @@
         <v>696</v>
       </c>
       <c r="AA75">
-        <v>39.40272988505747</v>
+        <v>39.40287356321839</v>
       </c>
       <c r="AB75">
-        <v>2.501655513213008</v>
+        <v>2.501497178417559</v>
       </c>
       <c r="AC75">
         <v>35.5</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>32.75346264367816</v>
+        <v>32.75360632183908</v>
       </c>
       <c r="AR75">
-        <v>18.63732416474059</v>
+        <v>18.63742372847498</v>
       </c>
       <c r="AS75">
         <v>1.46</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.01313099945402298</v>
+        <v>0.01312772363505746</v>
       </c>
       <c r="AZ75">
-        <v>0.01791679113654775</v>
+        <v>0.0179141377519346</v>
       </c>
       <c r="BA75">
         <v>5.19E-06</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.3090861522988505</v>
+        <v>0.3089926264367815</v>
       </c>
       <c r="BH75">
-        <v>0.2868209159404885</v>
+        <v>0.2867114289870312</v>
       </c>
       <c r="BI75">
         <v>0.000254</v>
@@ -14889,7 +14889,7 @@
         <v>0.152</v>
       </c>
       <c r="BL75">
-        <v>0.5982499999999999</v>
+        <v>0.598</v>
       </c>
       <c r="BM75">
         <v>1.1</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.01321792790229887</v>
+        <v>0.01321374538793105</v>
       </c>
       <c r="AZ76">
-        <v>0.01806659727047205</v>
+        <v>0.01806323523093769</v>
       </c>
       <c r="BA76">
         <v>5.24E-06</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.3107394511494254</v>
+        <v>0.3106418922413794</v>
       </c>
       <c r="BH76">
-        <v>0.2877188614920268</v>
+        <v>0.2875856260803505</v>
       </c>
       <c r="BI76">
         <v>0.000257</v>
@@ -15086,7 +15086,7 @@
         <v>0.153</v>
       </c>
       <c r="BL76">
-        <v>0.603</v>
+        <v>0.60225</v>
       </c>
       <c r="BM76">
         <v>1.09</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.01330232290229884</v>
+        <v>0.01329972288793102</v>
       </c>
       <c r="AZ77">
-        <v>0.0182139622414024</v>
+        <v>0.01821230859545388</v>
       </c>
       <c r="BA77">
         <v>5.33E-06</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.3123859123563216</v>
+        <v>0.3122869195402295</v>
       </c>
       <c r="BH77">
-        <v>0.2886318408020986</v>
+        <v>0.2885242786282522</v>
       </c>
       <c r="BI77">
         <v>0.000261</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>5.291364942528736</v>
+        <v>5.291379310344828</v>
       </c>
       <c r="T78">
-        <v>0.5690479279666714</v>
+        <v>0.5690611678468128</v>
       </c>
       <c r="U78">
         <v>4.41</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>32.74718390804597</v>
+        <v>32.74747126436781</v>
       </c>
       <c r="AR78">
-        <v>18.63371527269779</v>
+        <v>18.6339207113884</v>
       </c>
       <c r="AS78">
         <v>1.46</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.01339657739942528</v>
+        <v>0.01339233571839079</v>
       </c>
       <c r="AZ78">
-        <v>0.01838143181443247</v>
+        <v>0.01837214457806635</v>
       </c>
       <c r="BA78">
         <v>5.42E-06</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.3141996594827587</v>
+        <v>0.3140987988505747</v>
       </c>
       <c r="BH78">
-        <v>0.2902062997623269</v>
+        <v>0.2900924970263716</v>
       </c>
       <c r="BI78">
         <v>0.000266</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>5.290589080459768</v>
+        <v>5.290617816091952</v>
       </c>
       <c r="T79">
-        <v>0.5689744130457323</v>
+        <v>0.5689824747766785</v>
       </c>
       <c r="U79">
         <v>4.41</v>
@@ -15566,10 +15566,10 @@
         <v>696</v>
       </c>
       <c r="AA79">
-        <v>39.39913793103447</v>
+        <v>39.39928160919539</v>
       </c>
       <c r="AB79">
-        <v>2.504918753333883</v>
+        <v>2.504697641340965</v>
       </c>
       <c r="AC79">
         <v>35.5</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>124.6834770114942</v>
+        <v>124.6836206896551</v>
       </c>
       <c r="AJ79">
-        <v>36.15858674869333</v>
+        <v>36.15841471018548</v>
       </c>
       <c r="AK79">
         <v>77.40000000000001</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01349413244252875</v>
+        <v>0.01348976464080462</v>
       </c>
       <c r="AZ79">
-        <v>0.01853886460395474</v>
+        <v>0.01852971267517169</v>
       </c>
       <c r="BA79">
         <v>5.43E-06</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.3162392169540225</v>
+        <v>0.3161558836206891</v>
       </c>
       <c r="BH79">
-        <v>0.2920193692545491</v>
+        <v>0.291928099874431</v>
       </c>
       <c r="BI79">
         <v>0.000267</v>
@@ -15715,10 +15715,10 @@
         <v>696</v>
       </c>
       <c r="K80">
-        <v>39.41321839080461</v>
+        <v>39.41336206896553</v>
       </c>
       <c r="L80">
-        <v>2.493282598556692</v>
+        <v>2.493076956093656</v>
       </c>
       <c r="M80">
         <v>35.5</v>
@@ -15835,13 +15835,13 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.01357913666666668</v>
+        <v>0.01357644817528737</v>
       </c>
       <c r="AZ80">
-        <v>0.01869055419314207</v>
+        <v>0.01868880013924636</v>
       </c>
       <c r="BA80">
-        <v>5.63E-06</v>
+        <v>5.64E-06</v>
       </c>
       <c r="BB80">
         <v>0.0020775</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.3179528706896553</v>
+        <v>0.3178479841954023</v>
       </c>
       <c r="BH80">
-        <v>0.2930972419975745</v>
+        <v>0.292977432816001</v>
       </c>
       <c r="BI80">
         <v>0.000274</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>5.289741379310346</v>
+        <v>5.289755747126438</v>
       </c>
       <c r="T81">
-        <v>0.5688010278454978</v>
+        <v>0.5688102672339939</v>
       </c>
       <c r="U81">
         <v>4.41</v>
@@ -16032,13 +16032,13 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01366520966954024</v>
+        <v>0.01366082783045977</v>
       </c>
       <c r="AZ81">
-        <v>0.01885038930905031</v>
+        <v>0.01884063171021553</v>
       </c>
       <c r="BA81">
-        <v>5.8E-06</v>
+        <v>5.79E-06</v>
       </c>
       <c r="BB81">
         <v>0.0020875</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.319583323275862</v>
+        <v>0.3194870589080459</v>
       </c>
       <c r="BH81">
-        <v>0.2942581911085879</v>
+        <v>0.2941484219494039</v>
       </c>
       <c r="BI81">
         <v>0.00028</v>
@@ -16071,7 +16071,7 @@
         <v>0.164</v>
       </c>
       <c r="BL81">
-        <v>0.62325</v>
+        <v>0.623</v>
       </c>
       <c r="BM81">
         <v>1.08</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>5.289511494252872</v>
+        <v>5.289525862068965</v>
       </c>
       <c r="T82">
-        <v>0.5686288366100742</v>
+        <v>0.5686153110777631</v>
       </c>
       <c r="U82">
         <v>4.41</v>
@@ -16157,10 +16157,10 @@
         <v>696</v>
       </c>
       <c r="AA82">
-        <v>39.39770114942527</v>
+        <v>39.39784482758619</v>
       </c>
       <c r="AB82">
-        <v>2.505888409740269</v>
+        <v>2.505788052851827</v>
       </c>
       <c r="AC82">
         <v>35.5</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.01374335313218391</v>
+        <v>0.01373886893678161</v>
       </c>
       <c r="AZ82">
-        <v>0.01898523815956537</v>
+        <v>0.0189756312543631</v>
       </c>
       <c r="BA82">
         <v>5.87E-06</v>
@@ -16244,19 +16244,19 @@
         <v>0.01055</v>
       </c>
       <c r="BD82">
-        <v>0.016825</v>
+        <v>0.0168</v>
       </c>
       <c r="BE82">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="BF82">
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.3211155244252875</v>
+        <v>0.3210089195402301</v>
       </c>
       <c r="BH82">
-        <v>0.2952232778010752</v>
+        <v>0.295104455254393</v>
       </c>
       <c r="BI82">
         <v>0.000284</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>5.289224137931033</v>
+        <v>5.289252873563217</v>
       </c>
       <c r="T83">
-        <v>0.5687449024636546</v>
+        <v>0.5687393752591319</v>
       </c>
       <c r="U83">
         <v>4.41</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>124.6597701149425</v>
+        <v>124.6612068965517</v>
       </c>
       <c r="AJ83">
-        <v>36.11677171857328</v>
+        <v>36.11859786363298</v>
       </c>
       <c r="AK83">
         <v>77.40000000000001</v>
@@ -16426,13 +16426,13 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.01382583935344826</v>
+        <v>0.0138231661781609</v>
       </c>
       <c r="AZ83">
-        <v>0.01914275718054895</v>
+        <v>0.01914107652459825</v>
       </c>
       <c r="BA83">
-        <v>5.97E-06</v>
+        <v>5.98E-06</v>
       </c>
       <c r="BB83">
         <v>0.002115</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.3226577370689658</v>
+        <v>0.3225471063218393</v>
       </c>
       <c r="BH83">
-        <v>0.2964025882792381</v>
+        <v>0.2962608531086499</v>
       </c>
       <c r="BI83">
         <v>0.000287</v>
@@ -16503,10 +16503,10 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>39.41264367816093</v>
+        <v>39.41278735632185</v>
       </c>
       <c r="L84">
-        <v>2.493989533313344</v>
+        <v>2.493841679053668</v>
       </c>
       <c r="M84">
         <v>35.5</v>
@@ -16527,10 +16527,10 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>5.28889367816092</v>
+        <v>5.288908045977012</v>
       </c>
       <c r="T84">
-        <v>0.5688671667688355</v>
+        <v>0.5688688386272081</v>
       </c>
       <c r="U84">
         <v>4.41</v>
@@ -16599,10 +16599,10 @@
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>32.73862068965516</v>
+        <v>32.73876436781607</v>
       </c>
       <c r="AR84">
-        <v>18.62599598518398</v>
+        <v>18.62627416866475</v>
       </c>
       <c r="AS84">
         <v>1.46</v>
@@ -16623,13 +16623,13 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01390693169540229</v>
+        <v>0.01390328086206896</v>
       </c>
       <c r="AZ84">
-        <v>0.01928007816200665</v>
+        <v>0.01927109984357368</v>
       </c>
       <c r="BA84">
-        <v>6.06E-06</v>
+        <v>6.05E-06</v>
       </c>
       <c r="BB84">
         <v>0.002125</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.3243450100574717</v>
+        <v>0.3242415517241382</v>
       </c>
       <c r="BH84">
-        <v>0.2979843687081033</v>
+        <v>0.2978660800494511</v>
       </c>
       <c r="BI84">
         <v>0.000291</v>
@@ -16820,19 +16820,19 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.0139999503448276</v>
+        <v>0.01399686129310346</v>
       </c>
       <c r="AZ85">
-        <v>0.0194382856056393</v>
+        <v>0.01943574185299262</v>
       </c>
       <c r="BA85">
-        <v>5.98E-06</v>
+        <v>5.99E-06</v>
       </c>
       <c r="BB85">
         <v>0.002135</v>
       </c>
       <c r="BC85">
-        <v>0.0107</v>
+        <v>0.01065</v>
       </c>
       <c r="BD85">
         <v>0.0171</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.3263499827586206</v>
+        <v>0.3262363333333332</v>
       </c>
       <c r="BH85">
-        <v>0.3002009267055754</v>
+        <v>0.3000694345117899</v>
       </c>
       <c r="BI85">
         <v>0.000291</v>
@@ -16859,7 +16859,7 @@
         <v>0.172</v>
       </c>
       <c r="BL85">
-        <v>0.6365000000000001</v>
+        <v>0.63625</v>
       </c>
       <c r="BM85">
         <v>1.14</v>
@@ -16993,10 +16993,10 @@
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>32.73494252873562</v>
+        <v>32.73495689655172</v>
       </c>
       <c r="AR86">
-        <v>18.62204129163063</v>
+        <v>18.62202127206207</v>
       </c>
       <c r="AS86">
         <v>1.46</v>
@@ -17017,13 +17017,13 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.0140920301724138</v>
+        <v>0.01408665590517241</v>
       </c>
       <c r="AZ86">
-        <v>0.01959283456557017</v>
+        <v>0.01958257888258042</v>
       </c>
       <c r="BA86">
-        <v>6.12E-06</v>
+        <v>6.13E-06</v>
       </c>
       <c r="BB86">
         <v>0.002145</v>
@@ -17032,7 +17032,7 @@
         <v>0.01075</v>
       </c>
       <c r="BD86">
-        <v>0.0172</v>
+        <v>0.017125</v>
       </c>
       <c r="BE86">
         <v>0.121</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.3283564698275862</v>
+        <v>0.3282586278735632</v>
       </c>
       <c r="BH86">
-        <v>0.3021295058703727</v>
+        <v>0.302025185325789</v>
       </c>
       <c r="BI86">
         <v>0.000296</v>
@@ -17056,7 +17056,7 @@
         <v>0.1725</v>
       </c>
       <c r="BL86">
-        <v>0.641</v>
+        <v>0.64025</v>
       </c>
       <c r="BM86">
         <v>1.14</v>
@@ -17118,10 +17118,10 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>5.28751436781609</v>
+        <v>5.287571839080457</v>
       </c>
       <c r="T87">
-        <v>0.5693083015724536</v>
+        <v>0.5693098136309165</v>
       </c>
       <c r="U87">
         <v>4.41</v>
@@ -17133,7 +17133,7 @@
         <v>5.21</v>
       </c>
       <c r="X87">
-        <v>5.635</v>
+        <v>5.6425</v>
       </c>
       <c r="Y87">
         <v>6.63</v>
@@ -17166,10 +17166,10 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>124.6258620689655</v>
+        <v>124.6272988505747</v>
       </c>
       <c r="AJ87">
-        <v>36.08920870381173</v>
+        <v>36.0907983912885</v>
       </c>
       <c r="AK87">
         <v>77.40000000000001</v>
@@ -17214,13 +17214,13 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01417585012931036</v>
+        <v>0.01417286261494254</v>
       </c>
       <c r="AZ87">
-        <v>0.01972939346736727</v>
+        <v>0.01972730745241979</v>
       </c>
       <c r="BA87">
-        <v>6.18E-06</v>
+        <v>6.17E-06</v>
       </c>
       <c r="BB87">
         <v>0.00216</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.3302088477011494</v>
+        <v>0.3301097097701149</v>
       </c>
       <c r="BH87">
-        <v>0.3038042743358049</v>
+        <v>0.303695483058749</v>
       </c>
       <c r="BI87">
         <v>0.000298</v>
@@ -17291,10 +17291,10 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>39.41106321839079</v>
+        <v>39.41120689655172</v>
       </c>
       <c r="L88">
-        <v>2.49404032471839</v>
+        <v>2.49390987306557</v>
       </c>
       <c r="M88">
         <v>35.5</v>
@@ -17315,10 +17315,10 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>5.286709770114942</v>
+        <v>5.286738505747126</v>
       </c>
       <c r="T88">
-        <v>0.5694159135042581</v>
+        <v>0.5694307348029215</v>
       </c>
       <c r="U88">
         <v>4.41</v>
@@ -17411,13 +17411,13 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01426465064655173</v>
+        <v>0.01426129000000001</v>
       </c>
       <c r="AZ88">
-        <v>0.01988495211804913</v>
+        <v>0.01988263751078286</v>
       </c>
       <c r="BA88">
-        <v>6.28E-06</v>
+        <v>6.29E-06</v>
       </c>
       <c r="BB88">
         <v>0.0021775</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.3321327471264366</v>
+        <v>0.3320349037356322</v>
       </c>
       <c r="BH88">
-        <v>0.3057695335849236</v>
+        <v>0.3056631140168746</v>
       </c>
       <c r="BI88">
         <v>0.000303</v>
@@ -17512,10 +17512,10 @@
         <v>696</v>
       </c>
       <c r="S89">
-        <v>5.286163793103447</v>
+        <v>5.28617816091954</v>
       </c>
       <c r="T89">
-        <v>0.5694857674431096</v>
+        <v>0.569478663401124</v>
       </c>
       <c r="U89">
         <v>4.41</v>
@@ -17536,10 +17536,10 @@
         <v>696</v>
       </c>
       <c r="AA89">
-        <v>39.39454022988505</v>
+        <v>39.39468390804596</v>
       </c>
       <c r="AB89">
-        <v>2.508242312962902</v>
+        <v>2.508027494731786</v>
       </c>
       <c r="AC89">
         <v>35.5</v>
@@ -17608,10 +17608,10 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.01435610579022989</v>
+        <v>0.01435231341954022</v>
       </c>
       <c r="AZ89">
-        <v>0.02004972805055773</v>
+        <v>0.02004776179289612</v>
       </c>
       <c r="BA89">
         <v>6.33E-06</v>
@@ -17632,10 +17632,10 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.3340727744252877</v>
+        <v>0.333969173850575</v>
       </c>
       <c r="BH89">
-        <v>0.307745807736605</v>
+        <v>0.30763247705451</v>
       </c>
       <c r="BI89">
         <v>0.000305</v>
@@ -17647,7 +17647,7 @@
         <v>0.1725</v>
       </c>
       <c r="BL89">
-        <v>0.6515</v>
+        <v>0.65125</v>
       </c>
       <c r="BM89">
         <v>1.18</v>
@@ -17709,10 +17709,10 @@
         <v>696</v>
       </c>
       <c r="S90">
-        <v>5.285675287356321</v>
+        <v>5.285704022988505</v>
       </c>
       <c r="T90">
-        <v>0.5694223788095496</v>
+        <v>0.5694380102551642</v>
       </c>
       <c r="U90">
         <v>4.41</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>124.6170977011494</v>
+        <v>124.6172413793104</v>
       </c>
       <c r="AJ90">
-        <v>36.08308610597836</v>
+        <v>36.08289802171176</v>
       </c>
       <c r="AK90">
         <v>77.40000000000001</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>32.73070402298851</v>
+        <v>32.7307183908046</v>
       </c>
       <c r="AR90">
-        <v>18.62072587643965</v>
+        <v>18.62070585100488</v>
       </c>
       <c r="AS90">
         <v>1.46</v>
@@ -17805,13 +17805,13 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01444056689655172</v>
+        <v>0.01443769182471264</v>
       </c>
       <c r="AZ90">
-        <v>0.02018648770742616</v>
+        <v>0.02018490965872451</v>
       </c>
       <c r="BA90">
-        <v>6.41E-06</v>
+        <v>6.42E-06</v>
       </c>
       <c r="BB90">
         <v>0.002195</v>
@@ -17829,10 +17829,10 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.3359650387931029</v>
+        <v>0.3358788347701143</v>
       </c>
       <c r="BH90">
-        <v>0.309477964331889</v>
+        <v>0.309377349911629</v>
       </c>
       <c r="BI90">
         <v>0.000308</v>
@@ -17906,10 +17906,10 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>5.285330459770114</v>
+        <v>5.285344827586206</v>
       </c>
       <c r="T91">
-        <v>0.5693711335864461</v>
+        <v>0.5693660708625577</v>
       </c>
       <c r="U91">
         <v>4.41</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>32.72896551724138</v>
+        <v>32.72910919540229</v>
       </c>
       <c r="AR91">
-        <v>18.61877505476171</v>
+        <v>18.61894136686056</v>
       </c>
       <c r="AS91">
         <v>1.46</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.01452877817528736</v>
+        <v>0.01452537360632184</v>
       </c>
       <c r="AZ91">
-        <v>0.0203342602173407</v>
+        <v>0.02033184777532113</v>
       </c>
       <c r="BA91">
         <v>6.4E-06</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.3379193563218394</v>
+        <v>0.3378230933908049</v>
       </c>
       <c r="BH91">
-        <v>0.3114661847224684</v>
+        <v>0.3113591696515167</v>
       </c>
       <c r="BI91">
         <v>0.000309</v>
@@ -18103,10 +18103,10 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>5.284928160919539</v>
+        <v>5.284971264367814</v>
       </c>
       <c r="T92">
-        <v>0.5693959899690831</v>
+        <v>0.5693813371429941</v>
       </c>
       <c r="U92">
         <v>4.41</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>32.72695402298851</v>
+        <v>32.72709770114943</v>
       </c>
       <c r="AR92">
-        <v>18.61692328058783</v>
+        <v>18.61697910481188</v>
       </c>
       <c r="AS92">
         <v>1.46</v>
@@ -18199,13 +18199,13 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01462604633620687</v>
+        <v>0.01462279877873561</v>
       </c>
       <c r="AZ92">
-        <v>0.02050832235682242</v>
+        <v>0.02050010202683487</v>
       </c>
       <c r="BA92">
-        <v>6.46E-06</v>
+        <v>6.47E-06</v>
       </c>
       <c r="BB92">
         <v>0.00222</v>
@@ -18223,10 +18223,10 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.3400873390804598</v>
+        <v>0.3399708074712643</v>
       </c>
       <c r="BH92">
-        <v>0.313906038105833</v>
+        <v>0.3137799615510504</v>
       </c>
       <c r="BI92">
         <v>0.000312</v>
@@ -18238,7 +18238,7 @@
         <v>0.1735</v>
       </c>
       <c r="BL92">
-        <v>0.66325</v>
+        <v>0.663</v>
       </c>
       <c r="BM92">
         <v>1.23</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>39.40948275862068</v>
+        <v>39.40962643678159</v>
       </c>
       <c r="L93">
-        <v>2.496027754697508</v>
+        <v>2.495805258634316</v>
       </c>
       <c r="M93">
         <v>35.5</v>
@@ -18372,10 +18372,10 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>32.72451149425287</v>
+        <v>32.7246551724138</v>
       </c>
       <c r="AR93">
-        <v>18.61483631365155</v>
+        <v>18.61495168051674</v>
       </c>
       <c r="AS93">
         <v>1.46</v>
@@ -18396,13 +18396,13 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01471925400862067</v>
+        <v>0.01471441096264366</v>
       </c>
       <c r="AZ93">
-        <v>0.02065998936055271</v>
+        <v>0.02064934718395887</v>
       </c>
       <c r="BA93">
-        <v>6.52E-06</v>
+        <v>6.51E-06</v>
       </c>
       <c r="BB93">
         <v>0.00223</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.3422629971264361</v>
+        <v>0.3421608491379303</v>
       </c>
       <c r="BH93">
-        <v>0.3161809765742108</v>
+        <v>0.3160703786982109</v>
       </c>
       <c r="BI93">
         <v>0.000314</v>
@@ -18435,7 +18435,7 @@
         <v>0.1735</v>
       </c>
       <c r="BL93">
-        <v>0.66725</v>
+        <v>0.667</v>
       </c>
       <c r="BM93">
         <v>1.23</v>
@@ -18521,10 +18521,10 @@
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>39.39224137931033</v>
+        <v>39.39238505747124</v>
       </c>
       <c r="AB94">
-        <v>2.51031199971175</v>
+        <v>2.510194936625986</v>
       </c>
       <c r="AC94">
         <v>35.5</v>
@@ -18569,10 +18569,10 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>32.72257183908045</v>
+        <v>32.72271551724137</v>
       </c>
       <c r="AR94">
-        <v>18.6147637738045</v>
+        <v>18.61461789502935</v>
       </c>
       <c r="AS94">
         <v>1.46</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01481294747126438</v>
+        <v>0.01480721479885058</v>
       </c>
       <c r="AZ94">
-        <v>0.02081315428725255</v>
+        <v>0.02080214595979455</v>
       </c>
       <c r="BA94">
         <v>6.63E-06</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.3444106724137934</v>
+        <v>0.3442971767241381</v>
       </c>
       <c r="BH94">
-        <v>0.318489645215731</v>
+        <v>0.318365944169319</v>
       </c>
       <c r="BI94">
         <v>0.000318</v>
@@ -18694,10 +18694,10 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>5.283520114942528</v>
+        <v>5.283563218390804</v>
       </c>
       <c r="T95">
-        <v>0.5692224606133783</v>
+        <v>0.5692205490034214</v>
       </c>
       <c r="U95">
         <v>4.41</v>
@@ -18718,10 +18718,10 @@
         <v>696</v>
       </c>
       <c r="AA95">
-        <v>39.39166666666664</v>
+        <v>39.39181034482756</v>
       </c>
       <c r="AB95">
-        <v>2.510596726529648</v>
+        <v>2.510525560204396</v>
       </c>
       <c r="AC95">
         <v>35.5</v>
@@ -18790,19 +18790,19 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01490865241379309</v>
+        <v>0.01490540801724138</v>
       </c>
       <c r="AZ95">
-        <v>0.02097696249613316</v>
+        <v>0.02097440301852433</v>
       </c>
       <c r="BA95">
-        <v>6.61E-06</v>
+        <v>6.6E-06</v>
       </c>
       <c r="BB95">
         <v>0.0022475</v>
       </c>
       <c r="BC95">
-        <v>0.0111</v>
+        <v>0.01105</v>
       </c>
       <c r="BD95">
         <v>0.01795</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.3465408275862067</v>
+        <v>0.3464215732758616</v>
       </c>
       <c r="BH95">
-        <v>0.3209576196707793</v>
+        <v>0.3208266932623786</v>
       </c>
       <c r="BI95">
         <v>0.000318</v>
@@ -18829,7 +18829,7 @@
         <v>0.1735</v>
       </c>
       <c r="BL95">
-        <v>0.676</v>
+        <v>0.67525</v>
       </c>
       <c r="BM95">
         <v>1.3</v>
@@ -18891,13 +18891,13 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>5.282931034482758</v>
+        <v>5.282959770114942</v>
       </c>
       <c r="T96">
-        <v>0.5691576771194118</v>
+        <v>0.5691580338042987</v>
       </c>
       <c r="U96">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="V96">
         <v>4.84</v>
@@ -18963,10 +18963,10 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>32.71925287356321</v>
+        <v>32.71954022988505</v>
       </c>
       <c r="AR96">
-        <v>18.612839948589</v>
+        <v>18.61322771126687</v>
       </c>
       <c r="AS96">
         <v>1.46</v>
@@ -18987,10 +18987,10 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01500143859195405</v>
+        <v>0.01499873761494255</v>
       </c>
       <c r="AZ96">
-        <v>0.02112933265296345</v>
+        <v>0.02112795388908737</v>
       </c>
       <c r="BA96">
         <v>6.65E-06</v>
@@ -19011,10 +19011,10 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.3487143908045978</v>
+        <v>0.3486064870689656</v>
       </c>
       <c r="BH96">
-        <v>0.3232945874427234</v>
+        <v>0.3231766631419941</v>
       </c>
       <c r="BI96">
         <v>0.00032</v>
@@ -19064,10 +19064,10 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>39.4058908045977</v>
+        <v>39.40603448275862</v>
       </c>
       <c r="L97">
-        <v>2.499434712406866</v>
+        <v>2.49921848365145</v>
       </c>
       <c r="M97">
         <v>35.5</v>
@@ -19184,13 +19184,13 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01509263030172414</v>
+        <v>0.01508941234195403</v>
       </c>
       <c r="AZ97">
-        <v>0.02128319046317294</v>
+        <v>0.02128094534520177</v>
       </c>
       <c r="BA97">
-        <v>6.72E-06</v>
+        <v>6.73E-06</v>
       </c>
       <c r="BB97">
         <v>0.002265</v>
@@ -19208,10 +19208,10 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.3507990201149426</v>
+        <v>0.3506796278735634</v>
       </c>
       <c r="BH97">
-        <v>0.325212378762285</v>
+        <v>0.3250737633099008</v>
       </c>
       <c r="BI97">
         <v>0.000323</v>
@@ -19223,7 +19223,7 @@
         <v>0.1745</v>
       </c>
       <c r="BL97">
-        <v>0.6850000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="BM97">
         <v>1.3</v>
@@ -19381,13 +19381,13 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.01517655166666667</v>
+        <v>0.0151725710775862</v>
       </c>
       <c r="AZ98">
-        <v>0.02144331710100833</v>
+        <v>0.02144036020260617</v>
       </c>
       <c r="BA98">
-        <v>6.86E-06</v>
+        <v>6.85E-06</v>
       </c>
       <c r="BB98">
         <v>0.002265</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.3525029999999998</v>
+        <v>0.3523966767241377</v>
       </c>
       <c r="BH98">
-        <v>0.3264264625184924</v>
+        <v>0.3263154692554016</v>
       </c>
       <c r="BI98">
         <v>0.000327</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.01525552030172415</v>
+        <v>0.01525109466954023</v>
       </c>
       <c r="AZ99">
-        <v>0.02158836603994024</v>
+        <v>0.02157792352070183</v>
       </c>
       <c r="BA99">
         <v>6.88E-06</v>
@@ -19602,10 +19602,10 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.3541443620689656</v>
+        <v>0.3540410603448276</v>
       </c>
       <c r="BH99">
-        <v>0.3277562031896295</v>
+        <v>0.3276493768922262</v>
       </c>
       <c r="BI99">
         <v>0.000329</v>
@@ -19679,10 +19679,10 @@
         <v>696</v>
       </c>
       <c r="S100">
-        <v>5.281954022988508</v>
+        <v>5.281982758620692</v>
       </c>
       <c r="T100">
-        <v>0.569554846404566</v>
+        <v>0.5695512101622392</v>
       </c>
       <c r="U100">
         <v>4.4</v>
@@ -19775,13 +19775,13 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.01533554068965516</v>
+        <v>0.0153321495689655</v>
       </c>
       <c r="AZ100">
-        <v>0.02172082555888062</v>
+        <v>0.02171830445828011</v>
       </c>
       <c r="BA100">
-        <v>6.94E-06</v>
+        <v>6.93E-06</v>
       </c>
       <c r="BB100">
         <v>0.0022825</v>
@@ -19799,10 +19799,10 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.35589029454023</v>
+        <v>0.355784971264368</v>
       </c>
       <c r="BH100">
-        <v>0.329465528672428</v>
+        <v>0.3293605313647948</v>
       </c>
       <c r="BI100">
         <v>0.000331</v>
@@ -19814,7 +19814,7 @@
         <v>0.1745</v>
       </c>
       <c r="BL100">
-        <v>0.697</v>
+        <v>0.6962499999999999</v>
       </c>
       <c r="BM100">
         <v>1.3</v>
@@ -19876,10 +19876,10 @@
         <v>696</v>
       </c>
       <c r="S101">
-        <v>5.281853448275865</v>
+        <v>5.281867816091957</v>
       </c>
       <c r="T101">
-        <v>0.569565919595854</v>
+        <v>0.5695533676639802</v>
       </c>
       <c r="U101">
         <v>4.4</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>32.71158045977014</v>
+        <v>32.71160919540232</v>
       </c>
       <c r="AR101">
-        <v>18.60678344089967</v>
+        <v>18.60674128620205</v>
       </c>
       <c r="AS101">
         <v>1.46</v>
@@ -19972,13 +19972,13 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.0154214293103448</v>
+        <v>0.01541716343390801</v>
       </c>
       <c r="AZ101">
-        <v>0.02187823933954925</v>
+        <v>0.02187492520360331</v>
       </c>
       <c r="BA101">
-        <v>7E-06</v>
+        <v>7.01E-06</v>
       </c>
       <c r="BB101">
         <v>0.00229</v>
@@ -19996,10 +19996,10 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.3576917456896555</v>
+        <v>0.3575795474137932</v>
       </c>
       <c r="BH101">
-        <v>0.3314062306863254</v>
+        <v>0.3312824958145673</v>
       </c>
       <c r="BI101">
         <v>0.000334</v>
@@ -20011,7 +20011,7 @@
         <v>0.1745</v>
       </c>
       <c r="BL101">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="BM101">
         <v>1.32</v>
@@ -20073,10 +20073,10 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>5.281307471264371</v>
+        <v>5.281336206896555</v>
       </c>
       <c r="T102">
-        <v>0.5696672134697359</v>
+        <v>0.5696820485521464</v>
       </c>
       <c r="U102">
         <v>4.4</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>124.5626436781609</v>
+        <v>124.5640804597701</v>
       </c>
       <c r="AJ102">
-        <v>36.02850527603628</v>
+        <v>36.02938133580699</v>
       </c>
       <c r="AK102">
         <v>77.40000000000001</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>32.70977011494256</v>
+        <v>32.71007183908048</v>
       </c>
       <c r="AR102">
-        <v>18.60564523920685</v>
+        <v>18.60597999701999</v>
       </c>
       <c r="AS102">
         <v>1.46</v>
@@ -20169,13 +20169,13 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.0155077526005747</v>
+        <v>0.01550391609195401</v>
       </c>
       <c r="AZ102">
-        <v>0.02203737791644254</v>
+        <v>0.02203466307254146</v>
       </c>
       <c r="BA102">
-        <v>7.1E-06</v>
+        <v>7.09E-06</v>
       </c>
       <c r="BB102">
         <v>0.0023</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.3595938850574713</v>
+        <v>0.3594859784482756</v>
       </c>
       <c r="BH102">
-        <v>0.3336037029749858</v>
+        <v>0.333483253246611</v>
       </c>
       <c r="BI102">
         <v>0.000337</v>
@@ -20270,10 +20270,10 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>5.280747126436779</v>
+        <v>5.280790229885055</v>
       </c>
       <c r="T103">
-        <v>0.5697150764523039</v>
+        <v>0.5697052947267202</v>
       </c>
       <c r="U103">
         <v>4.4</v>
@@ -20318,10 +20318,10 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>124.541091954023</v>
+        <v>124.5425287356322</v>
       </c>
       <c r="AJ103">
-        <v>36.00021032652619</v>
+        <v>36.00080816737603</v>
       </c>
       <c r="AK103">
         <v>77.40000000000001</v>
@@ -20366,13 +20366,13 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.01559102244252874</v>
+        <v>0.01558760277298851</v>
       </c>
       <c r="AZ103">
-        <v>0.02217158163298878</v>
+        <v>0.0221695691564606</v>
       </c>
       <c r="BA103">
-        <v>7.06E-06</v>
+        <v>7.05E-06</v>
       </c>
       <c r="BB103">
         <v>0.0023075</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.361478165229885</v>
+        <v>0.3613557543103446</v>
       </c>
       <c r="BH103">
-        <v>0.3356283768330126</v>
+        <v>0.3354731702794721</v>
       </c>
       <c r="BI103">
         <v>0.000336</v>
@@ -20467,10 +20467,10 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>5.279755747126432</v>
+        <v>5.279784482758616</v>
       </c>
       <c r="T104">
-        <v>0.5700206464479994</v>
+        <v>0.5700105611446359</v>
       </c>
       <c r="U104">
         <v>4.4</v>
@@ -20563,10 +20563,10 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.01567084436781609</v>
+        <v>0.01566667735632184</v>
       </c>
       <c r="AZ104">
-        <v>0.02230983089752642</v>
+        <v>0.02230643261762984</v>
       </c>
       <c r="BA104">
         <v>7.16E-06</v>
@@ -20587,10 +20587,10 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.3632483663793101</v>
+        <v>0.3631449109195403</v>
       </c>
       <c r="BH104">
-        <v>0.3373746825698375</v>
+        <v>0.3372656990463938</v>
       </c>
       <c r="BI104">
         <v>0.00034</v>
@@ -20664,10 +20664,10 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>5.279152298850569</v>
+        <v>5.279181034482753</v>
       </c>
       <c r="T105">
-        <v>0.570156358532082</v>
+        <v>0.5701495868208811</v>
       </c>
       <c r="U105">
         <v>4.4</v>
@@ -20760,10 +20760,10 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01574932893678161</v>
+        <v>0.01574501834770115</v>
       </c>
       <c r="AZ105">
-        <v>0.02245956944872032</v>
+        <v>0.02245009643992731</v>
       </c>
       <c r="BA105">
         <v>7.16E-06</v>
@@ -20784,10 +20784,10 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.3649553864942531</v>
+        <v>0.3648518017241381</v>
       </c>
       <c r="BH105">
-        <v>0.3390066518318996</v>
+        <v>0.3388946127749113</v>
       </c>
       <c r="BI105">
         <v>0.00034</v>
@@ -20799,7 +20799,7 @@
         <v>0.175</v>
       </c>
       <c r="BL105">
-        <v>0.715</v>
+        <v>0.7142499999999999</v>
       </c>
       <c r="BM105">
         <v>1.37</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>32.70603448275865</v>
+        <v>32.70617816091957</v>
       </c>
       <c r="AR106">
-        <v>18.60333050769849</v>
+        <v>18.60360696185646</v>
       </c>
       <c r="AS106">
         <v>1.46</v>
@@ -20957,10 +20957,10 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.01582266074712645</v>
+        <v>0.0158180203448276</v>
       </c>
       <c r="AZ106">
-        <v>0.02258776036253534</v>
+        <v>0.0225785617168634</v>
       </c>
       <c r="BA106">
         <v>7.26E-06</v>
@@ -20972,7 +20972,7 @@
         <v>0.0115</v>
       </c>
       <c r="BD106">
-        <v>0.0184</v>
+        <v>0.018375</v>
       </c>
       <c r="BE106">
         <v>0.146</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.3665942543103453</v>
+        <v>0.3664821839080466</v>
       </c>
       <c r="BH106">
-        <v>0.3405229854411738</v>
+        <v>0.3404042521138579</v>
       </c>
       <c r="BI106">
         <v>0.000344</v>
@@ -21058,10 +21058,10 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>5.278606321839075</v>
+        <v>5.278635057471259</v>
       </c>
       <c r="T107">
-        <v>0.5702027256964246</v>
+        <v>0.5702128888123859</v>
       </c>
       <c r="U107">
         <v>4.4</v>
@@ -21106,10 +21106,10 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>124.5209770114942</v>
+        <v>124.5224137931034</v>
       </c>
       <c r="AJ107">
-        <v>35.97423925904613</v>
+        <v>35.97851777802066</v>
       </c>
       <c r="AK107">
         <v>77.40000000000001</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>32.70385057471266</v>
+        <v>32.70399425287358</v>
       </c>
       <c r="AR107">
-        <v>18.60253160927411</v>
+        <v>18.60272069124604</v>
       </c>
       <c r="AS107">
         <v>1.46</v>
@@ -21154,10 +21154,10 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01590034415229885</v>
+        <v>0.01589695206896551</v>
       </c>
       <c r="AZ107">
-        <v>0.02272576426090908</v>
+        <v>0.02272402732578549</v>
       </c>
       <c r="BA107">
         <v>7.3E-06</v>
@@ -21178,10 +21178,10 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.3682756479885057</v>
+        <v>0.3681519468390804</v>
       </c>
       <c r="BH107">
-        <v>0.3422739505595924</v>
+        <v>0.3421287950943004</v>
       </c>
       <c r="BI107">
         <v>0.000345</v>
@@ -21303,10 +21303,10 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>124.5007183908046</v>
+        <v>124.5021551724138</v>
       </c>
       <c r="AJ108">
-        <v>35.93764923553982</v>
+        <v>35.94029154722629</v>
       </c>
       <c r="AK108">
         <v>77.40000000000001</v>
@@ -21351,13 +21351,13 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01598427076149424</v>
+        <v>0.01597743165229884</v>
       </c>
       <c r="AZ108">
-        <v>0.022878912054911</v>
+        <v>0.0228598526226753</v>
       </c>
       <c r="BA108">
-        <v>7.22E-06</v>
+        <v>7.23E-06</v>
       </c>
       <c r="BB108">
         <v>0.002335</v>
@@ -21375,13 +21375,13 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.3701851767241379</v>
+        <v>0.3700759770114943</v>
       </c>
       <c r="BH108">
-        <v>0.3444597986130583</v>
+        <v>0.3443471443651969</v>
       </c>
       <c r="BI108">
-        <v>0.000343</v>
+        <v>0.000344</v>
       </c>
       <c r="BJ108">
         <v>0.057375</v>
@@ -21390,7 +21390,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL108">
-        <v>0.725</v>
+        <v>0.7242499999999999</v>
       </c>
       <c r="BM108">
         <v>1.41</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>32.70034482758622</v>
+        <v>32.70048850574715</v>
       </c>
       <c r="AR109">
-        <v>18.59956063986541</v>
+        <v>18.59972502442013</v>
       </c>
       <c r="AS109">
         <v>1.46</v>
@@ -21548,13 +21548,13 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01606484403735632</v>
+        <v>0.01605944221264368</v>
       </c>
       <c r="AZ109">
-        <v>0.02300292018432228</v>
+        <v>0.02299241757268044</v>
       </c>
       <c r="BA109">
-        <v>7.29E-06</v>
+        <v>7.3E-06</v>
       </c>
       <c r="BB109">
         <v>0.0023425</v>
@@ -21572,10 +21572,10 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.3720835201149423</v>
+        <v>0.3719899913793101</v>
       </c>
       <c r="BH109">
-        <v>0.3466308356919094</v>
+        <v>0.3465360909451458</v>
       </c>
       <c r="BI109">
         <v>0.000346</v>
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>39.40272988505745</v>
+        <v>39.40287356321837</v>
       </c>
       <c r="L110">
-        <v>2.502575597926229</v>
+        <v>2.502417321347057</v>
       </c>
       <c r="M110">
         <v>35.5</v>
@@ -21649,10 +21649,10 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>5.277658045977009</v>
+        <v>5.277701149425284</v>
       </c>
       <c r="T110">
-        <v>0.570398929709993</v>
+        <v>0.5704254651391826</v>
       </c>
       <c r="U110">
         <v>4.4</v>
@@ -21673,10 +21673,10 @@
         <v>696</v>
       </c>
       <c r="AA110">
-        <v>39.38390804597699</v>
+        <v>39.38405172413791</v>
       </c>
       <c r="AB110">
-        <v>2.517341229049957</v>
+        <v>2.517116362612639</v>
       </c>
       <c r="AC110">
         <v>35.4</v>
@@ -21745,13 +21745,13 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01614304853448276</v>
+        <v>0.01613925627873563</v>
       </c>
       <c r="AZ110">
-        <v>0.02313263988212717</v>
+        <v>0.02312939853086513</v>
       </c>
       <c r="BA110">
-        <v>7.38E-06</v>
+        <v>7.4E-06</v>
       </c>
       <c r="BB110">
         <v>0.00235</v>
@@ -21769,13 +21769,13 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.3738395919540233</v>
+        <v>0.3737417485632189</v>
       </c>
       <c r="BH110">
-        <v>0.3483188780559622</v>
+        <v>0.3482199105386393</v>
       </c>
       <c r="BI110">
-        <v>0.000349</v>
+        <v>0.00035</v>
       </c>
       <c r="BJ110">
         <v>0.0577</v>
@@ -21784,7 +21784,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL110">
-        <v>0.732</v>
+        <v>0.73125</v>
       </c>
       <c r="BM110">
         <v>1.43</v>
@@ -21846,10 +21846,10 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>5.277298850574712</v>
+        <v>5.277327586206896</v>
       </c>
       <c r="T111">
-        <v>0.5702483642157714</v>
+        <v>0.5702611156434256</v>
       </c>
       <c r="U111">
         <v>4.4</v>
@@ -21894,10 +21894,10 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>124.4984195402299</v>
+        <v>124.4985632183908</v>
       </c>
       <c r="AJ111">
-        <v>35.93985640029869</v>
+        <v>35.93973169737711</v>
       </c>
       <c r="AK111">
         <v>77.40000000000001</v>
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01621946816091954</v>
+        <v>0.01621652291666667</v>
       </c>
       <c r="AZ111">
-        <v>0.02328084143077592</v>
+        <v>0.02327861689126333</v>
       </c>
       <c r="BA111">
         <v>7.39E-06</v>
@@ -21966,10 +21966,10 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.3755811465517239</v>
+        <v>0.3754933548850571</v>
       </c>
       <c r="BH111">
-        <v>0.350019393037629</v>
+        <v>0.3499265656702853</v>
       </c>
       <c r="BI111">
         <v>0.00035</v>
@@ -21981,7 +21981,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL111">
-        <v>0.73525</v>
+        <v>0.735</v>
       </c>
       <c r="BM111">
         <v>1.43</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>5.276824712643678</v>
+        <v>5.276839080459769</v>
       </c>
       <c r="T112">
-        <v>0.5702430159920306</v>
+        <v>0.5702515486554172</v>
       </c>
       <c r="U112">
         <v>4.4</v>
@@ -22067,10 +22067,10 @@
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>39.38290229885057</v>
+        <v>39.38304597701148</v>
       </c>
       <c r="AB112">
-        <v>2.518828818102012</v>
+        <v>2.518621280525838</v>
       </c>
       <c r="AC112">
         <v>35.4</v>
@@ -22139,13 +22139,13 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.01629174350574713</v>
+        <v>0.01628695771551725</v>
       </c>
       <c r="AZ112">
-        <v>0.02340507883358681</v>
+        <v>0.02339588588510344</v>
       </c>
       <c r="BA112">
-        <v>7.41E-06</v>
+        <v>7.4E-06</v>
       </c>
       <c r="BB112">
         <v>0.0023575</v>
@@ -22163,13 +22163,13 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3771426465517241</v>
+        <v>0.377037610632184</v>
       </c>
       <c r="BH112">
-        <v>0.3513954448160617</v>
+        <v>0.3512844086350135</v>
       </c>
       <c r="BI112">
-        <v>0.000351</v>
+        <v>0.00035</v>
       </c>
       <c r="BJ112">
         <v>0.05795</v>
@@ -22178,7 +22178,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL112">
-        <v>0.73825</v>
+        <v>0.738</v>
       </c>
       <c r="BM112">
         <v>1.43</v>

--- a/June2016/ISWRPQAQ_stats.xlsx
+++ b/June2016/ISWRPQAQ_stats.xlsx
@@ -767,10 +767,10 @@
         <v>695</v>
       </c>
       <c r="S4">
-        <v>6.661654676258993</v>
+        <v>6.661640287769784</v>
       </c>
       <c r="T4">
-        <v>0.9067397317303447</v>
+        <v>0.9067353878085048</v>
       </c>
       <c r="U4">
         <v>5.14</v>
@@ -815,10 +815,10 @@
         <v>695</v>
       </c>
       <c r="AI4">
-        <v>144.7074820143885</v>
+        <v>144.7060431654676</v>
       </c>
       <c r="AJ4">
-        <v>53.6085620647274</v>
+        <v>53.60856762221258</v>
       </c>
       <c r="AK4">
         <v>80.8</v>
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>-0.03754868920863316</v>
+        <v>-0.03754854532374107</v>
       </c>
       <c r="AZ4">
-        <v>0.02956778375198473</v>
+        <v>0.02956755567465717</v>
       </c>
       <c r="BA4">
         <v>-0.272</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>-0.3541148910919538</v>
+        <v>-0.3541148765804595</v>
       </c>
       <c r="BH5">
-        <v>0.3123244430981122</v>
+        <v>0.3123244594705944</v>
       </c>
       <c r="BI5">
         <v>-2.17</v>
@@ -1161,10 +1161,10 @@
         <v>696</v>
       </c>
       <c r="S6">
-        <v>5.582916666666668</v>
+        <v>5.58293103448276</v>
       </c>
       <c r="T6">
-        <v>0.5755715072447893</v>
+        <v>0.5755950573598231</v>
       </c>
       <c r="U6">
         <v>4.66</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>-0.007260105603448269</v>
+        <v>-0.00726033649425287</v>
       </c>
       <c r="AZ6">
-        <v>0.01544587482049682</v>
+        <v>0.01544581568378963</v>
       </c>
       <c r="BA6">
         <v>-0.135</v>
@@ -1272,7 +1272,7 @@
         <v>-0.004275</v>
       </c>
       <c r="BD6">
-        <v>-0.0009565</v>
+        <v>-0.00095725</v>
       </c>
       <c r="BE6">
         <v>0.0165</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.1410451853448275</v>
+        <v>-0.1410581695402298</v>
       </c>
       <c r="BH6">
-        <v>0.1599849253226401</v>
+        <v>0.1599868965938085</v>
       </c>
       <c r="BI6">
         <v>-0.794</v>
@@ -1358,10 +1358,10 @@
         <v>696</v>
       </c>
       <c r="S7">
-        <v>5.44125</v>
+        <v>5.441264367816093</v>
       </c>
       <c r="T7">
-        <v>0.5719101057550463</v>
+        <v>0.5719122126078089</v>
       </c>
       <c r="U7">
         <v>4.54</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>-0.005719376568965517</v>
+        <v>-0.005719461066091954</v>
       </c>
       <c r="AZ7">
-        <v>0.01504623449537892</v>
+        <v>0.01504625031888562</v>
       </c>
       <c r="BA7">
         <v>-0.129</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>-0.09213560632183905</v>
+        <v>-0.09213814037356319</v>
       </c>
       <c r="BH7">
-        <v>0.1592349487074541</v>
+        <v>0.1592378183394884</v>
       </c>
       <c r="BI7">
         <v>-0.653</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>-0.004283999137931035</v>
+        <v>-0.004284110057471265</v>
       </c>
       <c r="AZ8">
-        <v>0.01439016322224584</v>
+        <v>0.01439016130101674</v>
       </c>
       <c r="BA8">
         <v>-0.122</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.05169205890804597</v>
+        <v>-0.05169555028735633</v>
       </c>
       <c r="BH8">
-        <v>0.1565141349789194</v>
+        <v>0.1565158819941757</v>
       </c>
       <c r="BI8">
         <v>-0.458</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>-0.003371286494252872</v>
+        <v>-0.003371302442528735</v>
       </c>
       <c r="AZ9">
-        <v>0.01377986686551745</v>
+        <v>0.01377986409794457</v>
       </c>
       <c r="BA9">
         <v>-0.116</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>-0.02921719827586217</v>
+        <v>-0.02921735632183919</v>
       </c>
       <c r="BH9">
-        <v>0.1592686175812416</v>
+        <v>0.1592687755663708</v>
       </c>
       <c r="BI9">
         <v>-0.386</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.0027175816091954</v>
+        <v>-0.002717532758620688</v>
       </c>
       <c r="AZ10">
-        <v>0.01325782498988734</v>
+        <v>0.01325783196444927</v>
       </c>
       <c r="BA10">
         <v>-0.11</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>-0.0146888922413793</v>
+        <v>-0.01468818821839079</v>
       </c>
       <c r="BH10">
-        <v>0.1621794310733076</v>
+        <v>0.1621796336522039</v>
       </c>
       <c r="BI10">
         <v>-0.35</v>
@@ -2122,10 +2122,10 @@
         <v>696</v>
       </c>
       <c r="K11">
-        <v>39.32025862068969</v>
+        <v>39.31982758620692</v>
       </c>
       <c r="L11">
-        <v>2.482341767856223</v>
+        <v>2.482446686832271</v>
       </c>
       <c r="M11">
         <v>35.3</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>5.199870689655169</v>
+        <v>5.199137931034485</v>
       </c>
       <c r="T11">
-        <v>0.5849511919159071</v>
+        <v>0.5846938358381076</v>
       </c>
       <c r="U11">
         <v>4.13</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>123.535775862069</v>
+        <v>123.5353448275863</v>
       </c>
       <c r="AJ11">
-        <v>35.28580653331489</v>
+        <v>35.28620229901028</v>
       </c>
       <c r="AK11">
         <v>70.90000000000001</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>32.50864942528735</v>
+        <v>32.50803160919541</v>
       </c>
       <c r="AR11">
-        <v>18.50714121281742</v>
+        <v>18.50671538251343</v>
       </c>
       <c r="AS11">
         <v>1.44</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.00135229841954023</v>
+        <v>0.00135212643678161</v>
       </c>
       <c r="AZ11">
-        <v>0.01735161477887539</v>
+        <v>0.01735125014110966</v>
       </c>
       <c r="BA11">
         <v>-0.139</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.1059663649425288</v>
+        <v>0.1059753879310345</v>
       </c>
       <c r="BH11">
-        <v>0.4294075258271368</v>
+        <v>0.4294070962200858</v>
       </c>
       <c r="BI11">
         <v>-1.57</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.0006488628704022993</v>
+        <v>0.00064892030862069</v>
       </c>
       <c r="AZ12">
-        <v>0.01128790307270229</v>
+        <v>0.01128792884059104</v>
       </c>
       <c r="BA12">
         <v>-0.0886</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.07329928656465527</v>
+        <v>0.07329772389080469</v>
       </c>
       <c r="BH12">
-        <v>0.1919660769263485</v>
+        <v>0.1919677945775188</v>
       </c>
       <c r="BI12">
         <v>-0.198</v>
@@ -2475,7 +2475,7 @@
         <v>-0.07137499999999999</v>
       </c>
       <c r="BK12">
-        <v>0.000241</v>
+        <v>0.0002415</v>
       </c>
       <c r="BL12">
         <v>0.20825</v>
@@ -2612,10 +2612,10 @@
         <v>696</v>
       </c>
       <c r="AQ13">
-        <v>33.09054597701152</v>
+        <v>33.09040229885059</v>
       </c>
       <c r="AR13">
-        <v>18.97731018505397</v>
+        <v>18.97702844153997</v>
       </c>
       <c r="AS13">
         <v>1.48</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.0006619435919540232</v>
+        <v>0.0006619438936781611</v>
       </c>
       <c r="AZ13">
-        <v>0.01051630010413646</v>
+        <v>0.01051630008424548</v>
       </c>
       <c r="BA13">
         <v>-0.08260000000000001</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.062602716954023</v>
+        <v>0.06260271839080461</v>
       </c>
       <c r="BH13">
-        <v>0.1734639034585526</v>
+        <v>0.1734639029323782</v>
       </c>
       <c r="BI13">
         <v>-0.198</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.001607976810344829</v>
+        <v>0.001607991178160921</v>
       </c>
       <c r="AZ15">
-        <v>0.00967166218551071</v>
+        <v>0.00967167287759684</v>
       </c>
       <c r="BA15">
         <v>-0.07049999999999999</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.1047745675287356</v>
+        <v>0.1047760043103448</v>
       </c>
       <c r="BH18">
-        <v>0.1790076640748357</v>
+        <v>0.1790086826747949</v>
       </c>
       <c r="BI18">
         <v>-0.161</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.003267262787356319</v>
+        <v>0.003267277155172411</v>
       </c>
       <c r="AZ19">
-        <v>0.008765010080379828</v>
+        <v>0.008765019729154644</v>
       </c>
       <c r="BA19">
         <v>-0.0491</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.1122903204022989</v>
+        <v>0.1122903189655172</v>
       </c>
       <c r="BH19">
-        <v>0.1811157861691079</v>
+        <v>0.1811157870650317</v>
       </c>
       <c r="BI19">
         <v>-0.154</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.003616643678160919</v>
+        <v>0.003616658045977011</v>
       </c>
       <c r="AZ20">
-        <v>0.008642936096405544</v>
+        <v>0.008642944350905893</v>
       </c>
       <c r="BA20">
         <v>-0.0442</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.1186882130747128</v>
+        <v>0.1186925219827587</v>
       </c>
       <c r="BH20">
-        <v>0.1806597369155837</v>
+        <v>0.1806632376239836</v>
       </c>
       <c r="BI20">
         <v>-0.148</v>
@@ -4054,7 +4054,7 @@
         <v>0.0176</v>
       </c>
       <c r="BL20">
-        <v>0.261</v>
+        <v>0.26125</v>
       </c>
       <c r="BM20">
         <v>0.9320000000000001</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.003924181293103447</v>
+        <v>0.003924210028735631</v>
       </c>
       <c r="AZ21">
-        <v>0.008510696262991899</v>
+        <v>0.008510713070616502</v>
       </c>
       <c r="BA21">
         <v>-0.0395</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.1239227804597702</v>
+        <v>0.1239256540229886</v>
       </c>
       <c r="BH21">
-        <v>0.1773176696336422</v>
+        <v>0.1773212087617391</v>
       </c>
       <c r="BI21">
         <v>-0.142</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.004205569099137932</v>
+        <v>0.004205583321839081</v>
       </c>
       <c r="AZ22">
-        <v>0.008415268764627509</v>
+        <v>0.008415273266247868</v>
       </c>
       <c r="BA22">
         <v>-0.035</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.1285690249425287</v>
+        <v>0.1285733352873563</v>
       </c>
       <c r="BH22">
-        <v>0.1745887303101996</v>
+        <v>0.1745949177035293</v>
       </c>
       <c r="BI22">
         <v>-0.136</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.004504327426724134</v>
+        <v>0.004504341793103445</v>
       </c>
       <c r="AZ23">
-        <v>0.008404578989063426</v>
+        <v>0.008404581713024857</v>
       </c>
       <c r="BA23">
         <v>-0.0306</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.1342097295416667</v>
+        <v>0.1342097121551724</v>
       </c>
       <c r="BH23">
-        <v>0.1763046387472345</v>
+        <v>0.1763046522655338</v>
       </c>
       <c r="BI23">
         <v>-0.13</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.004819814252873562</v>
+        <v>0.004819828764367814</v>
       </c>
       <c r="AZ24">
-        <v>0.008466425957252938</v>
+        <v>0.008466434244356596</v>
       </c>
       <c r="BA24">
         <v>-0.0263</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.1406128048850573</v>
+        <v>0.1406142400862068</v>
       </c>
       <c r="BH24">
-        <v>0.1804987014553281</v>
+        <v>0.1804997938818076</v>
       </c>
       <c r="BI24">
         <v>-0.124</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.005123606739942531</v>
+        <v>0.005123635459770117</v>
       </c>
       <c r="AZ25">
-        <v>0.008566435675916369</v>
+        <v>0.008566450083375348</v>
       </c>
       <c r="BA25">
         <v>-0.0222</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.1467123534482759</v>
+        <v>0.1467152140804598</v>
       </c>
       <c r="BH25">
-        <v>0.1844391233337098</v>
+        <v>0.1844428983964456</v>
       </c>
       <c r="BI25">
         <v>-0.119</v>
@@ -5197,16 +5197,16 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.005418806882183907</v>
+        <v>0.005418864482758619</v>
       </c>
       <c r="AZ26">
-        <v>0.008690243699255284</v>
+        <v>0.008690254834451201</v>
       </c>
       <c r="BA26">
         <v>-0.0181</v>
       </c>
       <c r="BB26">
-        <v>-8.9575E-06</v>
+        <v>-8.965E-06</v>
       </c>
       <c r="BC26">
         <v>0.00353</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.1527317051724137</v>
+        <v>0.1527374551724137</v>
       </c>
       <c r="BH26">
-        <v>0.1886595092412416</v>
+        <v>0.1886674237243743</v>
       </c>
       <c r="BI26">
         <v>-0.114</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.005701576068103439</v>
+        <v>0.005701662273994243</v>
       </c>
       <c r="AZ27">
-        <v>0.008827328450426306</v>
+        <v>0.008827338492298886</v>
       </c>
       <c r="BA27">
         <v>-0.0142</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.158520521795977</v>
+        <v>0.15852914375</v>
       </c>
       <c r="BH27">
-        <v>0.1925570911698998</v>
+        <v>0.1925691863246896</v>
       </c>
       <c r="BI27">
         <v>-0.109</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.005962660689655177</v>
+        <v>0.00596273251436782</v>
       </c>
       <c r="AZ28">
-        <v>0.008962790927961874</v>
+        <v>0.008962808566794265</v>
       </c>
       <c r="BA28">
         <v>-0.0104</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.1637442153735631</v>
+        <v>0.1637470873563218</v>
       </c>
       <c r="BH28">
-        <v>0.1953696720060648</v>
+        <v>0.1953730206399584</v>
       </c>
       <c r="BI28">
         <v>-0.104</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.006209976709770117</v>
+        <v>0.006210091652298853</v>
       </c>
       <c r="AZ29">
-        <v>0.009105772385457732</v>
+        <v>0.009105790777955113</v>
       </c>
       <c r="BA29">
         <v>-0.00665</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.168607923994253</v>
+        <v>0.1686107991379312</v>
       </c>
       <c r="BH29">
-        <v>0.1977271119452741</v>
+        <v>0.1977291610889283</v>
       </c>
       <c r="BI29">
         <v>-0.0994</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.006445360660919541</v>
+        <v>0.006445389396551725</v>
       </c>
       <c r="AZ30">
-        <v>0.009254780867394192</v>
+        <v>0.009254791328740592</v>
       </c>
       <c r="BA30">
         <v>-0.00539</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.1732325665229885</v>
+        <v>0.1732383122126436</v>
       </c>
       <c r="BH30">
-        <v>0.1998997284111497</v>
+        <v>0.1999062656226187</v>
       </c>
       <c r="BI30">
         <v>-0.0951</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.006671432844827592</v>
+        <v>0.006671777629310351</v>
       </c>
       <c r="AZ31">
-        <v>0.009411303153248311</v>
+        <v>0.009411444970792104</v>
       </c>
       <c r="BA31">
         <v>-0.00511</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.1776565313649425</v>
+        <v>0.1776650281752874</v>
       </c>
       <c r="BH31">
-        <v>0.201936298339173</v>
+        <v>0.2019456910007026</v>
       </c>
       <c r="BI31">
         <v>-0.09130000000000001</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.006889408691091956</v>
+        <v>0.006889581188218394</v>
       </c>
       <c r="AZ32">
-        <v>0.009574099477435304</v>
+        <v>0.009574151183594811</v>
       </c>
       <c r="BA32">
         <v>-0.00483</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.1819099908045977</v>
+        <v>0.1819158813649425</v>
       </c>
       <c r="BH32">
-        <v>0.2039740510282482</v>
+        <v>0.2039822420826082</v>
       </c>
       <c r="BI32">
         <v>-0.08749999999999999</v>
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>5.324008620689651</v>
+        <v>5.323994252873559</v>
       </c>
       <c r="T33">
-        <v>0.5677479377231471</v>
+        <v>0.5677316926040564</v>
       </c>
       <c r="U33">
         <v>4.45</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.007098980427298848</v>
+        <v>0.007099539133189652</v>
       </c>
       <c r="AZ33">
-        <v>0.009743898260630424</v>
+        <v>0.00974415690276606</v>
       </c>
       <c r="BA33">
         <v>-0.00457</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.186057379920977</v>
+        <v>0.1860674362198276</v>
       </c>
       <c r="BH33">
-        <v>0.2060352009658274</v>
+        <v>0.2060473324680556</v>
       </c>
       <c r="BI33">
         <v>-0.0839</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.007303433894971261</v>
+        <v>0.00730350565043103</v>
       </c>
       <c r="AZ34">
-        <v>0.009918625909309932</v>
+        <v>0.009918626286473274</v>
       </c>
       <c r="BA34">
         <v>-0.00431</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.190087726637931</v>
+        <v>0.1900977848563218</v>
       </c>
       <c r="BH34">
-        <v>0.2081200889893047</v>
+        <v>0.2081347711384219</v>
       </c>
       <c r="BI34">
         <v>-0.0804</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.007501886777298856</v>
+        <v>0.007502059173850581</v>
       </c>
       <c r="AZ35">
-        <v>0.01009951222836982</v>
+        <v>0.01009978222188071</v>
       </c>
       <c r="BA35">
         <v>-0.00406</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.1940024664224138</v>
+        <v>0.1940153970833332</v>
       </c>
       <c r="BH35">
-        <v>0.2101917637417601</v>
+        <v>0.2102072643976564</v>
       </c>
       <c r="BI35">
         <v>-0.077</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.007692425389655173</v>
+        <v>0.007692698470114939</v>
       </c>
       <c r="AZ36">
-        <v>0.01027943710027159</v>
+        <v>0.01028034194357435</v>
       </c>
       <c r="BA36">
         <v>-0.00381</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.1977570444382183</v>
+        <v>0.1977755779310343</v>
       </c>
       <c r="BH36">
-        <v>0.21205104182319</v>
+        <v>0.2120750955193876</v>
       </c>
       <c r="BI36">
         <v>-0.0737</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.007878431108764372</v>
+        <v>0.007878804552729889</v>
       </c>
       <c r="AZ37">
-        <v>0.01045997624327109</v>
+        <v>0.01046005130935351</v>
       </c>
       <c r="BA37">
         <v>-0.00358</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.2014453032614941</v>
+        <v>0.2014510492385056</v>
       </c>
       <c r="BH37">
-        <v>0.2138993828385875</v>
+        <v>0.2139063070367837</v>
       </c>
       <c r="BI37">
         <v>-0.0706</v>
@@ -7537,10 +7537,10 @@
         <v>696</v>
       </c>
       <c r="AQ38">
-        <v>32.86629310344828</v>
+        <v>32.86600574712644</v>
       </c>
       <c r="AR38">
-        <v>18.7228704924367</v>
+        <v>18.72274393804902</v>
       </c>
       <c r="AS38">
         <v>1.46</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.008063808356321842</v>
+        <v>0.008064209175287357</v>
       </c>
       <c r="AZ38">
-        <v>0.01065022763345547</v>
+        <v>0.0106505694213331</v>
       </c>
       <c r="BA38">
         <v>-0.00335</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.2052147576580459</v>
+        <v>0.2052305616091953</v>
       </c>
       <c r="BH38">
-        <v>0.2159556894553871</v>
+        <v>0.2159777161861509</v>
       </c>
       <c r="BI38">
         <v>-0.0675</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.008249836581422419</v>
+        <v>0.008250583722356326</v>
       </c>
       <c r="AZ39">
-        <v>0.01084826369242837</v>
+        <v>0.01084880904504972</v>
       </c>
       <c r="BA39">
         <v>-0.00313</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.2090989228548851</v>
+        <v>0.2091132865675287</v>
       </c>
       <c r="BH39">
-        <v>0.2182845799599886</v>
+        <v>0.2182982672682087</v>
       </c>
       <c r="BI39">
         <v>-0.0645</v>
@@ -7859,10 +7859,10 @@
         <v>696</v>
       </c>
       <c r="S40">
-        <v>5.317054597701146</v>
+        <v>5.317040229885055</v>
       </c>
       <c r="T40">
-        <v>0.567919669470636</v>
+        <v>0.5679214948199334</v>
       </c>
       <c r="U40">
         <v>4.44</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.008435544688663803</v>
+        <v>0.008435831637931039</v>
       </c>
       <c r="AZ40">
-        <v>0.01105325650620035</v>
+        <v>0.01105354276151634</v>
       </c>
       <c r="BA40">
         <v>-0.00291</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.2129204233750001</v>
+        <v>0.2129435538850575</v>
       </c>
       <c r="BH40">
-        <v>0.2205177622322804</v>
+        <v>0.2205435662301562</v>
       </c>
       <c r="BI40">
         <v>-0.0616</v>
@@ -8056,10 +8056,10 @@
         <v>696</v>
       </c>
       <c r="S41">
-        <v>5.316120689655173</v>
+        <v>5.316106321839081</v>
       </c>
       <c r="T41">
-        <v>0.5677185515362101</v>
+        <v>0.5677294777465961</v>
       </c>
       <c r="U41">
         <v>4.44</v>
@@ -8128,10 +8128,10 @@
         <v>696</v>
       </c>
       <c r="AQ41">
-        <v>32.85298850574715</v>
+        <v>32.85284482758622</v>
       </c>
       <c r="AR41">
-        <v>18.7121340689857</v>
+        <v>18.71228403391246</v>
       </c>
       <c r="AS41">
         <v>1.46</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.008612068225574705</v>
+        <v>0.00861248479741379</v>
       </c>
       <c r="AZ41">
-        <v>0.01126124311286509</v>
+        <v>0.01126134348243659</v>
       </c>
       <c r="BA41">
         <v>-0.0027</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.2165096576293102</v>
+        <v>0.2165212959626436</v>
       </c>
       <c r="BH41">
-        <v>0.2223703637309697</v>
+        <v>0.2223828466640682</v>
       </c>
       <c r="BI41">
         <v>-0.0588</v>
@@ -8325,10 +8325,10 @@
         <v>696</v>
       </c>
       <c r="AQ42">
-        <v>32.84795977011495</v>
+        <v>32.84781609195404</v>
       </c>
       <c r="AR42">
-        <v>18.70962882570101</v>
+        <v>18.70951883613788</v>
       </c>
       <c r="AS42">
         <v>1.46</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.008784318630747124</v>
+        <v>0.008785223425287356</v>
       </c>
       <c r="AZ42">
-        <v>0.01147011667467141</v>
+        <v>0.01147142221830043</v>
       </c>
       <c r="BA42">
         <v>-0.00249</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.2198714945114942</v>
+        <v>0.2198829870545976</v>
       </c>
       <c r="BH42">
-        <v>0.2240268782813664</v>
+        <v>0.2240412532999728</v>
       </c>
       <c r="BI42">
         <v>-0.056</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.00895192880186782</v>
+        <v>0.008952704785201151</v>
       </c>
       <c r="AZ43">
-        <v>0.01167685798160847</v>
+        <v>0.0116791470914492</v>
       </c>
       <c r="BA43">
         <v>-0.0023</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.2232558942658046</v>
+        <v>0.2232860662614942</v>
       </c>
       <c r="BH43">
-        <v>0.2258906972680637</v>
+        <v>0.2259269497141955</v>
       </c>
       <c r="BI43">
         <v>-0.0533</v>
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>5.31352011494252</v>
+        <v>5.313505747126428</v>
       </c>
       <c r="T44">
-        <v>0.5680656002729896</v>
+        <v>0.5680724013753286</v>
       </c>
       <c r="U44">
         <v>4.44</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.009118587333566087</v>
+        <v>0.009119792837604885</v>
       </c>
       <c r="AZ44">
-        <v>0.01189375764550809</v>
+        <v>0.01189446237367034</v>
       </c>
       <c r="BA44">
         <v>-0.0021</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.2264367963603449</v>
+        <v>0.2264669654191092</v>
       </c>
       <c r="BH44">
-        <v>0.2275137876479679</v>
+        <v>0.2275514234191787</v>
       </c>
       <c r="BI44">
         <v>-0.0508</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.009287887574712638</v>
+        <v>0.009288963248563221</v>
       </c>
       <c r="AZ45">
-        <v>0.01212637994129286</v>
+        <v>0.0121281572081037</v>
       </c>
       <c r="BA45">
         <v>-0.00191</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.2296766760057469</v>
+        <v>0.2296953567528733</v>
       </c>
       <c r="BH45">
-        <v>0.2300714859159343</v>
+        <v>0.2300919739036565</v>
       </c>
       <c r="BI45">
         <v>-0.0482</v>
@@ -9089,10 +9089,10 @@
         <v>696</v>
       </c>
       <c r="AI46">
-        <v>124.9600574712644</v>
+        <v>124.9586206896552</v>
       </c>
       <c r="AJ46">
-        <v>36.46569472130598</v>
+        <v>36.46622579070265</v>
       </c>
       <c r="AK46">
         <v>77.5</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.009467707202586207</v>
+        <v>0.00946882788793104</v>
       </c>
       <c r="AZ46">
-        <v>0.01236921969254495</v>
+        <v>0.01236987993175718</v>
       </c>
       <c r="BA46">
         <v>-0.00173</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.2333919288793103</v>
+        <v>0.2334307369252872</v>
       </c>
       <c r="BH46">
-        <v>0.2339152587781587</v>
+        <v>0.2339577956751933</v>
       </c>
       <c r="BI46">
         <v>-0.0458</v>
@@ -9214,10 +9214,10 @@
         <v>696</v>
       </c>
       <c r="K47">
-        <v>39.42959770114945</v>
+        <v>39.42974137931036</v>
       </c>
       <c r="L47">
-        <v>2.475982556904515</v>
+        <v>2.476070905136541</v>
       </c>
       <c r="M47">
         <v>35.5</v>
@@ -9238,10 +9238,10 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>5.3071408045977</v>
+        <v>5.307356321839077</v>
       </c>
       <c r="T47">
-        <v>0.5682589973411837</v>
+        <v>0.5682323159926701</v>
       </c>
       <c r="U47">
         <v>4.41</v>
@@ -9286,10 +9286,10 @@
         <v>696</v>
       </c>
       <c r="AI47">
-        <v>124.9433908045977</v>
+        <v>124.9435344827586</v>
       </c>
       <c r="AJ47">
-        <v>36.45586411262435</v>
+        <v>36.45567863720996</v>
       </c>
       <c r="AK47">
         <v>77.40000000000001</v>
@@ -9310,16 +9310,16 @@
         <v>696</v>
       </c>
       <c r="AQ47">
-        <v>32.82566091954023</v>
+        <v>32.82596264367817</v>
       </c>
       <c r="AR47">
-        <v>18.69289035377846</v>
+        <v>18.69310626423005</v>
       </c>
       <c r="AS47">
         <v>1.46</v>
       </c>
       <c r="AT47">
-        <v>17.075</v>
+        <v>17.15</v>
       </c>
       <c r="AU47">
         <v>35.05</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.009627421887931035</v>
+        <v>0.009629043242816097</v>
       </c>
       <c r="AZ47">
-        <v>0.01257596329640144</v>
+        <v>0.01257716138559292</v>
       </c>
       <c r="BA47">
         <v>-0.00155</v>
@@ -9349,7 +9349,7 @@
         <v>0.00706</v>
       </c>
       <c r="BD47">
-        <v>0.012725</v>
+        <v>0.0128</v>
       </c>
       <c r="BE47">
         <v>0.0847</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.2365875244252874</v>
+        <v>0.2366307387931035</v>
       </c>
       <c r="BH47">
-        <v>0.2351785558487826</v>
+        <v>0.2352214684111099</v>
       </c>
       <c r="BI47">
         <v>-0.0434</v>
@@ -9411,19 +9411,19 @@
         <v>696</v>
       </c>
       <c r="K48">
-        <v>39.42385057471267</v>
+        <v>39.43721264367817</v>
       </c>
       <c r="L48">
-        <v>2.476335212969454</v>
+        <v>2.477108488554774</v>
       </c>
       <c r="M48">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="N48">
         <v>37.4</v>
       </c>
       <c r="O48">
-        <v>39.45</v>
+        <v>39.5</v>
       </c>
       <c r="P48">
         <v>41.425</v>
@@ -9435,25 +9435,25 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>5.300172413793107</v>
+        <v>5.314913793103447</v>
       </c>
       <c r="T48">
-        <v>0.5680910598179668</v>
+        <v>0.5680434612357071</v>
       </c>
       <c r="U48">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="V48">
-        <v>4.86</v>
+        <v>4.88</v>
       </c>
       <c r="W48">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="X48">
-        <v>5.6825</v>
+        <v>5.6875</v>
       </c>
       <c r="Y48">
-        <v>6.64</v>
+        <v>6.65</v>
       </c>
       <c r="Z48">
         <v>696</v>
@@ -9483,13 +9483,13 @@
         <v>696</v>
       </c>
       <c r="AI48">
-        <v>124.9272988505747</v>
+        <v>124.9685344827586</v>
       </c>
       <c r="AJ48">
-        <v>36.43901027096955</v>
+        <v>36.45064626056995</v>
       </c>
       <c r="AK48">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AL48">
         <v>103</v>
@@ -9507,16 +9507,16 @@
         <v>696</v>
       </c>
       <c r="AQ48">
-        <v>32.81760057471263</v>
+        <v>32.83079022988506</v>
       </c>
       <c r="AR48">
-        <v>18.68872071224711</v>
+        <v>18.69297200544154</v>
       </c>
       <c r="AS48">
         <v>1.46</v>
       </c>
       <c r="AT48">
-        <v>17.075</v>
+        <v>17.15</v>
       </c>
       <c r="AU48">
         <v>35.05</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.009757270114942528</v>
+        <v>0.009762741379310347</v>
       </c>
       <c r="AZ48">
-        <v>0.01274897785039086</v>
+        <v>0.01275665027542993</v>
       </c>
       <c r="BA48">
         <v>-0.00137</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.2387446965517242</v>
+        <v>0.2388580728448276</v>
       </c>
       <c r="BH48">
-        <v>0.2338310107653666</v>
+        <v>0.2339443400922232</v>
       </c>
       <c r="BI48">
         <v>-0.041</v>
@@ -9570,7 +9570,7 @@
         <v>0.1325</v>
       </c>
       <c r="BL48">
-        <v>0.462</v>
+        <v>0.46225</v>
       </c>
       <c r="BM48">
         <v>1.03</v>
@@ -9608,10 +9608,10 @@
         <v>696</v>
       </c>
       <c r="K49">
-        <v>39.43189655172416</v>
+        <v>39.43017241379313</v>
       </c>
       <c r="L49">
-        <v>2.477958052539702</v>
+        <v>2.478455767572513</v>
       </c>
       <c r="M49">
         <v>35.5</v>
@@ -9632,16 +9632,16 @@
         <v>696</v>
       </c>
       <c r="S49">
-        <v>5.309295977011494</v>
+        <v>5.308419540229886</v>
       </c>
       <c r="T49">
-        <v>0.5677936029763941</v>
+        <v>0.5683150173843173</v>
       </c>
       <c r="U49">
         <v>4.41</v>
       </c>
       <c r="V49">
-        <v>4.87</v>
+        <v>4.8675</v>
       </c>
       <c r="W49">
         <v>5.23</v>
@@ -9650,7 +9650,7 @@
         <v>5.69</v>
       </c>
       <c r="Y49">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="Z49">
         <v>696</v>
@@ -9680,10 +9680,10 @@
         <v>696</v>
       </c>
       <c r="AI49">
-        <v>124.9557471264368</v>
+        <v>124.9522988505747</v>
       </c>
       <c r="AJ49">
-        <v>36.44198418757314</v>
+        <v>36.43800483213278</v>
       </c>
       <c r="AK49">
         <v>77.40000000000001</v>
@@ -9704,16 +9704,16 @@
         <v>696</v>
       </c>
       <c r="AQ49">
-        <v>32.82385057471264</v>
+        <v>32.82310344827584</v>
       </c>
       <c r="AR49">
-        <v>18.69024627251552</v>
+        <v>18.68983171768345</v>
       </c>
       <c r="AS49">
         <v>1.46</v>
       </c>
       <c r="AT49">
-        <v>17.15</v>
+        <v>17.175</v>
       </c>
       <c r="AU49">
         <v>35.05</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.009906191824712642</v>
+        <v>0.00990646403735632</v>
       </c>
       <c r="AZ49">
-        <v>0.01295331156729761</v>
+        <v>0.01295200729492288</v>
       </c>
       <c r="BA49">
         <v>-0.0012</v>
@@ -9740,7 +9740,7 @@
         <v>0.001165</v>
       </c>
       <c r="BC49">
-        <v>0.007415</v>
+        <v>0.00742</v>
       </c>
       <c r="BD49">
         <v>0.013225</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.2417569469827585</v>
+        <v>0.2418042484195399</v>
       </c>
       <c r="BH49">
-        <v>0.2357070009218077</v>
+        <v>0.23577752017283</v>
       </c>
       <c r="BI49">
         <v>-0.0387</v>
@@ -9767,7 +9767,7 @@
         <v>0.134</v>
       </c>
       <c r="BL49">
-        <v>0.469</v>
+        <v>0.4692499999999999</v>
       </c>
       <c r="BM49">
         <v>1.02</v>
@@ -9805,10 +9805,10 @@
         <v>696</v>
       </c>
       <c r="K50">
-        <v>39.42327586206898</v>
+        <v>39.4350574712644</v>
       </c>
       <c r="L50">
-        <v>2.478663753212295</v>
+        <v>2.47964507720813</v>
       </c>
       <c r="M50">
         <v>35.5</v>
@@ -9820,7 +9820,7 @@
         <v>39.45</v>
       </c>
       <c r="P50">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q50">
         <v>43.3</v>
@@ -9829,25 +9829,25 @@
         <v>696</v>
       </c>
       <c r="S50">
-        <v>5.298390804597706</v>
+        <v>5.313505747126436</v>
       </c>
       <c r="T50">
-        <v>0.5685865318263491</v>
+        <v>0.5683884146382477</v>
       </c>
       <c r="U50">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="V50">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
       <c r="W50">
-        <v>5.225</v>
+        <v>5.23</v>
       </c>
       <c r="X50">
-        <v>5.68</v>
+        <v>5.692500000000001</v>
       </c>
       <c r="Y50">
-        <v>6.65</v>
+        <v>6.67</v>
       </c>
       <c r="Z50">
         <v>696</v>
@@ -9877,10 +9877,10 @@
         <v>696</v>
       </c>
       <c r="AI50">
-        <v>124.9083333333333</v>
+        <v>124.9495689655172</v>
       </c>
       <c r="AJ50">
-        <v>36.42448523589925</v>
+        <v>36.42800803774638</v>
       </c>
       <c r="AK50">
         <v>77.40000000000001</v>
@@ -9892,7 +9892,7 @@
         <v>123</v>
       </c>
       <c r="AN50">
-        <v>131.25</v>
+        <v>132</v>
       </c>
       <c r="AO50">
         <v>384</v>
@@ -9901,22 +9901,22 @@
         <v>696</v>
       </c>
       <c r="AQ50">
-        <v>32.81244252873559</v>
+        <v>32.82517241379309</v>
       </c>
       <c r="AR50">
-        <v>18.68395836573501</v>
+        <v>18.6893864921309</v>
       </c>
       <c r="AS50">
         <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>17.075</v>
+        <v>17.175</v>
       </c>
       <c r="AU50">
         <v>35.05</v>
       </c>
       <c r="AV50">
-        <v>44.25</v>
+        <v>44.325</v>
       </c>
       <c r="AW50">
         <v>127</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.01006839939655172</v>
+        <v>0.01007187704022988</v>
       </c>
       <c r="AZ50">
-        <v>0.01317215500194869</v>
+        <v>0.01317475030101083</v>
       </c>
       <c r="BA50">
         <v>-0.00104</v>
@@ -9937,7 +9937,7 @@
         <v>0.001215</v>
       </c>
       <c r="BC50">
-        <v>0.0076</v>
+        <v>0.007594999999999999</v>
       </c>
       <c r="BD50">
         <v>0.0134</v>
@@ -9949,22 +9949,22 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.2453428635057472</v>
+        <v>0.2454287064655178</v>
       </c>
       <c r="BH50">
-        <v>0.2390713768191477</v>
+        <v>0.2391551983083036</v>
       </c>
       <c r="BI50">
         <v>-0.0365</v>
       </c>
       <c r="BJ50">
-        <v>0.0302</v>
+        <v>0.030275</v>
       </c>
       <c r="BK50">
         <v>0.136</v>
       </c>
       <c r="BL50">
-        <v>0.47525</v>
+        <v>0.476</v>
       </c>
       <c r="BM50">
         <v>1.03</v>
@@ -10002,10 +10002,10 @@
         <v>696</v>
       </c>
       <c r="K51">
-        <v>39.42758620689657</v>
+        <v>39.42227011494254</v>
       </c>
       <c r="L51">
-        <v>2.479815015387902</v>
+        <v>2.479018375355493</v>
       </c>
       <c r="M51">
         <v>35.5</v>
@@ -10026,25 +10026,25 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>5.306192528735638</v>
+        <v>5.298663793103449</v>
       </c>
       <c r="T51">
-        <v>0.5682164576422148</v>
+        <v>0.5683312152746147</v>
       </c>
       <c r="U51">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="V51">
-        <v>4.86</v>
+        <v>4.8575</v>
       </c>
       <c r="W51">
         <v>5.22</v>
       </c>
       <c r="X51">
-        <v>5.6825</v>
+        <v>5.672499999999999</v>
       </c>
       <c r="Y51">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
       <c r="Z51">
         <v>696</v>
@@ -10074,10 +10074,10 @@
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>124.916091954023</v>
+        <v>124.8965517241379</v>
       </c>
       <c r="AJ51">
-        <v>36.41691479412373</v>
+        <v>36.41680005466958</v>
       </c>
       <c r="AK51">
         <v>77.40000000000001</v>
@@ -10098,22 +10098,22 @@
         <v>696</v>
       </c>
       <c r="AQ51">
-        <v>32.8160632183908</v>
+        <v>32.80795977011491</v>
       </c>
       <c r="AR51">
-        <v>18.6836645772024</v>
+        <v>18.6808366666294</v>
       </c>
       <c r="AS51">
         <v>1.46</v>
       </c>
       <c r="AT51">
-        <v>17.15</v>
+        <v>17.075</v>
       </c>
       <c r="AU51">
         <v>35.05</v>
       </c>
       <c r="AV51">
-        <v>44.25</v>
+        <v>44.225</v>
       </c>
       <c r="AW51">
         <v>127</v>
@@ -10122,19 +10122,19 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.01022400482758622</v>
+        <v>0.01022323728448277</v>
       </c>
       <c r="AZ51">
-        <v>0.01339241266633808</v>
+        <v>0.01338934726860549</v>
       </c>
       <c r="BA51">
-        <v>-0.000873</v>
+        <v>-0.0008720000000000001</v>
       </c>
       <c r="BB51">
         <v>0.00126</v>
       </c>
       <c r="BC51">
-        <v>0.00777</v>
+        <v>0.007765</v>
       </c>
       <c r="BD51">
         <v>0.0135</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.2485925945402302</v>
+        <v>0.2485918515804599</v>
       </c>
       <c r="BH51">
-        <v>0.2420235909411689</v>
+        <v>0.2420097956605406</v>
       </c>
       <c r="BI51">
         <v>-0.0344</v>
@@ -10161,7 +10161,7 @@
         <v>0.1375</v>
       </c>
       <c r="BL51">
-        <v>0.48125</v>
+        <v>0.481</v>
       </c>
       <c r="BM51">
         <v>1.09</v>
@@ -10199,10 +10199,10 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>39.43577586206897</v>
+        <v>39.42428160919543</v>
       </c>
       <c r="L52">
-        <v>2.481227121862374</v>
+        <v>2.479428931930864</v>
       </c>
       <c r="M52">
         <v>35.5</v>
@@ -10211,10 +10211,10 @@
         <v>37.4</v>
       </c>
       <c r="O52">
-        <v>39.5</v>
+        <v>39.45</v>
       </c>
       <c r="P52">
-        <v>41.5</v>
+        <v>41.425</v>
       </c>
       <c r="Q52">
         <v>43.3</v>
@@ -10223,25 +10223,25 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>5.311508620689649</v>
+        <v>5.301206896551723</v>
       </c>
       <c r="T52">
-        <v>0.5687916207533703</v>
+        <v>0.5682278221379606</v>
       </c>
       <c r="U52">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="V52">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="W52">
-        <v>5.235</v>
+        <v>5.22</v>
       </c>
       <c r="X52">
-        <v>5.6825</v>
+        <v>5.672499999999999</v>
       </c>
       <c r="Y52">
-        <v>6.71</v>
+        <v>6.65</v>
       </c>
       <c r="Z52">
         <v>696</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>124.9272988505747</v>
+        <v>124.8941091954023</v>
       </c>
       <c r="AJ52">
-        <v>36.42441708765298</v>
+        <v>36.40898667324088</v>
       </c>
       <c r="AK52">
         <v>77.40000000000001</v>
@@ -10286,31 +10286,31 @@
         <v>123</v>
       </c>
       <c r="AN52">
-        <v>132</v>
+        <v>131.25</v>
       </c>
       <c r="AO52">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AP52">
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>32.81558908045975</v>
+        <v>32.80837643678161</v>
       </c>
       <c r="AR52">
-        <v>18.6827331107367</v>
+        <v>18.67978584541998</v>
       </c>
       <c r="AS52">
         <v>1.46</v>
       </c>
       <c r="AT52">
-        <v>17.175</v>
+        <v>17.075</v>
       </c>
       <c r="AU52">
-        <v>35.1</v>
+        <v>35.05</v>
       </c>
       <c r="AV52">
-        <v>44.325</v>
+        <v>44.225</v>
       </c>
       <c r="AW52">
         <v>127</v>
@@ -10319,46 +10319,46 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.010379661795977</v>
+        <v>0.01038088080459769</v>
       </c>
       <c r="AZ52">
-        <v>0.01361289425817022</v>
+        <v>0.01361302987489286</v>
       </c>
       <c r="BA52">
-        <v>-0.000767</v>
+        <v>-0.000768</v>
       </c>
       <c r="BB52">
         <v>0.0013025</v>
       </c>
       <c r="BC52">
-        <v>0.007900000000000001</v>
+        <v>0.007905000000000001</v>
       </c>
       <c r="BD52">
-        <v>0.0137</v>
+        <v>0.013625</v>
       </c>
       <c r="BE52">
-        <v>0.08989999999999999</v>
+        <v>0.0898</v>
       </c>
       <c r="BF52">
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.2519256537356321</v>
+        <v>0.2519546057471262</v>
       </c>
       <c r="BH52">
-        <v>0.2451591215535389</v>
+        <v>0.2452088467687244</v>
       </c>
       <c r="BI52">
         <v>-0.0323</v>
       </c>
       <c r="BJ52">
-        <v>0.0318</v>
+        <v>0.031875</v>
       </c>
       <c r="BK52">
         <v>0.1385</v>
       </c>
       <c r="BL52">
-        <v>0.486</v>
+        <v>0.48625</v>
       </c>
       <c r="BM52">
         <v>1.1</v>
@@ -10396,10 +10396,10 @@
         <v>696</v>
       </c>
       <c r="K53">
-        <v>39.41681034482759</v>
+        <v>39.44410919540232</v>
       </c>
       <c r="L53">
-        <v>2.480036353575951</v>
+        <v>2.483648930722858</v>
       </c>
       <c r="M53">
         <v>35.5</v>
@@ -10408,10 +10408,10 @@
         <v>37.4</v>
       </c>
       <c r="O53">
-        <v>39.45</v>
+        <v>39.5</v>
       </c>
       <c r="P53">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q53">
         <v>43.3</v>
@@ -10420,25 +10420,25 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>5.293994252873564</v>
+        <v>5.32425287356322</v>
       </c>
       <c r="T53">
-        <v>0.5684937766305298</v>
+        <v>0.5688185553518748</v>
       </c>
       <c r="U53">
-        <v>4.38</v>
+        <v>4.42</v>
       </c>
       <c r="V53">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
       <c r="W53">
-        <v>5.22</v>
+        <v>5.255</v>
       </c>
       <c r="X53">
-        <v>5.672499999999999</v>
+        <v>5.7</v>
       </c>
       <c r="Y53">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="Z53">
         <v>696</v>
@@ -10468,10 +10468,10 @@
         <v>696</v>
       </c>
       <c r="AI53">
-        <v>124.8688218390805</v>
+        <v>124.9558908045977</v>
       </c>
       <c r="AJ53">
-        <v>36.39869776771525</v>
+        <v>36.40809451953583</v>
       </c>
       <c r="AK53">
         <v>77.40000000000001</v>
@@ -10483,7 +10483,7 @@
         <v>123</v>
       </c>
       <c r="AN53">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO53">
         <v>384</v>
@@ -10492,22 +10492,22 @@
         <v>696</v>
       </c>
       <c r="AQ53">
-        <v>32.80054597701146</v>
+        <v>32.82419540229886</v>
       </c>
       <c r="AR53">
-        <v>18.67523696429857</v>
+        <v>18.68587515442995</v>
       </c>
       <c r="AS53">
         <v>1.46</v>
       </c>
       <c r="AT53">
-        <v>17.075</v>
+        <v>17.175</v>
       </c>
       <c r="AU53">
-        <v>35</v>
+        <v>35.05</v>
       </c>
       <c r="AV53">
-        <v>44.225</v>
+        <v>44.325</v>
       </c>
       <c r="AW53">
         <v>127</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.01051910356321839</v>
+        <v>0.01052534005747127</v>
       </c>
       <c r="AZ53">
-        <v>0.01381088252974765</v>
+        <v>0.01381811394442663</v>
       </c>
       <c r="BA53">
         <v>-0.000718</v>
@@ -10528,7 +10528,7 @@
         <v>0.0013525</v>
       </c>
       <c r="BC53">
-        <v>0.008015</v>
+        <v>0.008025000000000001</v>
       </c>
       <c r="BD53">
         <v>0.013725</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.2548122916666668</v>
+        <v>0.2549626005747127</v>
       </c>
       <c r="BH53">
-        <v>0.2471181189002064</v>
+        <v>0.2472608643509429</v>
       </c>
       <c r="BI53">
         <v>-0.0302</v>
@@ -10555,7 +10555,7 @@
         <v>0.1395</v>
       </c>
       <c r="BL53">
-        <v>0.491</v>
+        <v>0.49125</v>
       </c>
       <c r="BM53">
         <v>1.1</v>
@@ -10593,10 +10593,10 @@
         <v>696</v>
       </c>
       <c r="K54">
-        <v>39.42097701149427</v>
+        <v>39.4191091954023</v>
       </c>
       <c r="L54">
-        <v>2.480796383976595</v>
+        <v>2.482171203117218</v>
       </c>
       <c r="M54">
         <v>35.5</v>
@@ -10608,7 +10608,7 @@
         <v>39.45</v>
       </c>
       <c r="P54">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q54">
         <v>43.3</v>
@@ -10617,25 +10617,25 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>5.296925287356321</v>
+        <v>5.298218390804593</v>
       </c>
       <c r="T54">
-        <v>0.5686895451180161</v>
+        <v>0.5688969395034561</v>
       </c>
       <c r="U54">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
       <c r="V54">
         <v>4.85</v>
       </c>
       <c r="W54">
-        <v>5.23</v>
+        <v>5.22</v>
       </c>
       <c r="X54">
-        <v>5.672499999999999</v>
+        <v>5.67</v>
       </c>
       <c r="Y54">
-        <v>6.65</v>
+        <v>6.67</v>
       </c>
       <c r="Z54">
         <v>696</v>
@@ -10665,10 +10665,10 @@
         <v>696</v>
       </c>
       <c r="AI54">
-        <v>124.8760057471265</v>
+        <v>124.8762931034483</v>
       </c>
       <c r="AJ54">
-        <v>36.39159499166502</v>
+        <v>36.39317943127319</v>
       </c>
       <c r="AK54">
         <v>77.40000000000001</v>
@@ -10689,22 +10689,22 @@
         <v>696</v>
       </c>
       <c r="AQ54">
-        <v>32.80084770114941</v>
+        <v>32.80037356321838</v>
       </c>
       <c r="AR54">
-        <v>18.67298782317382</v>
+        <v>18.67396870508192</v>
       </c>
       <c r="AS54">
         <v>1.46</v>
       </c>
       <c r="AT54">
-        <v>17.075</v>
+        <v>17.1</v>
       </c>
       <c r="AU54">
         <v>35</v>
       </c>
       <c r="AV54">
-        <v>44.225</v>
+        <v>44.3</v>
       </c>
       <c r="AW54">
         <v>127</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.01065850079022989</v>
+        <v>0.01065705415229885</v>
       </c>
       <c r="AZ54">
-        <v>0.01401442012989213</v>
+        <v>0.01401261063361547</v>
       </c>
       <c r="BA54">
         <v>-0.000671</v>
@@ -10725,7 +10725,7 @@
         <v>0.00138</v>
       </c>
       <c r="BC54">
-        <v>0.00813</v>
+        <v>0.008125</v>
       </c>
       <c r="BD54">
         <v>0.01385</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.2576657267241377</v>
+        <v>0.2576641556034484</v>
       </c>
       <c r="BH54">
-        <v>0.2490903612396922</v>
+        <v>0.2490710488299961</v>
       </c>
       <c r="BI54">
         <v>-0.0282</v>
@@ -10790,10 +10790,10 @@
         <v>696</v>
       </c>
       <c r="K55">
-        <v>39.42715517241382</v>
+        <v>39.41767241379309</v>
       </c>
       <c r="L55">
-        <v>2.481794653283535</v>
+        <v>2.482187660460323</v>
       </c>
       <c r="M55">
         <v>35.5</v>
@@ -10802,10 +10802,10 @@
         <v>37.4</v>
       </c>
       <c r="O55">
-        <v>39.45</v>
+        <v>39.5</v>
       </c>
       <c r="P55">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q55">
         <v>43.3</v>
@@ -10814,25 +10814,25 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>5.304310344827587</v>
+        <v>5.294454022988505</v>
       </c>
       <c r="T55">
-        <v>0.5682327380173563</v>
+        <v>0.5691037918874086</v>
       </c>
       <c r="U55">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="V55">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="W55">
         <v>5.22</v>
       </c>
       <c r="X55">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="Y55">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="Z55">
         <v>696</v>
@@ -10862,10 +10862,10 @@
         <v>696</v>
       </c>
       <c r="AI55">
-        <v>124.8762931034483</v>
+        <v>124.8586206896552</v>
       </c>
       <c r="AJ55">
-        <v>36.38929399905884</v>
+        <v>36.37895803135767</v>
       </c>
       <c r="AK55">
         <v>77.40000000000001</v>
@@ -10886,22 +10886,22 @@
         <v>696</v>
       </c>
       <c r="AQ55">
-        <v>32.80462643678164</v>
+        <v>32.79487068965516</v>
       </c>
       <c r="AR55">
-        <v>18.67394431840827</v>
+        <v>18.67123567710165</v>
       </c>
       <c r="AS55">
         <v>1.46</v>
       </c>
       <c r="AT55">
-        <v>17.15</v>
+        <v>17.1</v>
       </c>
       <c r="AU55">
-        <v>35.05</v>
+        <v>35</v>
       </c>
       <c r="AV55">
-        <v>44.225</v>
+        <v>44.3</v>
       </c>
       <c r="AW55">
         <v>127</v>
@@ -10910,40 +10910,40 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.01079505064655172</v>
+        <v>0.01079840627873564</v>
       </c>
       <c r="AZ55">
-        <v>0.01421551025167508</v>
+        <v>0.01422040905425295</v>
       </c>
       <c r="BA55">
-        <v>-0.000622</v>
+        <v>-0.000623</v>
       </c>
       <c r="BB55">
         <v>0.0014</v>
       </c>
       <c r="BC55">
-        <v>0.008234999999999999</v>
+        <v>0.008245000000000001</v>
       </c>
       <c r="BD55">
         <v>0.01395</v>
       </c>
       <c r="BE55">
-        <v>0.0929</v>
+        <v>0.093</v>
       </c>
       <c r="BF55">
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.2605577658045974</v>
+        <v>0.2606391077586202</v>
       </c>
       <c r="BH55">
-        <v>0.2515783917006108</v>
+        <v>0.2516512975134611</v>
       </c>
       <c r="BI55">
         <v>-0.0262</v>
       </c>
       <c r="BJ55">
-        <v>0.03425</v>
+        <v>0.034175</v>
       </c>
       <c r="BK55">
         <v>0.141</v>
@@ -10987,10 +10987,10 @@
         <v>696</v>
       </c>
       <c r="K56">
-        <v>39.43735632183911</v>
+        <v>39.41379310344828</v>
       </c>
       <c r="L56">
-        <v>2.482528513643602</v>
+        <v>2.482719437933323</v>
       </c>
       <c r="M56">
         <v>35.5</v>
@@ -10999,7 +10999,7 @@
         <v>37.4</v>
       </c>
       <c r="O56">
-        <v>39.5</v>
+        <v>39.45</v>
       </c>
       <c r="P56">
         <v>41.5</v>
@@ -11011,34 +11011,34 @@
         <v>696</v>
       </c>
       <c r="S56">
-        <v>5.314942528735629</v>
+        <v>5.291867816091955</v>
       </c>
       <c r="T56">
-        <v>0.568615126566228</v>
+        <v>0.5691290478878723</v>
       </c>
       <c r="U56">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
       <c r="V56">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
       <c r="W56">
-        <v>5.24</v>
+        <v>5.22</v>
       </c>
       <c r="X56">
-        <v>5.69</v>
+        <v>5.6625</v>
       </c>
       <c r="Y56">
-        <v>6.69</v>
+        <v>6.67</v>
       </c>
       <c r="Z56">
         <v>696</v>
       </c>
       <c r="AA56">
-        <v>39.41767241379313</v>
+        <v>39.4175287356322</v>
       </c>
       <c r="AB56">
-        <v>2.487746265402097</v>
+        <v>2.4878311462241</v>
       </c>
       <c r="AC56">
         <v>35.5</v>
@@ -11059,13 +11059,13 @@
         <v>696</v>
       </c>
       <c r="AI56">
-        <v>124.8979885057471</v>
+        <v>124.8353448275862</v>
       </c>
       <c r="AJ56">
-        <v>36.39129307644076</v>
+        <v>36.3529304829895</v>
       </c>
       <c r="AK56">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="AL56">
         <v>103</v>
@@ -11074,28 +11074,28 @@
         <v>123</v>
       </c>
       <c r="AN56">
-        <v>132</v>
+        <v>131.25</v>
       </c>
       <c r="AO56">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AP56">
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>32.81159482758623</v>
+        <v>32.79119252873562</v>
       </c>
       <c r="AR56">
-        <v>18.67585468962844</v>
+        <v>18.66767715144294</v>
       </c>
       <c r="AS56">
         <v>1.46</v>
       </c>
       <c r="AT56">
-        <v>17.175</v>
+        <v>17.1</v>
       </c>
       <c r="AU56">
-        <v>35.05</v>
+        <v>35</v>
       </c>
       <c r="AV56">
         <v>44.3</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.01093914340517242</v>
+        <v>0.0109373516954023</v>
       </c>
       <c r="AZ56">
-        <v>0.01442601665862531</v>
+        <v>0.01442231927459454</v>
       </c>
       <c r="BA56">
         <v>-0.000578</v>
@@ -11125,28 +11125,28 @@
         <v>0.01405</v>
       </c>
       <c r="BE56">
-        <v>0.094</v>
+        <v>0.0939</v>
       </c>
       <c r="BF56">
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.2636865748563216</v>
+        <v>0.2636657591954021</v>
       </c>
       <c r="BH56">
-        <v>0.2543710552509877</v>
+        <v>0.2543506688309765</v>
       </c>
       <c r="BI56">
         <v>-0.0243</v>
       </c>
       <c r="BJ56">
-        <v>0.035075</v>
+        <v>0.03515</v>
       </c>
       <c r="BK56">
-        <v>0.1415</v>
+        <v>0.142</v>
       </c>
       <c r="BL56">
-        <v>0.505</v>
+        <v>0.50425</v>
       </c>
       <c r="BM56">
         <v>1.14</v>
@@ -11184,10 +11184,10 @@
         <v>696</v>
       </c>
       <c r="K57">
-        <v>39.4293103448276</v>
+        <v>39.4278735632184</v>
       </c>
       <c r="L57">
-        <v>2.483123488170561</v>
+        <v>2.483366029941418</v>
       </c>
       <c r="M57">
         <v>35.5</v>
@@ -11199,7 +11199,7 @@
         <v>39.45</v>
       </c>
       <c r="P57">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q57">
         <v>43.3</v>
@@ -11208,22 +11208,22 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>5.306479885057474</v>
+        <v>5.305459770114943</v>
       </c>
       <c r="T57">
-        <v>0.5687865105281908</v>
+        <v>0.5688355553468062</v>
       </c>
       <c r="U57">
         <v>4.4</v>
       </c>
       <c r="V57">
-        <v>4.8675</v>
+        <v>4.86</v>
       </c>
       <c r="W57">
         <v>5.23</v>
       </c>
       <c r="X57">
-        <v>5.6825</v>
+        <v>5.68</v>
       </c>
       <c r="Y57">
         <v>6.67</v>
@@ -11256,10 +11256,10 @@
         <v>696</v>
       </c>
       <c r="AI57">
-        <v>124.8692528735632</v>
+        <v>124.8698275862069</v>
       </c>
       <c r="AJ57">
-        <v>36.37237116533922</v>
+        <v>36.37135932245368</v>
       </c>
       <c r="AK57">
         <v>77.40000000000001</v>
@@ -11280,16 +11280,16 @@
         <v>696</v>
       </c>
       <c r="AQ57">
-        <v>32.80219827586207</v>
+        <v>32.80068965517241</v>
       </c>
       <c r="AR57">
-        <v>18.67119083248511</v>
+        <v>18.67009757362246</v>
       </c>
       <c r="AS57">
         <v>1.46</v>
       </c>
       <c r="AT57">
-        <v>17.075</v>
+        <v>17.1</v>
       </c>
       <c r="AU57">
         <v>35.05</v>
@@ -11304,13 +11304,13 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.01107794011494251</v>
+        <v>0.01107902660919539</v>
       </c>
       <c r="AZ57">
-        <v>0.01462408427993767</v>
+        <v>0.01462503943769906</v>
       </c>
       <c r="BA57">
-        <v>-0.0005330000000000001</v>
+        <v>-0.000532</v>
       </c>
       <c r="BB57">
         <v>0.0014525</v>
@@ -11322,16 +11322,16 @@
         <v>0.014225</v>
       </c>
       <c r="BE57">
-        <v>0.0948</v>
+        <v>0.0949</v>
       </c>
       <c r="BF57">
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.2667420287356321</v>
+        <v>0.2667290804597703</v>
       </c>
       <c r="BH57">
-        <v>0.2568093857760286</v>
+        <v>0.2567403773123514</v>
       </c>
       <c r="BI57">
         <v>-0.0224</v>
@@ -11346,7 +11346,7 @@
         <v>0.51</v>
       </c>
       <c r="BM57">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="58" spans="1:65">
@@ -11381,10 +11381,10 @@
         <v>696</v>
       </c>
       <c r="K58">
-        <v>39.41795977011494</v>
+        <v>39.4234195402299</v>
       </c>
       <c r="L58">
-        <v>2.483871862354225</v>
+        <v>2.483907417699773</v>
       </c>
       <c r="M58">
         <v>35.5</v>
@@ -11405,22 +11405,22 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>5.29257183908046</v>
+        <v>5.30125</v>
       </c>
       <c r="T58">
-        <v>0.5685924770023463</v>
+        <v>0.5684468458411595</v>
       </c>
       <c r="U58">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="V58">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="W58">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="X58">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="Y58">
         <v>6.65</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>124.8237068965518</v>
+        <v>124.8465517241379</v>
       </c>
       <c r="AJ58">
-        <v>36.35010848422167</v>
+        <v>36.36429412724605</v>
       </c>
       <c r="AK58">
         <v>77.40000000000001</v>
@@ -11477,16 +11477,16 @@
         <v>696</v>
       </c>
       <c r="AQ58">
-        <v>32.78712643678157</v>
+        <v>32.79452586206895</v>
       </c>
       <c r="AR58">
-        <v>18.66431708266894</v>
+        <v>18.66630841893215</v>
       </c>
       <c r="AS58">
         <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>17.075</v>
+        <v>17.15</v>
       </c>
       <c r="AU58">
         <v>35.05</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.01120434627873562</v>
+        <v>0.01121173193965517</v>
       </c>
       <c r="AZ58">
-        <v>0.01481572567308247</v>
+        <v>0.01482318929887664</v>
       </c>
       <c r="BA58">
         <v>-0.00049</v>
@@ -11513,7 +11513,7 @@
         <v>0.0014875</v>
       </c>
       <c r="BC58">
-        <v>0.008580000000000001</v>
+        <v>0.008584999999999999</v>
       </c>
       <c r="BD58">
         <v>0.01435</v>
@@ -11525,22 +11525,22 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.2693531954022991</v>
+        <v>0.2695420043103451</v>
       </c>
       <c r="BH58">
-        <v>0.2584482279025873</v>
+        <v>0.2586304152893654</v>
       </c>
       <c r="BI58">
         <v>-0.0206</v>
       </c>
       <c r="BJ58">
-        <v>0.036875</v>
+        <v>0.0369</v>
       </c>
       <c r="BK58">
         <v>0.143</v>
       </c>
       <c r="BL58">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="BM58">
         <v>1.12</v>
@@ -11578,10 +11578,10 @@
         <v>696</v>
       </c>
       <c r="K59">
-        <v>39.4264367816092</v>
+        <v>39.43247126436782</v>
       </c>
       <c r="L59">
-        <v>2.485171436617395</v>
+        <v>2.485117182195845</v>
       </c>
       <c r="M59">
         <v>35.5</v>
@@ -11602,22 +11602,22 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>5.304525862068965</v>
+        <v>5.310416666666672</v>
       </c>
       <c r="T59">
-        <v>0.569231519744996</v>
+        <v>0.5687325036178813</v>
       </c>
       <c r="U59">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="V59">
-        <v>4.8575</v>
+        <v>4.8675</v>
       </c>
       <c r="W59">
         <v>5.23</v>
       </c>
       <c r="X59">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="Y59">
         <v>6.68</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>124.8435344827586</v>
+        <v>124.8614942528736</v>
       </c>
       <c r="AJ59">
-        <v>36.33163258762625</v>
+        <v>36.34828186188115</v>
       </c>
       <c r="AK59">
         <v>77.40000000000001</v>
@@ -11665,7 +11665,7 @@
         <v>123</v>
       </c>
       <c r="AN59">
-        <v>131.25</v>
+        <v>132</v>
       </c>
       <c r="AO59">
         <v>384</v>
@@ -11674,10 +11674,10 @@
         <v>696</v>
       </c>
       <c r="AQ59">
-        <v>32.79612068965518</v>
+        <v>32.80104885057469</v>
       </c>
       <c r="AR59">
-        <v>18.66740950788442</v>
+        <v>18.66851876050372</v>
       </c>
       <c r="AS59">
         <v>1.46</v>
@@ -11698,37 +11698,37 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.01133322640804599</v>
+        <v>0.01133756712643677</v>
       </c>
       <c r="AZ59">
-        <v>0.01501435592847166</v>
+        <v>0.01501992360892819</v>
       </c>
       <c r="BA59">
-        <v>-0.000446</v>
+        <v>-0.000447</v>
       </c>
       <c r="BB59">
         <v>0.0015325</v>
       </c>
       <c r="BC59">
-        <v>0.00869</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="BD59">
         <v>0.01445</v>
       </c>
       <c r="BE59">
-        <v>0.097</v>
+        <v>0.0969</v>
       </c>
       <c r="BF59">
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.2719754252873565</v>
+        <v>0.2720859612068965</v>
       </c>
       <c r="BH59">
-        <v>0.2602721532828019</v>
+        <v>0.2603547754696637</v>
       </c>
       <c r="BI59">
-        <v>-0.0187</v>
+        <v>-0.0188</v>
       </c>
       <c r="BJ59">
         <v>0.0374</v>
@@ -11740,7 +11740,7 @@
         <v>0.52025</v>
       </c>
       <c r="BM59">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="60" spans="1:65">
@@ -11775,10 +11775,10 @@
         <v>696</v>
       </c>
       <c r="K60">
-        <v>39.42586206896553</v>
+        <v>39.4271551724138</v>
       </c>
       <c r="L60">
-        <v>2.484737434635129</v>
+        <v>2.484934973670115</v>
       </c>
       <c r="M60">
         <v>35.5</v>
@@ -11799,13 +11799,13 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>5.302370689655175</v>
+        <v>5.305272988505745</v>
       </c>
       <c r="T60">
-        <v>0.5687899415806025</v>
+        <v>0.5687084295911525</v>
       </c>
       <c r="U60">
-        <v>4.41</v>
+        <v>4.39</v>
       </c>
       <c r="V60">
         <v>4.86</v>
@@ -11814,7 +11814,7 @@
         <v>5.22</v>
       </c>
       <c r="X60">
-        <v>5.672499999999999</v>
+        <v>5.67</v>
       </c>
       <c r="Y60">
         <v>6.66</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>124.833908045977</v>
+        <v>124.8423850574712</v>
       </c>
       <c r="AJ60">
-        <v>36.34006172256954</v>
+        <v>36.33785507860066</v>
       </c>
       <c r="AK60">
         <v>77.40000000000001</v>
@@ -11862,7 +11862,7 @@
         <v>123</v>
       </c>
       <c r="AN60">
-        <v>131.25</v>
+        <v>131</v>
       </c>
       <c r="AO60">
         <v>384</v>
@@ -11871,10 +11871,10 @@
         <v>696</v>
       </c>
       <c r="AQ60">
-        <v>32.79183908045975</v>
+        <v>32.79341954022988</v>
       </c>
       <c r="AR60">
-        <v>18.66415934605496</v>
+        <v>18.66396350996837</v>
       </c>
       <c r="AS60">
         <v>1.46</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.01145992354885057</v>
+        <v>0.01146496778735632</v>
       </c>
       <c r="AZ60">
-        <v>0.01520846537938252</v>
+        <v>0.01521593233354024</v>
       </c>
       <c r="BA60">
         <v>-0.000404</v>
@@ -11907,22 +11907,22 @@
         <v>0.00157</v>
       </c>
       <c r="BC60">
-        <v>0.008795000000000001</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="BD60">
-        <v>0.01455</v>
+        <v>0.014625</v>
       </c>
       <c r="BE60">
-        <v>0.0979</v>
+        <v>0.098</v>
       </c>
       <c r="BF60">
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.2746468247126434</v>
+        <v>0.2747867686781608</v>
       </c>
       <c r="BH60">
-        <v>0.2625095168885445</v>
+        <v>0.2626881075175642</v>
       </c>
       <c r="BI60">
         <v>-0.017</v>
@@ -11931,10 +11931,10 @@
         <v>0.038</v>
       </c>
       <c r="BK60">
-        <v>0.1445</v>
+        <v>0.145</v>
       </c>
       <c r="BL60">
-        <v>0.525</v>
+        <v>0.52525</v>
       </c>
       <c r="BM60">
         <v>1.15</v>
@@ -11972,10 +11972,10 @@
         <v>696</v>
       </c>
       <c r="K61">
-        <v>39.42428160919542</v>
+        <v>39.42787356321842</v>
       </c>
       <c r="L61">
-        <v>2.485294777416574</v>
+        <v>2.484854627965231</v>
       </c>
       <c r="M61">
         <v>35.5</v>
@@ -11996,25 +11996,25 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>5.302025862068966</v>
+        <v>5.305876436781609</v>
       </c>
       <c r="T61">
-        <v>0.5686136662871065</v>
+        <v>0.5685367630129233</v>
       </c>
       <c r="U61">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="V61">
-        <v>4.86</v>
+        <v>4.8675</v>
       </c>
       <c r="W61">
         <v>5.22</v>
       </c>
       <c r="X61">
-        <v>5.67</v>
+        <v>5.672499999999999</v>
       </c>
       <c r="Y61">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="Z61">
         <v>696</v>
@@ -12044,10 +12044,10 @@
         <v>696</v>
       </c>
       <c r="AI61">
-        <v>124.8303160919541</v>
+        <v>124.8352011494253</v>
       </c>
       <c r="AJ61">
-        <v>36.33298975257023</v>
+        <v>36.33571855006322</v>
       </c>
       <c r="AK61">
         <v>77.40000000000001</v>
@@ -12068,10 +12068,10 @@
         <v>696</v>
       </c>
       <c r="AQ61">
-        <v>32.78821839080457</v>
+        <v>32.79216954022989</v>
       </c>
       <c r="AR61">
-        <v>18.66116705005939</v>
+        <v>18.66274390614806</v>
       </c>
       <c r="AS61">
         <v>1.46</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.01159057715517242</v>
+        <v>0.01159316216954024</v>
       </c>
       <c r="AZ61">
-        <v>0.01540869262817811</v>
+        <v>0.01540981479168094</v>
       </c>
       <c r="BA61">
         <v>-0.000363</v>
@@ -12104,7 +12104,7 @@
         <v>0.001605</v>
       </c>
       <c r="BC61">
-        <v>0.0089</v>
+        <v>0.008910000000000001</v>
       </c>
       <c r="BD61">
         <v>0.014725</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.2774537614942529</v>
+        <v>0.2775154066091954</v>
       </c>
       <c r="BH61">
-        <v>0.2649342170590869</v>
+        <v>0.2650390735183651</v>
       </c>
       <c r="BI61">
         <v>-0.0153</v>
@@ -12134,7 +12134,7 @@
         <v>0.53</v>
       </c>
       <c r="BM61">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="62" spans="1:65">
@@ -12169,10 +12169,10 @@
         <v>696</v>
       </c>
       <c r="K62">
-        <v>39.42456896551726</v>
+        <v>39.41982758620691</v>
       </c>
       <c r="L62">
-        <v>2.486530584230981</v>
+        <v>2.486205504771745</v>
       </c>
       <c r="M62">
         <v>35.5</v>
@@ -12193,22 +12193,22 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>5.302356321839075</v>
+        <v>5.296566091954017</v>
       </c>
       <c r="T62">
-        <v>0.5685725349753736</v>
+        <v>0.5684965568883542</v>
       </c>
       <c r="U62">
         <v>4.4</v>
       </c>
       <c r="V62">
-        <v>4.86</v>
+        <v>4.8575</v>
       </c>
       <c r="W62">
-        <v>5.22</v>
+        <v>5.215</v>
       </c>
       <c r="X62">
-        <v>5.67</v>
+        <v>5.6625</v>
       </c>
       <c r="Y62">
         <v>6.65</v>
@@ -12241,10 +12241,10 @@
         <v>696</v>
       </c>
       <c r="AI62">
-        <v>124.8288793103448</v>
+        <v>124.8079022988506</v>
       </c>
       <c r="AJ62">
-        <v>36.32066042101255</v>
+        <v>36.31583095223886</v>
       </c>
       <c r="AK62">
         <v>77.40000000000001</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>32.78748563218389</v>
+        <v>32.7808620689655</v>
       </c>
       <c r="AR62">
-        <v>18.6599983460121</v>
+        <v>18.65820080782882</v>
       </c>
       <c r="AS62">
         <v>1.46</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.01171729418103448</v>
+        <v>0.01171837522988506</v>
       </c>
       <c r="AZ62">
-        <v>0.01560188823387424</v>
+        <v>0.01560413028459704</v>
       </c>
       <c r="BA62">
         <v>-0.000323</v>
@@ -12301,7 +12301,7 @@
         <v>0.0016475</v>
       </c>
       <c r="BC62">
-        <v>0.009004999999999999</v>
+        <v>0.009010000000000001</v>
       </c>
       <c r="BD62">
         <v>0.014825</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.2801639760057472</v>
+        <v>0.2802065341954026</v>
       </c>
       <c r="BH62">
-        <v>0.26727507352967</v>
+        <v>0.2673259460288371</v>
       </c>
       <c r="BI62">
         <v>-0.0136</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>39.42327586206898</v>
+        <v>39.43333333333334</v>
       </c>
       <c r="L63">
-        <v>2.48581093727519</v>
+        <v>2.486766895454041</v>
       </c>
       <c r="M63">
         <v>35.5</v>
@@ -12381,7 +12381,7 @@
         <v>39.45</v>
       </c>
       <c r="P63">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q63">
         <v>43.3</v>
@@ -12390,25 +12390,25 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>5.300186781609196</v>
+        <v>5.312859195402296</v>
       </c>
       <c r="T63">
-        <v>0.5685656264119848</v>
+        <v>0.5683665984357991</v>
       </c>
       <c r="U63">
         <v>4.42</v>
       </c>
       <c r="V63">
-        <v>4.86</v>
+        <v>4.87</v>
       </c>
       <c r="W63">
-        <v>5.21</v>
+        <v>5.235</v>
       </c>
       <c r="X63">
-        <v>5.6625</v>
+        <v>5.6825</v>
       </c>
       <c r="Y63">
-        <v>6.65</v>
+        <v>6.67</v>
       </c>
       <c r="Z63">
         <v>696</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>124.8</v>
+        <v>124.8288793103448</v>
       </c>
       <c r="AJ63">
-        <v>36.29746726007755</v>
+        <v>36.30754860423274</v>
       </c>
       <c r="AK63">
         <v>77.40000000000001</v>
@@ -12453,7 +12453,7 @@
         <v>123</v>
       </c>
       <c r="AN63">
-        <v>131.25</v>
+        <v>132</v>
       </c>
       <c r="AO63">
         <v>384</v>
@@ -12462,10 +12462,10 @@
         <v>696</v>
       </c>
       <c r="AQ63">
-        <v>32.78219827586206</v>
+        <v>32.79291666666667</v>
       </c>
       <c r="AR63">
-        <v>18.65788765394927</v>
+        <v>18.66190893638377</v>
       </c>
       <c r="AS63">
         <v>1.46</v>
@@ -12477,7 +12477,7 @@
         <v>35.05</v>
       </c>
       <c r="AV63">
-        <v>44.225</v>
+        <v>44.3</v>
       </c>
       <c r="AW63">
         <v>127</v>
@@ -12486,19 +12486,19 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.01184196316091954</v>
+        <v>0.0118501725862069</v>
       </c>
       <c r="AZ63">
-        <v>0.01579428029939759</v>
+        <v>0.01580764294110086</v>
       </c>
       <c r="BA63">
         <v>-0.000284</v>
       </c>
       <c r="BB63">
-        <v>0.0016775</v>
+        <v>0.00168</v>
       </c>
       <c r="BC63">
-        <v>0.009115</v>
+        <v>0.00912</v>
       </c>
       <c r="BD63">
         <v>0.014925</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.2828085862068965</v>
+        <v>0.28304091954023</v>
       </c>
       <c r="BH63">
-        <v>0.2695718146468656</v>
+        <v>0.2698363093815868</v>
       </c>
       <c r="BI63">
         <v>-0.0119</v>
@@ -12525,7 +12525,7 @@
         <v>0.1465</v>
       </c>
       <c r="BL63">
-        <v>0.54</v>
+        <v>0.54025</v>
       </c>
       <c r="BM63">
         <v>1.2</v>
@@ -12563,10 +12563,10 @@
         <v>696</v>
       </c>
       <c r="K64">
-        <v>39.42255747126438</v>
+        <v>39.43060344827587</v>
       </c>
       <c r="L64">
-        <v>2.486700118371065</v>
+        <v>2.487296688210382</v>
       </c>
       <c r="M64">
         <v>35.5</v>
@@ -12578,7 +12578,7 @@
         <v>39.45</v>
       </c>
       <c r="P64">
-        <v>41.425</v>
+        <v>41.5</v>
       </c>
       <c r="Q64">
         <v>43.3</v>
@@ -12587,34 +12587,34 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>5.299439655172415</v>
+        <v>5.30919540229885</v>
       </c>
       <c r="T64">
-        <v>0.5684904679769053</v>
+        <v>0.568554837715433</v>
       </c>
       <c r="U64">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="V64">
         <v>4.86</v>
       </c>
       <c r="W64">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="X64">
-        <v>5.6625</v>
+        <v>5.68</v>
       </c>
       <c r="Y64">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="Z64">
         <v>696</v>
       </c>
       <c r="AA64">
-        <v>39.40991379310349</v>
+        <v>39.40977011494257</v>
       </c>
       <c r="AB64">
-        <v>2.494598941202726</v>
+        <v>2.494821561421941</v>
       </c>
       <c r="AC64">
         <v>35.5</v>
@@ -12635,10 +12635,10 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>124.7882183908046</v>
+        <v>124.8165229885058</v>
       </c>
       <c r="AJ64">
-        <v>36.28957920444503</v>
+        <v>36.29773800324184</v>
       </c>
       <c r="AK64">
         <v>77.40000000000001</v>
@@ -12650,7 +12650,7 @@
         <v>123</v>
       </c>
       <c r="AN64">
-        <v>131.25</v>
+        <v>132</v>
       </c>
       <c r="AO64">
         <v>384</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>32.77777298850575</v>
+        <v>32.78761494252876</v>
       </c>
       <c r="AR64">
-        <v>18.65476983185069</v>
+        <v>18.65894692105094</v>
       </c>
       <c r="AS64">
         <v>1.46</v>
@@ -12674,7 +12674,7 @@
         <v>35.05</v>
       </c>
       <c r="AV64">
-        <v>44.225</v>
+        <v>44.3</v>
       </c>
       <c r="AW64">
         <v>127</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.01197024895114942</v>
+        <v>0.01197717936781609</v>
       </c>
       <c r="AZ64">
-        <v>0.01599385578765265</v>
+        <v>0.01599871901327763</v>
       </c>
       <c r="BA64">
         <v>-0.000245</v>
@@ -12695,10 +12695,10 @@
         <v>0.0017075</v>
       </c>
       <c r="BC64">
-        <v>0.009215000000000001</v>
+        <v>0.009225000000000001</v>
       </c>
       <c r="BD64">
-        <v>0.015025</v>
+        <v>0.0151</v>
       </c>
       <c r="BE64">
         <v>0.102</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.2856727228448276</v>
+        <v>0.2858501946839081</v>
       </c>
       <c r="BH64">
-        <v>0.2724528262688289</v>
+        <v>0.2726260133949911</v>
       </c>
       <c r="BI64">
         <v>-0.0103</v>
@@ -12760,10 +12760,10 @@
         <v>696</v>
       </c>
       <c r="K65">
-        <v>39.42040229885059</v>
+        <v>39.42183908045978</v>
       </c>
       <c r="L65">
-        <v>2.485558370560294</v>
+        <v>2.486819368138967</v>
       </c>
       <c r="M65">
         <v>35.5</v>
@@ -12778,31 +12778,31 @@
         <v>41.425</v>
       </c>
       <c r="Q65">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="R65">
         <v>696</v>
       </c>
       <c r="S65">
-        <v>5.297859195402294</v>
+        <v>5.299137931034484</v>
       </c>
       <c r="T65">
-        <v>0.5681504894890875</v>
+        <v>0.5685643699865117</v>
       </c>
       <c r="U65">
         <v>4.42</v>
       </c>
       <c r="V65">
-        <v>4.8575</v>
+        <v>4.86</v>
       </c>
       <c r="W65">
         <v>5.215</v>
       </c>
       <c r="X65">
-        <v>5.657500000000001</v>
+        <v>5.6625</v>
       </c>
       <c r="Y65">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="Z65">
         <v>696</v>
@@ -12832,13 +12832,13 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>124.7676724137931</v>
+        <v>124.7747126436782</v>
       </c>
       <c r="AJ65">
-        <v>36.28165246982904</v>
+        <v>36.28328102489764</v>
       </c>
       <c r="AK65">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AL65">
         <v>103</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>32.7712643678161</v>
+        <v>32.77462643678162</v>
       </c>
       <c r="AR65">
-        <v>18.65295118846779</v>
+        <v>18.65280208868176</v>
       </c>
       <c r="AS65">
         <v>1.46</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.01209833132183908</v>
+        <v>0.01210089834770115</v>
       </c>
       <c r="AZ65">
-        <v>0.01618137719614282</v>
+        <v>0.01618353606258482</v>
       </c>
       <c r="BA65">
         <v>-0.000209</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.2886000316091954</v>
+        <v>0.2886761910919541</v>
       </c>
       <c r="BH65">
-        <v>0.2748568220282925</v>
+        <v>0.2749354255711265</v>
       </c>
       <c r="BI65">
         <v>-0.00877</v>
@@ -12957,10 +12957,10 @@
         <v>696</v>
       </c>
       <c r="K66">
-        <v>39.41939655172415</v>
+        <v>39.42112068965518</v>
       </c>
       <c r="L66">
-        <v>2.486385416841407</v>
+        <v>2.487308656712786</v>
       </c>
       <c r="M66">
         <v>35.5</v>
@@ -12981,19 +12981,19 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>5.296264367816089</v>
+        <v>5.297945402298846</v>
       </c>
       <c r="T66">
-        <v>0.5683231517624809</v>
+        <v>0.5686439276377286</v>
       </c>
       <c r="U66">
         <v>4.42</v>
       </c>
       <c r="V66">
-        <v>4.85</v>
+        <v>4.8575</v>
       </c>
       <c r="W66">
-        <v>5.21</v>
+        <v>5.215</v>
       </c>
       <c r="X66">
         <v>5.655</v>
@@ -13029,13 +13029,13 @@
         <v>696</v>
       </c>
       <c r="AI66">
-        <v>124.7635057471264</v>
+        <v>124.7653735632184</v>
       </c>
       <c r="AJ66">
-        <v>36.28197905824184</v>
+        <v>36.28022025868254</v>
       </c>
       <c r="AK66">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AL66">
         <v>103</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>32.76761494252875</v>
+        <v>32.76951149425289</v>
       </c>
       <c r="AR66">
-        <v>18.65057680134157</v>
+        <v>18.65098748456788</v>
       </c>
       <c r="AS66">
         <v>1.46</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.01221657606321839</v>
+        <v>0.01222089100574712</v>
       </c>
       <c r="AZ66">
-        <v>0.01636866117121711</v>
+        <v>0.01637748961057935</v>
       </c>
       <c r="BA66">
         <v>-0.000172</v>
@@ -13089,7 +13089,7 @@
         <v>0.0017475</v>
       </c>
       <c r="BC66">
-        <v>0.009430000000000001</v>
+        <v>0.009434999999999999</v>
       </c>
       <c r="BD66">
         <v>0.0153</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.2911258089080457</v>
+        <v>0.2912144396551722</v>
       </c>
       <c r="BH66">
-        <v>0.2765028089384675</v>
+        <v>0.2765969431353201</v>
       </c>
       <c r="BI66">
         <v>-0.00723</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>39.41939655172415</v>
+        <v>39.41882183908047</v>
       </c>
       <c r="L67">
-        <v>2.485910844912061</v>
+        <v>2.486470855444637</v>
       </c>
       <c r="M67">
         <v>35.5</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>5.297341954022985</v>
+        <v>5.29662356321839</v>
       </c>
       <c r="T67">
-        <v>0.5680713079858479</v>
+        <v>0.5680464635134723</v>
       </c>
       <c r="U67">
         <v>4.42</v>
@@ -13202,10 +13202,10 @@
         <v>696</v>
       </c>
       <c r="AA67">
-        <v>39.40761494252876</v>
+        <v>39.40747126436784</v>
       </c>
       <c r="AB67">
-        <v>2.496907336238573</v>
+        <v>2.497123856185332</v>
       </c>
       <c r="AC67">
         <v>35.5</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>124.7587643678161</v>
+        <v>124.7583333333334</v>
       </c>
       <c r="AJ67">
-        <v>36.27710034451858</v>
+        <v>36.27765730672625</v>
       </c>
       <c r="AK67">
         <v>77.5</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>32.76658045977013</v>
+        <v>32.76586206896553</v>
       </c>
       <c r="AR67">
-        <v>18.64975541573932</v>
+        <v>18.64933556332797</v>
       </c>
       <c r="AS67">
         <v>1.46</v>
@@ -13274,13 +13274,13 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.01233274504310345</v>
+        <v>0.0123340325</v>
       </c>
       <c r="AZ67">
-        <v>0.01655983789319392</v>
+        <v>0.01656033225492398</v>
       </c>
       <c r="BA67">
-        <v>-0.000135</v>
+        <v>-0.000136</v>
       </c>
       <c r="BB67">
         <v>0.0017575</v>
@@ -13298,13 +13298,13 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.2934530804597701</v>
+        <v>0.2935419870689654</v>
       </c>
       <c r="BH67">
-        <v>0.278148650015684</v>
+        <v>0.2782476719811468</v>
       </c>
       <c r="BI67">
-        <v>-0.00569</v>
+        <v>-0.0057</v>
       </c>
       <c r="BJ67">
         <v>0.04175</v>
@@ -13351,10 +13351,10 @@
         <v>696</v>
       </c>
       <c r="K68">
-        <v>39.41724137931036</v>
+        <v>39.41939655172416</v>
       </c>
       <c r="L68">
-        <v>2.488139666049176</v>
+        <v>2.487386350840535</v>
       </c>
       <c r="M68">
         <v>35.5</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>5.295100574712643</v>
+        <v>5.296724137931028</v>
       </c>
       <c r="T68">
-        <v>0.5684673234090428</v>
+        <v>0.568476103829488</v>
       </c>
       <c r="U68">
         <v>4.42</v>
@@ -13393,7 +13393,7 @@
         <v>5.655</v>
       </c>
       <c r="Y68">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="Z68">
         <v>696</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>124.7505747126437</v>
+        <v>124.7545977011495</v>
       </c>
       <c r="AJ68">
-        <v>36.26420197650801</v>
+        <v>36.27213856921983</v>
       </c>
       <c r="AK68">
         <v>77.5</v>
@@ -13447,10 +13447,10 @@
         <v>696</v>
       </c>
       <c r="AQ68">
-        <v>32.76356321839083</v>
+        <v>32.76431034482762</v>
       </c>
       <c r="AR68">
-        <v>18.64647787688771</v>
+        <v>18.64653959715184</v>
       </c>
       <c r="AS68">
         <v>1.46</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.01244734186781608</v>
+        <v>0.01245053708333333</v>
       </c>
       <c r="AZ68">
-        <v>0.01674954468814252</v>
+        <v>0.01675228139233383</v>
       </c>
       <c r="BA68">
         <v>-0.0001</v>
@@ -13483,7 +13483,7 @@
         <v>0.0017775</v>
       </c>
       <c r="BC68">
-        <v>0.009634999999999999</v>
+        <v>0.009639999999999999</v>
       </c>
       <c r="BD68">
         <v>0.0155</v>
@@ -13495,13 +13495,13 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.2957838965517239</v>
+        <v>0.2958849468390804</v>
       </c>
       <c r="BH68">
-        <v>0.279948905109472</v>
+        <v>0.2800846530741974</v>
       </c>
       <c r="BI68">
-        <v>-0.0042</v>
+        <v>-0.00421</v>
       </c>
       <c r="BJ68">
         <v>0.0422</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>5.295603448275861</v>
+        <v>5.296321839080458</v>
       </c>
       <c r="T69">
-        <v>0.5683206949466465</v>
+        <v>0.5680895459712253</v>
       </c>
       <c r="U69">
         <v>4.42</v>
@@ -13587,7 +13587,7 @@
         <v>5.215</v>
       </c>
       <c r="X69">
-        <v>5.6475</v>
+        <v>5.655</v>
       </c>
       <c r="Y69">
         <v>6.63</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>124.7448275862069</v>
+        <v>124.7491379310345</v>
       </c>
       <c r="AJ69">
-        <v>36.24598536696207</v>
+        <v>36.25964876763386</v>
       </c>
       <c r="AK69">
         <v>77.5</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.01255599306034481</v>
+        <v>0.01255836991379309</v>
       </c>
       <c r="AZ69">
-        <v>0.0169225543505079</v>
+        <v>0.01692474272191346</v>
       </c>
       <c r="BA69">
         <v>-6.53E-05</v>
@@ -13680,7 +13680,7 @@
         <v>0.0017875</v>
       </c>
       <c r="BC69">
-        <v>0.009735000000000001</v>
+        <v>0.009739999999999999</v>
       </c>
       <c r="BD69">
         <v>0.0156</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.2980271321839081</v>
+        <v>0.2981343635057471</v>
       </c>
       <c r="BH69">
-        <v>0.2814805561000971</v>
+        <v>0.2816387818973909</v>
       </c>
       <c r="BI69">
         <v>-0.00274</v>
@@ -13707,7 +13707,7 @@
         <v>0.1495</v>
       </c>
       <c r="BL69">
-        <v>0.57</v>
+        <v>0.5702499999999999</v>
       </c>
       <c r="BM69">
         <v>1.2</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>5.295531609195405</v>
+        <v>5.295502873563221</v>
       </c>
       <c r="T70">
-        <v>0.5683070951476014</v>
+        <v>0.5683182612189196</v>
       </c>
       <c r="U70">
         <v>4.42</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>32.76232758620691</v>
+        <v>32.762183908046</v>
       </c>
       <c r="AR70">
-        <v>18.64486384921709</v>
+        <v>18.64466869931286</v>
       </c>
       <c r="AS70">
         <v>1.46</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.01265865058908046</v>
+        <v>0.01266333471264369</v>
       </c>
       <c r="AZ70">
-        <v>0.01709491985590256</v>
+        <v>0.01710491213704262</v>
       </c>
       <c r="BA70">
         <v>-3.09E-05</v>
@@ -13883,16 +13883,16 @@
         <v>0.0157</v>
       </c>
       <c r="BE70">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="BF70">
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.3001422327586203</v>
+        <v>0.3002383448275859</v>
       </c>
       <c r="BH70">
-        <v>0.282628698705681</v>
+        <v>0.2827360565860891</v>
       </c>
       <c r="BI70">
         <v>-0.0013</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>5.294784482758623</v>
+        <v>5.294755747126439</v>
       </c>
       <c r="T71">
-        <v>0.568564730497824</v>
+        <v>0.5685781312483181</v>
       </c>
       <c r="U71">
         <v>4.42</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>39.40646551724139</v>
+        <v>39.40632183908048</v>
       </c>
       <c r="AB71">
-        <v>2.498287443695625</v>
+        <v>2.49832524735958</v>
       </c>
       <c r="AC71">
         <v>35.5</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.01275865363505749</v>
+        <v>0.01276184300287358</v>
       </c>
       <c r="AZ71">
-        <v>0.017269742771175</v>
+        <v>0.01727226096970378</v>
       </c>
       <c r="BA71">
         <v>3.15E-06</v>
@@ -14074,10 +14074,10 @@
         <v>0.00183</v>
       </c>
       <c r="BC71">
-        <v>0.009930000000000001</v>
+        <v>0.009934999999999999</v>
       </c>
       <c r="BD71">
-        <v>0.015825</v>
+        <v>0.0159</v>
       </c>
       <c r="BE71">
         <v>0.108</v>
@@ -14086,13 +14086,13 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.3019962183908049</v>
+        <v>0.3020996623563221</v>
       </c>
       <c r="BH71">
-        <v>0.2833545338870332</v>
+        <v>0.2835013517246895</v>
       </c>
       <c r="BI71">
-        <v>0.000133</v>
+        <v>0.000132</v>
       </c>
       <c r="BJ71">
         <v>0.044775</v>
@@ -14104,7 +14104,7 @@
         <v>0.58</v>
       </c>
       <c r="BM71">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="72" spans="1:65">
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>5.293850574712643</v>
+        <v>5.29383620689655</v>
       </c>
       <c r="T72">
-        <v>0.5688469727082865</v>
+        <v>0.5688575668887582</v>
       </c>
       <c r="U72">
         <v>4.42</v>
@@ -14235,10 +14235,10 @@
         <v>696</v>
       </c>
       <c r="AQ72">
-        <v>32.75830459770118</v>
+        <v>32.75801724137934</v>
       </c>
       <c r="AR72">
-        <v>18.64132743750473</v>
+        <v>18.6410859698397</v>
       </c>
       <c r="AS72">
         <v>1.46</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01285737852011493</v>
+        <v>0.01286058237068965</v>
       </c>
       <c r="AZ72">
-        <v>0.01743847813536257</v>
+        <v>0.01744087714386649</v>
       </c>
       <c r="BA72">
         <v>4.78E-06</v>
@@ -14271,7 +14271,7 @@
         <v>0.00191</v>
       </c>
       <c r="BC72">
-        <v>0.010015</v>
+        <v>0.01002</v>
       </c>
       <c r="BD72">
         <v>0.016</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.3039695517241383</v>
+        <v>0.3040571867816096</v>
       </c>
       <c r="BH72">
-        <v>0.2846000525148719</v>
+        <v>0.2846999328773963</v>
       </c>
       <c r="BI72">
         <v>0.000237</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>5.293505747126437</v>
+        <v>5.293477011494253</v>
       </c>
       <c r="T73">
-        <v>0.5689344400624956</v>
+        <v>0.5689232359392886</v>
       </c>
       <c r="U73">
         <v>4.42</v>
@@ -14384,10 +14384,10 @@
         <v>696</v>
       </c>
       <c r="AA73">
-        <v>39.40459770114943</v>
+        <v>39.4044540229885</v>
       </c>
       <c r="AB73">
-        <v>2.499814464296978</v>
+        <v>2.500019048137141</v>
       </c>
       <c r="AC73">
         <v>35.5</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.0129534404454023</v>
+        <v>0.01295625899425288</v>
       </c>
       <c r="AZ73">
-        <v>0.01759418497983041</v>
+        <v>0.01759573296357182</v>
       </c>
       <c r="BA73">
         <v>4.9E-06</v>
@@ -14468,7 +14468,7 @@
         <v>0.0019775</v>
       </c>
       <c r="BC73">
-        <v>0.0101</v>
+        <v>0.010105</v>
       </c>
       <c r="BD73">
         <v>0.0161</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.3058475014367818</v>
+        <v>0.3059439037356323</v>
       </c>
       <c r="BH73">
-        <v>0.2855326714642491</v>
+        <v>0.2856325756038466</v>
       </c>
       <c r="BI73">
         <v>0.000242</v>
@@ -14533,10 +14533,10 @@
         <v>696</v>
       </c>
       <c r="K74">
-        <v>39.41666666666669</v>
+        <v>39.41652298850577</v>
       </c>
       <c r="L74">
-        <v>2.48891836513321</v>
+        <v>2.489112981076652</v>
       </c>
       <c r="M74">
         <v>35.5</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>5.293045977011491</v>
+        <v>5.293031609195399</v>
       </c>
       <c r="T74">
-        <v>0.5688551452701633</v>
+        <v>0.568849783947628</v>
       </c>
       <c r="U74">
         <v>4.42</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>32.7559195402299</v>
+        <v>32.75577586206898</v>
       </c>
       <c r="AR74">
-        <v>18.63893571588397</v>
+        <v>18.63874199837702</v>
       </c>
       <c r="AS74">
         <v>1.46</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.01304053211206897</v>
+        <v>0.01304353538793103</v>
       </c>
       <c r="AZ74">
-        <v>0.01775168039590523</v>
+        <v>0.01776018637448339</v>
       </c>
       <c r="BA74">
         <v>5.1E-06</v>
@@ -14665,25 +14665,25 @@
         <v>0.002</v>
       </c>
       <c r="BC74">
-        <v>0.01018</v>
+        <v>0.010185</v>
       </c>
       <c r="BD74">
-        <v>0.0162</v>
+        <v>0.016225</v>
       </c>
       <c r="BE74">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="BF74">
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.3074364410919543</v>
+        <v>0.3075240890804603</v>
       </c>
       <c r="BH74">
-        <v>0.2860438324849104</v>
+        <v>0.2861494429352485</v>
       </c>
       <c r="BI74">
-        <v>0.000249</v>
+        <v>0.00025</v>
       </c>
       <c r="BJ74">
         <v>0.046925</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>5.292629310344823</v>
+        <v>5.292614942528731</v>
       </c>
       <c r="T75">
-        <v>0.5688401532464313</v>
+        <v>0.5688297222862529</v>
       </c>
       <c r="U75">
         <v>4.42</v>
@@ -14778,10 +14778,10 @@
         <v>696</v>
       </c>
       <c r="AA75">
-        <v>39.40287356321839</v>
+        <v>39.40272988505747</v>
       </c>
       <c r="AB75">
-        <v>2.501497178417559</v>
+        <v>2.501655513213008</v>
       </c>
       <c r="AC75">
         <v>35.5</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>32.75360632183908</v>
+        <v>32.75346264367816</v>
       </c>
       <c r="AR75">
-        <v>18.63742372847498</v>
+        <v>18.63732416474059</v>
       </c>
       <c r="AS75">
         <v>1.46</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.01312772363505746</v>
+        <v>0.01313099945402298</v>
       </c>
       <c r="AZ75">
-        <v>0.0179141377519346</v>
+        <v>0.01791679113654775</v>
       </c>
       <c r="BA75">
         <v>5.19E-06</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.3089926264367815</v>
+        <v>0.3090861537356321</v>
       </c>
       <c r="BH75">
-        <v>0.2867114289870312</v>
+        <v>0.2868209143917335</v>
       </c>
       <c r="BI75">
         <v>0.000254</v>
@@ -14889,7 +14889,7 @@
         <v>0.152</v>
       </c>
       <c r="BL75">
-        <v>0.598</v>
+        <v>0.5982499999999999</v>
       </c>
       <c r="BM75">
         <v>1.1</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.01321374538793105</v>
+        <v>0.01321792790229887</v>
       </c>
       <c r="AZ76">
-        <v>0.01806323523093769</v>
+        <v>0.01806659727047205</v>
       </c>
       <c r="BA76">
         <v>5.24E-06</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.3106418922413794</v>
+        <v>0.3107394511494254</v>
       </c>
       <c r="BH76">
-        <v>0.2875856260803505</v>
+        <v>0.2877188614920268</v>
       </c>
       <c r="BI76">
         <v>0.000257</v>
@@ -15086,7 +15086,7 @@
         <v>0.153</v>
       </c>
       <c r="BL76">
-        <v>0.60225</v>
+        <v>0.603</v>
       </c>
       <c r="BM76">
         <v>1.09</v>
@@ -15244,13 +15244,13 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.01329972288793102</v>
+        <v>0.01330232301724137</v>
       </c>
       <c r="AZ77">
-        <v>0.01821230859545388</v>
+        <v>0.01821396215740866</v>
       </c>
       <c r="BA77">
-        <v>5.33E-06</v>
+        <v>5.32E-06</v>
       </c>
       <c r="BB77">
         <v>0.00204</v>
@@ -15268,13 +15268,13 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.3122869195402295</v>
+        <v>0.3123859094827584</v>
       </c>
       <c r="BH77">
-        <v>0.2885242786282522</v>
+        <v>0.2886318439137764</v>
       </c>
       <c r="BI77">
-        <v>0.000261</v>
+        <v>0.00026</v>
       </c>
       <c r="BJ77">
         <v>0.04795</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>5.291379310344828</v>
+        <v>5.291364942528736</v>
       </c>
       <c r="T78">
-        <v>0.5690611678468128</v>
+        <v>0.5690479279666714</v>
       </c>
       <c r="U78">
         <v>4.41</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>32.74747126436781</v>
+        <v>32.74718390804597</v>
       </c>
       <c r="AR78">
-        <v>18.6339207113884</v>
+        <v>18.63371527269779</v>
       </c>
       <c r="AS78">
         <v>1.46</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.01339233571839079</v>
+        <v>0.01339657739942528</v>
       </c>
       <c r="AZ78">
-        <v>0.01837214457806635</v>
+        <v>0.01838143181443247</v>
       </c>
       <c r="BA78">
         <v>5.42E-06</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.3140987988505747</v>
+        <v>0.3141996594827587</v>
       </c>
       <c r="BH78">
-        <v>0.2900924970263716</v>
+        <v>0.2902062997623269</v>
       </c>
       <c r="BI78">
         <v>0.000266</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>5.290617816091952</v>
+        <v>5.290589080459768</v>
       </c>
       <c r="T79">
-        <v>0.5689824747766785</v>
+        <v>0.5689744130457323</v>
       </c>
       <c r="U79">
         <v>4.41</v>
@@ -15566,10 +15566,10 @@
         <v>696</v>
       </c>
       <c r="AA79">
-        <v>39.39928160919539</v>
+        <v>39.39913793103447</v>
       </c>
       <c r="AB79">
-        <v>2.504697641340965</v>
+        <v>2.504918753333883</v>
       </c>
       <c r="AC79">
         <v>35.5</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>124.6836206896551</v>
+        <v>124.6834770114942</v>
       </c>
       <c r="AJ79">
-        <v>36.15841471018548</v>
+        <v>36.15858674869333</v>
       </c>
       <c r="AK79">
         <v>77.40000000000001</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01348976464080462</v>
+        <v>0.0134941324856322</v>
       </c>
       <c r="AZ79">
-        <v>0.01852971267517169</v>
+        <v>0.01853886457255454</v>
       </c>
       <c r="BA79">
         <v>5.43E-06</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.3161558836206891</v>
+        <v>0.3162392227011489</v>
       </c>
       <c r="BH79">
-        <v>0.291928099874431</v>
+        <v>0.2920193630296007</v>
       </c>
       <c r="BI79">
         <v>0.000267</v>
@@ -15715,10 +15715,10 @@
         <v>696</v>
       </c>
       <c r="K80">
-        <v>39.41336206896553</v>
+        <v>39.41321839080461</v>
       </c>
       <c r="L80">
-        <v>2.493076956093656</v>
+        <v>2.493282598556692</v>
       </c>
       <c r="M80">
         <v>35.5</v>
@@ -15835,13 +15835,13 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.01357644817528737</v>
+        <v>0.01357913681034484</v>
       </c>
       <c r="AZ80">
-        <v>0.01868880013924636</v>
+        <v>0.01869055408887911</v>
       </c>
       <c r="BA80">
-        <v>5.64E-06</v>
+        <v>5.63E-06</v>
       </c>
       <c r="BB80">
         <v>0.0020775</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.3178479841954023</v>
+        <v>0.3179528678160921</v>
       </c>
       <c r="BH80">
-        <v>0.292977432816001</v>
+        <v>0.2930972451153787</v>
       </c>
       <c r="BI80">
         <v>0.000274</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>5.289755747126438</v>
+        <v>5.289741379310346</v>
       </c>
       <c r="T81">
-        <v>0.5688102672339939</v>
+        <v>0.5688010278454978</v>
       </c>
       <c r="U81">
         <v>4.41</v>
@@ -16032,13 +16032,13 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01366082783045977</v>
+        <v>0.01366520969827587</v>
       </c>
       <c r="AZ81">
-        <v>0.01884063171021553</v>
+        <v>0.01885038928817944</v>
       </c>
       <c r="BA81">
-        <v>5.79E-06</v>
+        <v>5.8E-06</v>
       </c>
       <c r="BB81">
         <v>0.0020875</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.3194870589080459</v>
+        <v>0.3195833175287355</v>
       </c>
       <c r="BH81">
-        <v>0.2941484219494039</v>
+        <v>0.294258197349944</v>
       </c>
       <c r="BI81">
         <v>0.00028</v>
@@ -16071,7 +16071,7 @@
         <v>0.164</v>
       </c>
       <c r="BL81">
-        <v>0.623</v>
+        <v>0.62325</v>
       </c>
       <c r="BM81">
         <v>1.08</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>5.289525862068965</v>
+        <v>5.289511494252872</v>
       </c>
       <c r="T82">
-        <v>0.5686153110777631</v>
+        <v>0.5686288366100742</v>
       </c>
       <c r="U82">
         <v>4.41</v>
@@ -16157,10 +16157,10 @@
         <v>696</v>
       </c>
       <c r="AA82">
-        <v>39.39784482758619</v>
+        <v>39.39770114942527</v>
       </c>
       <c r="AB82">
-        <v>2.505788052851827</v>
+        <v>2.505888409740269</v>
       </c>
       <c r="AC82">
         <v>35.5</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.01373886893678161</v>
+        <v>0.01374335168103449</v>
       </c>
       <c r="AZ82">
-        <v>0.0189756312543631</v>
+        <v>0.01898523918431276</v>
       </c>
       <c r="BA82">
         <v>5.87E-06</v>
@@ -16244,22 +16244,22 @@
         <v>0.01055</v>
       </c>
       <c r="BD82">
-        <v>0.0168</v>
+        <v>0.016825</v>
       </c>
       <c r="BE82">
-        <v>0.115</v>
+        <v>0.116</v>
       </c>
       <c r="BF82">
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.3210089195402301</v>
+        <v>0.3211155172413794</v>
       </c>
       <c r="BH82">
-        <v>0.295104455254393</v>
+        <v>0.295223285616582</v>
       </c>
       <c r="BI82">
-        <v>0.000284</v>
+        <v>0.000283</v>
       </c>
       <c r="BJ82">
         <v>0.0499</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>5.289252873563217</v>
+        <v>5.289224137931033</v>
       </c>
       <c r="T83">
-        <v>0.5687393752591319</v>
+        <v>0.5687449024636546</v>
       </c>
       <c r="U83">
         <v>4.41</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>124.6612068965517</v>
+        <v>124.6597701149425</v>
       </c>
       <c r="AJ83">
-        <v>36.11859786363298</v>
+        <v>36.11677171857328</v>
       </c>
       <c r="AK83">
         <v>77.40000000000001</v>
@@ -16426,13 +16426,13 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.0138231661781609</v>
+        <v>0.01382583918103447</v>
       </c>
       <c r="AZ83">
-        <v>0.01914107652459825</v>
+        <v>0.01914275730514942</v>
       </c>
       <c r="BA83">
-        <v>5.98E-06</v>
+        <v>5.97E-06</v>
       </c>
       <c r="BB83">
         <v>0.002115</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.3225471063218393</v>
+        <v>0.3226577385057474</v>
       </c>
       <c r="BH83">
-        <v>0.2962608531086499</v>
+        <v>0.2964025867145803</v>
       </c>
       <c r="BI83">
         <v>0.000287</v>
@@ -16503,10 +16503,10 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>39.41278735632185</v>
+        <v>39.41264367816093</v>
       </c>
       <c r="L84">
-        <v>2.493841679053668</v>
+        <v>2.493989533313344</v>
       </c>
       <c r="M84">
         <v>35.5</v>
@@ -16527,10 +16527,10 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>5.288908045977012</v>
+        <v>5.28889367816092</v>
       </c>
       <c r="T84">
-        <v>0.5688688386272081</v>
+        <v>0.5688671667688355</v>
       </c>
       <c r="U84">
         <v>4.41</v>
@@ -16599,10 +16599,10 @@
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>32.73876436781607</v>
+        <v>32.73862068965516</v>
       </c>
       <c r="AR84">
-        <v>18.62627416866475</v>
+        <v>18.62599598518398</v>
       </c>
       <c r="AS84">
         <v>1.46</v>
@@ -16623,13 +16623,13 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01390328086206896</v>
+        <v>0.01390693158045977</v>
       </c>
       <c r="AZ84">
-        <v>0.01927109984357368</v>
+        <v>0.01928007824493714</v>
       </c>
       <c r="BA84">
-        <v>6.05E-06</v>
+        <v>6.06E-06</v>
       </c>
       <c r="BB84">
         <v>0.002125</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.3242415517241382</v>
+        <v>0.3243450114942533</v>
       </c>
       <c r="BH84">
-        <v>0.2978660800494511</v>
+        <v>0.2979843671431497</v>
       </c>
       <c r="BI84">
         <v>0.000291</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.01399686129310346</v>
+        <v>0.01399995018678162</v>
       </c>
       <c r="AZ85">
-        <v>0.01943574185299262</v>
+        <v>0.0194382857194758</v>
       </c>
       <c r="BA85">
         <v>5.99E-06</v>
@@ -16832,7 +16832,7 @@
         <v>0.002135</v>
       </c>
       <c r="BC85">
-        <v>0.01065</v>
+        <v>0.0107</v>
       </c>
       <c r="BD85">
         <v>0.0171</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.3262363333333332</v>
+        <v>0.3263499856321839</v>
       </c>
       <c r="BH85">
-        <v>0.3000694345117899</v>
+        <v>0.300200923581974</v>
       </c>
       <c r="BI85">
         <v>0.000291</v>
@@ -16859,7 +16859,7 @@
         <v>0.172</v>
       </c>
       <c r="BL85">
-        <v>0.63625</v>
+        <v>0.6365000000000001</v>
       </c>
       <c r="BM85">
         <v>1.14</v>
@@ -16993,10 +16993,10 @@
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>32.73495689655172</v>
+        <v>32.73494252873562</v>
       </c>
       <c r="AR86">
-        <v>18.62202127206207</v>
+        <v>18.62204129163063</v>
       </c>
       <c r="AS86">
         <v>1.46</v>
@@ -17017,10 +17017,10 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01408665590517241</v>
+        <v>0.01409203063218391</v>
       </c>
       <c r="AZ86">
-        <v>0.01958257888258042</v>
+        <v>0.01959283423479057</v>
       </c>
       <c r="BA86">
         <v>6.13E-06</v>
@@ -17032,7 +17032,7 @@
         <v>0.01075</v>
       </c>
       <c r="BD86">
-        <v>0.017125</v>
+        <v>0.0172</v>
       </c>
       <c r="BE86">
         <v>0.121</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.3282586278735632</v>
+        <v>0.3283564712643678</v>
       </c>
       <c r="BH86">
-        <v>0.302025185325789</v>
+        <v>0.3021295043073186</v>
       </c>
       <c r="BI86">
         <v>0.000296</v>
@@ -17056,7 +17056,7 @@
         <v>0.1725</v>
       </c>
       <c r="BL86">
-        <v>0.64025</v>
+        <v>0.641</v>
       </c>
       <c r="BM86">
         <v>1.14</v>
@@ -17118,10 +17118,10 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>5.287571839080457</v>
+        <v>5.28751436781609</v>
       </c>
       <c r="T87">
-        <v>0.5693098136309165</v>
+        <v>0.5693083015724536</v>
       </c>
       <c r="U87">
         <v>4.41</v>
@@ -17133,7 +17133,7 @@
         <v>5.21</v>
       </c>
       <c r="X87">
-        <v>5.6425</v>
+        <v>5.635</v>
       </c>
       <c r="Y87">
         <v>6.63</v>
@@ -17166,10 +17166,10 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>124.6272988505747</v>
+        <v>124.6258620689655</v>
       </c>
       <c r="AJ87">
-        <v>36.0907983912885</v>
+        <v>36.08920870381173</v>
       </c>
       <c r="AK87">
         <v>77.40000000000001</v>
@@ -17214,13 +17214,13 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01417286261494254</v>
+        <v>0.01417584992816093</v>
       </c>
       <c r="AZ87">
-        <v>0.01972730745241979</v>
+        <v>0.01972939361123307</v>
       </c>
       <c r="BA87">
-        <v>6.17E-06</v>
+        <v>6.18E-06</v>
       </c>
       <c r="BB87">
         <v>0.00216</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.3301097097701149</v>
+        <v>0.3302088433908045</v>
       </c>
       <c r="BH87">
-        <v>0.303695483058749</v>
+        <v>0.3038042790219345</v>
       </c>
       <c r="BI87">
         <v>0.000298</v>
@@ -17291,10 +17291,10 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>39.41120689655172</v>
+        <v>39.41106321839079</v>
       </c>
       <c r="L88">
-        <v>2.49390987306557</v>
+        <v>2.49404032471839</v>
       </c>
       <c r="M88">
         <v>35.5</v>
@@ -17315,10 +17315,10 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>5.286738505747126</v>
+        <v>5.286709770114942</v>
       </c>
       <c r="T88">
-        <v>0.5694307348029215</v>
+        <v>0.5694159135042581</v>
       </c>
       <c r="U88">
         <v>4.41</v>
@@ -17411,13 +17411,13 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01426129000000001</v>
+        <v>0.01426465033045977</v>
       </c>
       <c r="AZ88">
-        <v>0.01988263751078286</v>
+        <v>0.0198849523443135</v>
       </c>
       <c r="BA88">
-        <v>6.29E-06</v>
+        <v>6.28E-06</v>
       </c>
       <c r="BB88">
         <v>0.0021775</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.3320349037356322</v>
+        <v>0.3321327528735631</v>
       </c>
       <c r="BH88">
-        <v>0.3056631140168746</v>
+        <v>0.3057695273414144</v>
       </c>
       <c r="BI88">
         <v>0.000303</v>
@@ -17512,10 +17512,10 @@
         <v>696</v>
       </c>
       <c r="S89">
-        <v>5.28617816091954</v>
+        <v>5.286163793103447</v>
       </c>
       <c r="T89">
-        <v>0.569478663401124</v>
+        <v>0.5694857674431096</v>
       </c>
       <c r="U89">
         <v>4.41</v>
@@ -17536,10 +17536,10 @@
         <v>696</v>
       </c>
       <c r="AA89">
-        <v>39.39468390804596</v>
+        <v>39.39454022988505</v>
       </c>
       <c r="AB89">
-        <v>2.508027494731786</v>
+        <v>2.508242312962902</v>
       </c>
       <c r="AC89">
         <v>35.5</v>
@@ -17608,13 +17608,13 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.01435231341954022</v>
+        <v>0.01435610596264368</v>
       </c>
       <c r="AZ89">
-        <v>0.02004776179289612</v>
+        <v>0.02004972792706631</v>
       </c>
       <c r="BA89">
-        <v>6.33E-06</v>
+        <v>6.34E-06</v>
       </c>
       <c r="BB89">
         <v>0.002185</v>
@@ -17632,10 +17632,10 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.333969173850575</v>
+        <v>0.3340727758620693</v>
       </c>
       <c r="BH89">
-        <v>0.30763247705451</v>
+        <v>0.307745806177567</v>
       </c>
       <c r="BI89">
         <v>0.000305</v>
@@ -17647,7 +17647,7 @@
         <v>0.1725</v>
       </c>
       <c r="BL89">
-        <v>0.65125</v>
+        <v>0.6515</v>
       </c>
       <c r="BM89">
         <v>1.18</v>
@@ -17709,10 +17709,10 @@
         <v>696</v>
       </c>
       <c r="S90">
-        <v>5.285704022988505</v>
+        <v>5.285675287356321</v>
       </c>
       <c r="T90">
-        <v>0.5694380102551642</v>
+        <v>0.5694223788095496</v>
       </c>
       <c r="U90">
         <v>4.41</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>124.6172413793104</v>
+        <v>124.6170977011494</v>
       </c>
       <c r="AJ90">
-        <v>36.08289802171176</v>
+        <v>36.08308610597836</v>
       </c>
       <c r="AK90">
         <v>77.40000000000001</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>32.7307183908046</v>
+        <v>32.73070402298851</v>
       </c>
       <c r="AR90">
-        <v>18.62070585100488</v>
+        <v>18.62072587643965</v>
       </c>
       <c r="AS90">
         <v>1.46</v>
@@ -17805,10 +17805,10 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01443769182471264</v>
+        <v>0.01444056704022988</v>
       </c>
       <c r="AZ90">
-        <v>0.02018490965872451</v>
+        <v>0.02018648760462406</v>
       </c>
       <c r="BA90">
         <v>6.42E-06</v>
@@ -17829,13 +17829,13 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.3358788347701143</v>
+        <v>0.3359650445402293</v>
       </c>
       <c r="BH90">
-        <v>0.309377349911629</v>
+        <v>0.3094779580932601</v>
       </c>
       <c r="BI90">
-        <v>0.000308</v>
+        <v>0.000309</v>
       </c>
       <c r="BJ90">
         <v>0.052225</v>
@@ -17906,10 +17906,10 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>5.285344827586206</v>
+        <v>5.285330459770114</v>
       </c>
       <c r="T91">
-        <v>0.5693660708625577</v>
+        <v>0.5693711335864461</v>
       </c>
       <c r="U91">
         <v>4.41</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>32.72910919540229</v>
+        <v>32.72896551724138</v>
       </c>
       <c r="AR91">
-        <v>18.61894136686056</v>
+        <v>18.61877505476171</v>
       </c>
       <c r="AS91">
         <v>1.46</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.01452537360632184</v>
+        <v>0.01452877787356322</v>
       </c>
       <c r="AZ91">
-        <v>0.02033184777532113</v>
+        <v>0.02033426043330609</v>
       </c>
       <c r="BA91">
         <v>6.4E-06</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.3378230933908049</v>
+        <v>0.337919350574713</v>
       </c>
       <c r="BH91">
-        <v>0.3113591696515167</v>
+        <v>0.311466190957617</v>
       </c>
       <c r="BI91">
         <v>0.000309</v>
@@ -18103,10 +18103,10 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>5.284971264367814</v>
+        <v>5.284928160919539</v>
       </c>
       <c r="T92">
-        <v>0.5693813371429941</v>
+        <v>0.5693959899690831</v>
       </c>
       <c r="U92">
         <v>4.41</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>32.72709770114943</v>
+        <v>32.72695402298851</v>
       </c>
       <c r="AR92">
-        <v>18.61697910481188</v>
+        <v>18.61692328058783</v>
       </c>
       <c r="AS92">
         <v>1.46</v>
@@ -18199,13 +18199,13 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01462279877873561</v>
+        <v>0.01462604594827584</v>
       </c>
       <c r="AZ92">
-        <v>0.02050010202683487</v>
+        <v>0.02050832263251789</v>
       </c>
       <c r="BA92">
-        <v>6.47E-06</v>
+        <v>6.46E-06</v>
       </c>
       <c r="BB92">
         <v>0.00222</v>
@@ -18223,10 +18223,10 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.3399708074712643</v>
+        <v>0.3400873362068965</v>
       </c>
       <c r="BH92">
-        <v>0.3137799615510504</v>
+        <v>0.3139060412187643</v>
       </c>
       <c r="BI92">
         <v>0.000312</v>
@@ -18238,7 +18238,7 @@
         <v>0.1735</v>
       </c>
       <c r="BL92">
-        <v>0.663</v>
+        <v>0.66325</v>
       </c>
       <c r="BM92">
         <v>1.23</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>39.40962643678159</v>
+        <v>39.40948275862068</v>
       </c>
       <c r="L93">
-        <v>2.495805258634316</v>
+        <v>2.496027754697508</v>
       </c>
       <c r="M93">
         <v>35.5</v>
@@ -18372,10 +18372,10 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>32.7246551724138</v>
+        <v>32.72451149425287</v>
       </c>
       <c r="AR93">
-        <v>18.61495168051674</v>
+        <v>18.61483631365155</v>
       </c>
       <c r="AS93">
         <v>1.46</v>
@@ -18396,13 +18396,13 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01471441096264366</v>
+        <v>0.01471925370689653</v>
       </c>
       <c r="AZ93">
-        <v>0.02064934718395887</v>
+        <v>0.02065998957562018</v>
       </c>
       <c r="BA93">
-        <v>6.51E-06</v>
+        <v>6.52E-06</v>
       </c>
       <c r="BB93">
         <v>0.00223</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.3421608491379303</v>
+        <v>0.3422629999999993</v>
       </c>
       <c r="BH93">
-        <v>0.3160703786982109</v>
+        <v>0.3161809734641075</v>
       </c>
       <c r="BI93">
         <v>0.000314</v>
@@ -18435,7 +18435,7 @@
         <v>0.1735</v>
       </c>
       <c r="BL93">
-        <v>0.667</v>
+        <v>0.66725</v>
       </c>
       <c r="BM93">
         <v>1.23</v>
@@ -18521,10 +18521,10 @@
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>39.39238505747124</v>
+        <v>39.39224137931033</v>
       </c>
       <c r="AB94">
-        <v>2.510194936625986</v>
+        <v>2.51031199971175</v>
       </c>
       <c r="AC94">
         <v>35.5</v>
@@ -18569,10 +18569,10 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>32.72271551724137</v>
+        <v>32.72257183908045</v>
       </c>
       <c r="AR94">
-        <v>18.61461789502935</v>
+        <v>18.6147637738045</v>
       </c>
       <c r="AS94">
         <v>1.46</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01480721479885058</v>
+        <v>0.01481294747126437</v>
       </c>
       <c r="AZ94">
-        <v>0.02080214595979455</v>
+        <v>0.02081315428688268</v>
       </c>
       <c r="BA94">
         <v>6.63E-06</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.3442971767241381</v>
+        <v>0.3444106867816095</v>
       </c>
       <c r="BH94">
-        <v>0.318365944169319</v>
+        <v>0.3184896296741309</v>
       </c>
       <c r="BI94">
         <v>0.000318</v>
@@ -18694,10 +18694,10 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>5.283563218390804</v>
+        <v>5.283520114942528</v>
       </c>
       <c r="T95">
-        <v>0.5692205490034214</v>
+        <v>0.5692224606133783</v>
       </c>
       <c r="U95">
         <v>4.41</v>
@@ -18718,10 +18718,10 @@
         <v>696</v>
       </c>
       <c r="AA95">
-        <v>39.39181034482756</v>
+        <v>39.39166666666664</v>
       </c>
       <c r="AB95">
-        <v>2.510525560204396</v>
+        <v>2.510596726529648</v>
       </c>
       <c r="AC95">
         <v>35.5</v>
@@ -18790,10 +18790,10 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01490540801724138</v>
+        <v>0.01490865237068965</v>
       </c>
       <c r="AZ95">
-        <v>0.02097440301852433</v>
+        <v>0.02097696252679748</v>
       </c>
       <c r="BA95">
         <v>6.6E-06</v>
@@ -18802,7 +18802,7 @@
         <v>0.0022475</v>
       </c>
       <c r="BC95">
-        <v>0.01105</v>
+        <v>0.0111</v>
       </c>
       <c r="BD95">
         <v>0.01795</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.3464215732758616</v>
+        <v>0.3465408204022986</v>
       </c>
       <c r="BH95">
-        <v>0.3208266932623786</v>
+        <v>0.3209576274293449</v>
       </c>
       <c r="BI95">
         <v>0.000318</v>
@@ -18829,7 +18829,7 @@
         <v>0.1735</v>
       </c>
       <c r="BL95">
-        <v>0.67525</v>
+        <v>0.676</v>
       </c>
       <c r="BM95">
         <v>1.3</v>
@@ -18891,13 +18891,13 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>5.282959770114942</v>
+        <v>5.282931034482758</v>
       </c>
       <c r="T96">
-        <v>0.5691580338042987</v>
+        <v>0.5691576771194118</v>
       </c>
       <c r="U96">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="V96">
         <v>4.84</v>
@@ -18963,10 +18963,10 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>32.71954022988505</v>
+        <v>32.71925287356321</v>
       </c>
       <c r="AR96">
-        <v>18.61322771126687</v>
+        <v>18.612839948589</v>
       </c>
       <c r="AS96">
         <v>1.46</v>
@@ -18987,13 +18987,13 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01499873761494255</v>
+        <v>0.01500142441091956</v>
       </c>
       <c r="AZ96">
-        <v>0.02112795388908737</v>
+        <v>0.02112934134270956</v>
       </c>
       <c r="BA96">
-        <v>6.65E-06</v>
+        <v>6.64E-06</v>
       </c>
       <c r="BB96">
         <v>0.002255</v>
@@ -19011,10 +19011,10 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.3486064870689656</v>
+        <v>0.348715827586207</v>
       </c>
       <c r="BH96">
-        <v>0.3231766631419941</v>
+        <v>0.323293714170318</v>
       </c>
       <c r="BI96">
         <v>0.00032</v>
@@ -19064,10 +19064,10 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>39.40603448275862</v>
+        <v>39.4058908045977</v>
       </c>
       <c r="L97">
-        <v>2.49921848365145</v>
+        <v>2.499434712406866</v>
       </c>
       <c r="M97">
         <v>35.5</v>
@@ -19184,13 +19184,13 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01508941234195403</v>
+        <v>0.01509248646551724</v>
       </c>
       <c r="AZ97">
-        <v>0.02128094534520177</v>
+        <v>0.02128280686331977</v>
       </c>
       <c r="BA97">
-        <v>6.73E-06</v>
+        <v>6.72E-06</v>
       </c>
       <c r="BB97">
         <v>0.002265</v>
@@ -19208,10 +19208,10 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.3506796278735634</v>
+        <v>0.350799011494253</v>
       </c>
       <c r="BH97">
-        <v>0.3250737633099008</v>
+        <v>0.3252123880625943</v>
       </c>
       <c r="BI97">
         <v>0.000323</v>
@@ -19223,7 +19223,7 @@
         <v>0.1745</v>
       </c>
       <c r="BL97">
-        <v>0.6840000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="BM97">
         <v>1.3</v>
@@ -19381,13 +19381,13 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.0151725710775862</v>
+        <v>0.01517655152298851</v>
       </c>
       <c r="AZ98">
-        <v>0.02144036020260617</v>
+        <v>0.02144331720257665</v>
       </c>
       <c r="BA98">
-        <v>6.85E-06</v>
+        <v>6.87E-06</v>
       </c>
       <c r="BB98">
         <v>0.002265</v>
@@ -19405,13 +19405,13 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.3523966767241377</v>
+        <v>0.3525029971264366</v>
       </c>
       <c r="BH98">
-        <v>0.3263154692554016</v>
+        <v>0.3264264656227823</v>
       </c>
       <c r="BI98">
-        <v>0.000327</v>
+        <v>0.000328</v>
       </c>
       <c r="BJ98">
         <v>0.05445</v>
@@ -19578,13 +19578,13 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.01525109466954023</v>
+        <v>0.01525552066091954</v>
       </c>
       <c r="AZ99">
-        <v>0.02157792352070183</v>
+        <v>0.02158836578593815</v>
       </c>
       <c r="BA99">
-        <v>6.88E-06</v>
+        <v>6.89E-06</v>
       </c>
       <c r="BB99">
         <v>0.002275</v>
@@ -19602,10 +19602,10 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.3540410603448276</v>
+        <v>0.3541443620689656</v>
       </c>
       <c r="BH99">
-        <v>0.3276493768922262</v>
+        <v>0.3277562031890983</v>
       </c>
       <c r="BI99">
         <v>0.000329</v>
@@ -19679,10 +19679,10 @@
         <v>696</v>
       </c>
       <c r="S100">
-        <v>5.281982758620692</v>
+        <v>5.281954022988508</v>
       </c>
       <c r="T100">
-        <v>0.5695512101622392</v>
+        <v>0.569554846404566</v>
       </c>
       <c r="U100">
         <v>4.4</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.0153321495689655</v>
+        <v>0.01533554066091953</v>
       </c>
       <c r="AZ100">
-        <v>0.02171830445828011</v>
+        <v>0.02172082557945169</v>
       </c>
       <c r="BA100">
         <v>6.93E-06</v>
@@ -19799,10 +19799,10 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.355784971264368</v>
+        <v>0.35589029454023</v>
       </c>
       <c r="BH100">
-        <v>0.3293605313647948</v>
+        <v>0.3294655286735285</v>
       </c>
       <c r="BI100">
         <v>0.000331</v>
@@ -19814,7 +19814,7 @@
         <v>0.1745</v>
       </c>
       <c r="BL100">
-        <v>0.6962499999999999</v>
+        <v>0.697</v>
       </c>
       <c r="BM100">
         <v>1.3</v>
@@ -19876,10 +19876,10 @@
         <v>696</v>
       </c>
       <c r="S101">
-        <v>5.281867816091957</v>
+        <v>5.281853448275865</v>
       </c>
       <c r="T101">
-        <v>0.5695533676639802</v>
+        <v>0.569565919595854</v>
       </c>
       <c r="U101">
         <v>4.4</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>32.71160919540232</v>
+        <v>32.71158045977014</v>
       </c>
       <c r="AR101">
-        <v>18.60674128620205</v>
+        <v>18.60678344089967</v>
       </c>
       <c r="AS101">
         <v>1.46</v>
@@ -19972,13 +19972,13 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.01541716343390801</v>
+        <v>0.0154214297557471</v>
       </c>
       <c r="AZ101">
-        <v>0.02187492520360331</v>
+        <v>0.02187823902548491</v>
       </c>
       <c r="BA101">
-        <v>7.01E-06</v>
+        <v>7.02E-06</v>
       </c>
       <c r="BB101">
         <v>0.00229</v>
@@ -19996,10 +19996,10 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.3575795474137932</v>
+        <v>0.3576917428160923</v>
       </c>
       <c r="BH101">
-        <v>0.3312824958145673</v>
+        <v>0.3314062337895112</v>
       </c>
       <c r="BI101">
         <v>0.000334</v>
@@ -20011,7 +20011,7 @@
         <v>0.1745</v>
       </c>
       <c r="BL101">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="BM101">
         <v>1.32</v>
@@ -20073,10 +20073,10 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>5.281336206896555</v>
+        <v>5.281307471264371</v>
       </c>
       <c r="T102">
-        <v>0.5696820485521464</v>
+        <v>0.5696672134697359</v>
       </c>
       <c r="U102">
         <v>4.4</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>124.5640804597701</v>
+        <v>124.5626436781609</v>
       </c>
       <c r="AJ102">
-        <v>36.02938133580699</v>
+        <v>36.02850527603628</v>
       </c>
       <c r="AK102">
         <v>77.40000000000001</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>32.71007183908048</v>
+        <v>32.70977011494256</v>
       </c>
       <c r="AR102">
-        <v>18.60597999701999</v>
+        <v>18.60564523920685</v>
       </c>
       <c r="AS102">
         <v>1.46</v>
@@ -20169,13 +20169,13 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.01550391609195401</v>
+        <v>0.01550775218390803</v>
       </c>
       <c r="AZ102">
-        <v>0.02203466307254146</v>
+        <v>0.02203737820943839</v>
       </c>
       <c r="BA102">
-        <v>7.09E-06</v>
+        <v>7.1E-06</v>
       </c>
       <c r="BB102">
         <v>0.0023</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.3594859784482756</v>
+        <v>0.3595938864942529</v>
       </c>
       <c r="BH102">
-        <v>0.333483253246611</v>
+        <v>0.3336037014266045</v>
       </c>
       <c r="BI102">
         <v>0.000337</v>
@@ -20270,10 +20270,10 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>5.280790229885055</v>
+        <v>5.280747126436779</v>
       </c>
       <c r="T103">
-        <v>0.5697052947267202</v>
+        <v>0.5697150764523039</v>
       </c>
       <c r="U103">
         <v>4.4</v>
@@ -20318,10 +20318,10 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>124.5425287356322</v>
+        <v>124.541091954023</v>
       </c>
       <c r="AJ103">
-        <v>36.00080816737603</v>
+        <v>36.00021032652619</v>
       </c>
       <c r="AK103">
         <v>77.40000000000001</v>
@@ -20366,10 +20366,10 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.01558760277298851</v>
+        <v>0.01559102248563219</v>
       </c>
       <c r="AZ103">
-        <v>0.0221695691564606</v>
+        <v>0.02217158160182634</v>
       </c>
       <c r="BA103">
         <v>7.05E-06</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.3613557543103446</v>
+        <v>0.3614781795977011</v>
       </c>
       <c r="BH103">
-        <v>0.3354731702794721</v>
+        <v>0.3356283613558014</v>
       </c>
       <c r="BI103">
         <v>0.000336</v>
@@ -20467,10 +20467,10 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>5.279784482758616</v>
+        <v>5.279755747126432</v>
       </c>
       <c r="T104">
-        <v>0.5700105611446359</v>
+        <v>0.5700206464479994</v>
       </c>
       <c r="U104">
         <v>4.4</v>
@@ -20563,13 +20563,13 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.01566667735632184</v>
+        <v>0.01567084373563218</v>
       </c>
       <c r="AZ104">
-        <v>0.02230643261762984</v>
+        <v>0.02230983134183298</v>
       </c>
       <c r="BA104">
-        <v>7.16E-06</v>
+        <v>7.15E-06</v>
       </c>
       <c r="BB104">
         <v>0.0023075</v>
@@ -20587,10 +20587,10 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.3631449109195403</v>
+        <v>0.3632483563218388</v>
       </c>
       <c r="BH104">
-        <v>0.3372656990463938</v>
+        <v>0.3373746933989947</v>
       </c>
       <c r="BI104">
         <v>0.00034</v>
@@ -20664,10 +20664,10 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>5.279181034482753</v>
+        <v>5.279152298850569</v>
       </c>
       <c r="T105">
-        <v>0.5701495868208811</v>
+        <v>0.570156358532082</v>
       </c>
       <c r="U105">
         <v>4.4</v>
@@ -20760,13 +20760,13 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01574501834770115</v>
+        <v>0.01574932751436782</v>
       </c>
       <c r="AZ105">
-        <v>0.02245009643992731</v>
+        <v>0.02245957043736533</v>
       </c>
       <c r="BA105">
-        <v>7.16E-06</v>
+        <v>7.17E-06</v>
       </c>
       <c r="BB105">
         <v>0.0023175</v>
@@ -20784,10 +20784,10 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.3648518017241381</v>
+        <v>0.3649553922413795</v>
       </c>
       <c r="BH105">
-        <v>0.3388946127749113</v>
+        <v>0.3390066456428504</v>
       </c>
       <c r="BI105">
         <v>0.00034</v>
@@ -20799,7 +20799,7 @@
         <v>0.175</v>
       </c>
       <c r="BL105">
-        <v>0.7142499999999999</v>
+        <v>0.715</v>
       </c>
       <c r="BM105">
         <v>1.37</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>32.70617816091957</v>
+        <v>32.70603448275865</v>
       </c>
       <c r="AR106">
-        <v>18.60360696185646</v>
+        <v>18.60333050769849</v>
       </c>
       <c r="AS106">
         <v>1.46</v>
@@ -20957,13 +20957,13 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.0158180203448276</v>
+        <v>0.01582264647988507</v>
       </c>
       <c r="AZ106">
-        <v>0.0225785617168634</v>
+        <v>0.02258776876907776</v>
       </c>
       <c r="BA106">
-        <v>7.26E-06</v>
+        <v>7.27E-06</v>
       </c>
       <c r="BB106">
         <v>0.002325</v>
@@ -20972,7 +20972,7 @@
         <v>0.0115</v>
       </c>
       <c r="BD106">
-        <v>0.018375</v>
+        <v>0.0184</v>
       </c>
       <c r="BE106">
         <v>0.146</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.3664821839080466</v>
+        <v>0.3665945431034487</v>
       </c>
       <c r="BH106">
-        <v>0.3404042521138579</v>
+        <v>0.3405227081930456</v>
       </c>
       <c r="BI106">
         <v>0.000344</v>
@@ -21058,10 +21058,10 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>5.278635057471259</v>
+        <v>5.278606321839075</v>
       </c>
       <c r="T107">
-        <v>0.5702128888123859</v>
+        <v>0.5702027256964246</v>
       </c>
       <c r="U107">
         <v>4.4</v>
@@ -21106,10 +21106,10 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>124.5224137931034</v>
+        <v>124.5209770114942</v>
       </c>
       <c r="AJ107">
-        <v>35.97851777802066</v>
+        <v>35.97423925904613</v>
       </c>
       <c r="AK107">
         <v>77.40000000000001</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>32.70399425287358</v>
+        <v>32.70385057471266</v>
       </c>
       <c r="AR107">
-        <v>18.60272069124604</v>
+        <v>18.60253160927411</v>
       </c>
       <c r="AS107">
         <v>1.46</v>
@@ -21154,10 +21154,10 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01589695206896551</v>
+        <v>0.01590034431034483</v>
       </c>
       <c r="AZ107">
-        <v>0.02272402732578549</v>
+        <v>0.0227257641505969</v>
       </c>
       <c r="BA107">
         <v>7.3E-06</v>
@@ -21178,13 +21178,13 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.3681519468390804</v>
+        <v>0.3682756479885057</v>
       </c>
       <c r="BH107">
-        <v>0.3421287950943004</v>
+        <v>0.3422739505581883</v>
       </c>
       <c r="BI107">
-        <v>0.000345</v>
+        <v>0.000346</v>
       </c>
       <c r="BJ107">
         <v>0.057275</v>
@@ -21303,10 +21303,10 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>124.5021551724138</v>
+        <v>124.5007183908046</v>
       </c>
       <c r="AJ108">
-        <v>35.94029154722629</v>
+        <v>35.93764923553982</v>
       </c>
       <c r="AK108">
         <v>77.40000000000001</v>
@@ -21351,13 +21351,13 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01597743165229884</v>
+        <v>0.01598427025862068</v>
       </c>
       <c r="AZ108">
-        <v>0.0228598526226753</v>
+        <v>0.02287891240643746</v>
       </c>
       <c r="BA108">
-        <v>7.23E-06</v>
+        <v>7.22E-06</v>
       </c>
       <c r="BB108">
         <v>0.002335</v>
@@ -21375,13 +21375,13 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.3700759770114943</v>
+        <v>0.3701851652298851</v>
       </c>
       <c r="BH108">
-        <v>0.3443471443651969</v>
+        <v>0.3444598109679237</v>
       </c>
       <c r="BI108">
-        <v>0.000344</v>
+        <v>0.000343</v>
       </c>
       <c r="BJ108">
         <v>0.057375</v>
@@ -21390,7 +21390,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL108">
-        <v>0.7242499999999999</v>
+        <v>0.725</v>
       </c>
       <c r="BM108">
         <v>1.41</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>32.70048850574715</v>
+        <v>32.70034482758622</v>
       </c>
       <c r="AR109">
-        <v>18.59972502442013</v>
+        <v>18.59956063986541</v>
       </c>
       <c r="AS109">
         <v>1.46</v>
@@ -21548,13 +21548,13 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01605944221264368</v>
+        <v>0.01606484376436782</v>
       </c>
       <c r="AZ109">
-        <v>0.02299241757268044</v>
+        <v>0.02300292037452453</v>
       </c>
       <c r="BA109">
-        <v>7.3E-06</v>
+        <v>7.28E-06</v>
       </c>
       <c r="BB109">
         <v>0.0023425</v>
@@ -21572,10 +21572,10 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.3719899913793101</v>
+        <v>0.3720835172413789</v>
       </c>
       <c r="BH109">
-        <v>0.3465360909451458</v>
+        <v>0.3466308387771646</v>
       </c>
       <c r="BI109">
         <v>0.000346</v>
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>39.40287356321837</v>
+        <v>39.40272988505745</v>
       </c>
       <c r="L110">
-        <v>2.502417321347057</v>
+        <v>2.502575597926229</v>
       </c>
       <c r="M110">
         <v>35.5</v>
@@ -21649,10 +21649,10 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>5.277701149425284</v>
+        <v>5.277658045977009</v>
       </c>
       <c r="T110">
-        <v>0.5704254651391826</v>
+        <v>0.570398929709993</v>
       </c>
       <c r="U110">
         <v>4.4</v>
@@ -21673,10 +21673,10 @@
         <v>696</v>
       </c>
       <c r="AA110">
-        <v>39.38405172413791</v>
+        <v>39.38390804597699</v>
       </c>
       <c r="AB110">
-        <v>2.517116362612639</v>
+        <v>2.517341229049957</v>
       </c>
       <c r="AC110">
         <v>35.4</v>
@@ -21745,13 +21745,13 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01613925627873563</v>
+        <v>0.01614304837643678</v>
       </c>
       <c r="AZ110">
-        <v>0.02312939853086513</v>
+        <v>0.0231326399919742</v>
       </c>
       <c r="BA110">
-        <v>7.4E-06</v>
+        <v>7.38E-06</v>
       </c>
       <c r="BB110">
         <v>0.00235</v>
@@ -21769,13 +21769,13 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.3737417485632189</v>
+        <v>0.3738395905172417</v>
       </c>
       <c r="BH110">
-        <v>0.3482199105386393</v>
+        <v>0.348318879598909</v>
       </c>
       <c r="BI110">
-        <v>0.00035</v>
+        <v>0.000349</v>
       </c>
       <c r="BJ110">
         <v>0.0577</v>
@@ -21784,7 +21784,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL110">
-        <v>0.73125</v>
+        <v>0.732</v>
       </c>
       <c r="BM110">
         <v>1.43</v>
@@ -21846,10 +21846,10 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>5.277327586206896</v>
+        <v>5.277298850574712</v>
       </c>
       <c r="T111">
-        <v>0.5702611156434256</v>
+        <v>0.5702483642157714</v>
       </c>
       <c r="U111">
         <v>4.4</v>
@@ -21894,10 +21894,10 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>124.4985632183908</v>
+        <v>124.4984195402299</v>
       </c>
       <c r="AJ111">
-        <v>35.93973169737711</v>
+        <v>35.93985640029869</v>
       </c>
       <c r="AK111">
         <v>77.40000000000001</v>
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01621652291666667</v>
+        <v>0.01621946814655172</v>
       </c>
       <c r="AZ111">
-        <v>0.02327861689126333</v>
+        <v>0.0232808414408417</v>
       </c>
       <c r="BA111">
         <v>7.39E-06</v>
@@ -21966,10 +21966,10 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.3754933548850571</v>
+        <v>0.3755811436781606</v>
       </c>
       <c r="BH111">
-        <v>0.3499265656702853</v>
+        <v>0.3500193961214388</v>
       </c>
       <c r="BI111">
         <v>0.00035</v>
@@ -21981,7 +21981,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL111">
-        <v>0.735</v>
+        <v>0.73525</v>
       </c>
       <c r="BM111">
         <v>1.43</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>5.276839080459769</v>
+        <v>5.276824712643678</v>
       </c>
       <c r="T112">
-        <v>0.5702515486554172</v>
+        <v>0.5702430159920306</v>
       </c>
       <c r="U112">
         <v>4.4</v>
@@ -22067,10 +22067,10 @@
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>39.38304597701148</v>
+        <v>39.38290229885057</v>
       </c>
       <c r="AB112">
-        <v>2.518621280525838</v>
+        <v>2.518828818102012</v>
       </c>
       <c r="AC112">
         <v>35.4</v>
@@ -22139,13 +22139,13 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.01628695771551725</v>
+        <v>0.01629174350574713</v>
       </c>
       <c r="AZ112">
-        <v>0.02339588588510344</v>
+        <v>0.02340507883375713</v>
       </c>
       <c r="BA112">
-        <v>7.4E-06</v>
+        <v>7.41E-06</v>
       </c>
       <c r="BB112">
         <v>0.0023575</v>
@@ -22163,13 +22163,13 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.377037610632184</v>
+        <v>0.3771426451149426</v>
       </c>
       <c r="BH112">
-        <v>0.3512844086350135</v>
+        <v>0.3513954463577305</v>
       </c>
       <c r="BI112">
-        <v>0.00035</v>
+        <v>0.000351</v>
       </c>
       <c r="BJ112">
         <v>0.05795</v>
@@ -22178,7 +22178,7 @@
         <v>0.1755</v>
       </c>
       <c r="BL112">
-        <v>0.738</v>
+        <v>0.73825</v>
       </c>
       <c r="BM112">
         <v>1.43</v>
